--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R247"/>
+  <dimension ref="A1:R249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="K110" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L110" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M110" t="n">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="K111" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L111" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M111" t="n">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K112" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L112" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M112" t="n">
-        <v>322</v>
+        <v>721</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>322</v>
+        <v>721</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8493,16 +8493,16 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="K113" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L113" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M113" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="K114" t="n">
         <v>300</v>
       </c>
       <c r="L114" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K115" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L115" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M115" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8700,25 +8700,25 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K116" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L116" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M116" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K117" t="n">
+        <v>380</v>
+      </c>
+      <c r="L117" t="n">
         <v>400</v>
       </c>
-      <c r="L117" t="n">
-        <v>450</v>
-      </c>
       <c r="M117" t="n">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J118" t="n">
         <v>80</v>
       </c>
       <c r="K118" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L118" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M118" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K119" t="n">
         <v>400</v>
       </c>
       <c r="L119" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M119" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8993,11 +8993,11 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K120" t="n">
         <v>330</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="K121" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L121" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="M121" t="n">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K122" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L122" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M122" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="K123" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L123" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M123" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K124" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L124" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M124" t="n">
-        <v>726</v>
+        <v>350</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>726</v>
+        <v>350</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K125" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L125" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M125" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K126" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L126" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M126" t="n">
-        <v>350</v>
+        <v>726</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>350</v>
+        <v>726</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,25 +9492,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K127" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="L127" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="M127" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9569,11 +9569,11 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K128" t="n">
         <v>350</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9641,20 +9641,20 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K129" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L129" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="M129" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K130" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L130" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M130" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,25 +9780,25 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K131" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="L131" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M131" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K132" t="n">
-        <v>1400</v>
+        <v>330</v>
       </c>
       <c r="L132" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="M132" t="n">
-        <v>1453</v>
+        <v>335</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1453</v>
+        <v>335</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K133" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="L133" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="M133" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K134" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L134" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="M134" t="n">
-        <v>529</v>
+        <v>1453</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>529</v>
+        <v>1453</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K135" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L135" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M135" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="K136" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L136" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M136" t="n">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K137" t="n">
         <v>350</v>
       </c>
       <c r="L137" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M137" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10284,25 +10284,25 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K138" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L138" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10365,16 +10365,16 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K139" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L139" t="n">
         <v>380</v>
       </c>
       <c r="M139" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,25 +10428,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K140" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L140" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="M140" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K141" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="L141" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="M141" t="n">
-        <v>878</v>
+        <v>380</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>878</v>
+        <v>380</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K142" t="n">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="L142" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M142" t="n">
-        <v>473</v>
+        <v>1500</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>473</v>
+        <v>1500</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,16 +10653,16 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K143" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="L143" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M143" t="n">
-        <v>350</v>
+        <v>878</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>350</v>
+        <v>878</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K144" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L144" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M144" t="n">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K145" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="L145" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="M145" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J146" t="n">
         <v>170</v>
       </c>
       <c r="K146" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L146" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M146" t="n">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K147" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="L147" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="M147" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11016,13 +11016,13 @@
         <v>170</v>
       </c>
       <c r="K148" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L148" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M148" t="n">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11076,16 +11076,16 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K149" t="n">
         <v>350</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K150" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L150" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M150" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11225,11 +11225,11 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K151" t="n">
         <v>350</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K152" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L152" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M152" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K153" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L153" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M153" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L154" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M154" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K155" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L155" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M155" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K156" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L156" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M156" t="n">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11657,11 +11657,11 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="K157" t="n">
         <v>350</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K158" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L158" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11801,11 +11801,11 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="K159" t="n">
         <v>350</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11868,25 +11868,25 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K160" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L160" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M160" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K161" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L161" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M161" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K162" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L162" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K163" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L163" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M163" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12156,25 +12156,25 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="K164" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L164" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M164" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="K165" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L165" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M165" t="n">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K166" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L166" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M166" t="n">
-        <v>755</v>
+        <v>342</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>755</v>
+        <v>342</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,25 +12372,25 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K167" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L167" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="M167" t="n">
-        <v>526</v>
+        <v>335</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>526</v>
+        <v>335</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12444,25 +12444,25 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K168" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L168" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M168" t="n">
-        <v>427</v>
+        <v>755</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>427</v>
+        <v>755</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,25 +12516,25 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>330</v>
+        <v>155</v>
       </c>
       <c r="K169" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L169" t="n">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="M169" t="n">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12588,25 +12588,25 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K170" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L170" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="M170" t="n">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="K171" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L171" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="M171" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K172" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L172" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M172" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K173" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L173" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M173" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12881,20 +12881,20 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K174" t="n">
         <v>350</v>
       </c>
       <c r="L174" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M174" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K175" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="L175" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M175" t="n">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L176" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M176" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K177" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L177" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M177" t="n">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K178" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="L178" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="M178" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13236,25 +13236,25 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K179" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L179" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K180" t="n">
         <v>450</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13380,25 +13380,25 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K181" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L181" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M181" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K182" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L182" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M182" t="n">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13533,7 +13533,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="K183" t="n">
         <v>330</v>
@@ -13542,7 +13542,7 @@
         <v>350</v>
       </c>
       <c r="M183" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K184" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L184" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M184" t="n">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K185" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L185" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M185" t="n">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K186" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L186" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13824,13 +13824,13 @@
         <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L187" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M187" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K188" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L188" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M188" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>490</v>
+        <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M189" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14028,25 +14028,25 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K190" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="L190" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M190" t="n">
-        <v>340</v>
+        <v>750</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>340</v>
+        <v>750</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14100,25 +14100,25 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>170</v>
+        <v>490</v>
       </c>
       <c r="K191" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L191" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="M191" t="n">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14172,25 +14172,25 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K192" t="n">
-        <v>1400</v>
+        <v>330</v>
       </c>
       <c r="L192" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M192" t="n">
-        <v>1400</v>
+        <v>340</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1400</v>
+        <v>340</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K193" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="L193" t="n">
-        <v>1200</v>
+        <v>230</v>
       </c>
       <c r="M193" t="n">
-        <v>1200</v>
+        <v>214</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1200</v>
+        <v>214</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14316,25 +14316,25 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L194" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M194" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K195" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="L195" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M195" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K196" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L196" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="M196" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K197" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="L197" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="M197" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K198" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L198" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="M198" t="n">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14676,25 +14676,25 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K199" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L199" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M199" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K200" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L200" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M200" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J201" t="n">
         <v>180</v>
       </c>
       <c r="K201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K202" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L202" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="M202" t="n">
-        <v>674</v>
+        <v>410</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>674</v>
+        <v>410</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14964,25 +14964,25 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L203" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M203" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="K204" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="L204" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M204" t="n">
-        <v>391</v>
+        <v>674</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>391</v>
+        <v>674</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K205" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="L205" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="M205" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="K206" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L206" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M206" t="n">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K207" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="L207" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="M207" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K208" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L208" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M208" t="n">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15396,25 +15396,25 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K209" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="L209" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M209" t="n">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15468,25 +15468,25 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L210" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M210" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K211" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="L211" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M211" t="n">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K212" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L212" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M212" t="n">
-        <v>853</v>
+        <v>300</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>853</v>
+        <v>300</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44186</v>
+        <v>44281</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15684,25 +15684,25 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K213" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L213" t="n">
-        <v>650</v>
+        <v>420</v>
       </c>
       <c r="M213" t="n">
-        <v>626</v>
+        <v>411</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>626</v>
+        <v>411</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15768,13 +15768,13 @@
         <v>170</v>
       </c>
       <c r="K214" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L214" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M214" t="n">
-        <v>474</v>
+        <v>853</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>474</v>
+        <v>853</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K215" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L215" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M215" t="n">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K216" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L216" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M216" t="n">
-        <v>317</v>
+        <v>474</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>317</v>
+        <v>474</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K217" t="n">
+        <v>350</v>
+      </c>
+      <c r="L217" t="n">
         <v>400</v>
       </c>
-      <c r="L217" t="n">
-        <v>420</v>
-      </c>
       <c r="M217" t="n">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16044,25 +16044,25 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K218" t="n">
         <v>300</v>
       </c>
       <c r="L218" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K219" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L219" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M219" t="n">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K220" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L220" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="M220" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K221" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L221" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="M221" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K222" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="L222" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M222" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K223" t="n">
         <v>350</v>
       </c>
       <c r="L223" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M223" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16481,11 +16481,11 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K224" t="n">
         <v>250</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K225" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L225" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M225" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K226" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="L226" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M226" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K227" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L227" t="n">
         <v>400</v>
       </c>
       <c r="M227" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K228" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M228" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16836,25 +16836,25 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K229" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L229" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K230" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L230" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M230" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16980,25 +16980,25 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K231" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="L231" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M231" t="n">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K232" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L232" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M232" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17124,25 +17124,25 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K233" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L233" t="n">
         <v>350</v>
       </c>
       <c r="M233" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K234" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L234" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M234" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17280,13 +17280,13 @@
         <v>80</v>
       </c>
       <c r="K235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K236" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L236" t="n">
         <v>400</v>
       </c>
       <c r="M236" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K237" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L237" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M237" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K238" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L238" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M238" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K239" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="L239" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="M239" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K240" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L240" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="M240" t="n">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,25 +17700,25 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L241" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M241" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K242" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L242" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M242" t="n">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K243" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L243" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M243" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,25 +17916,25 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K244" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="L244" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M244" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17988,25 +17988,25 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="K245" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="L245" t="n">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="M245" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="K246" t="n">
-        <v>1500</v>
+        <v>320</v>
       </c>
       <c r="L246" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="M246" t="n">
-        <v>1500</v>
+        <v>333</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18087,11 +18087,11 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1500</v>
+        <v>333</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,58 +18117,202 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E247" t="n">
+        <v>5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J247" t="n">
+        <v>240</v>
+      </c>
+      <c r="K247" t="n">
+        <v>360</v>
+      </c>
+      <c r="L247" t="n">
+        <v>370</v>
+      </c>
+      <c r="M247" t="n">
+        <v>367</v>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>1</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>3</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E247" t="n">
-        <v>5</v>
-      </c>
-      <c r="F247" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="E248" t="n">
+        <v>5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J248" t="n">
+        <v>160</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P248" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>1</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>3</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
+      <c r="I249" t="inlineStr">
         <is>
           <t>1a nueva(o)</t>
         </is>
       </c>
-      <c r="J247" t="n">
+      <c r="J249" t="n">
         <v>230</v>
       </c>
-      <c r="K247" t="n">
+      <c r="K249" t="n">
         <v>900</v>
       </c>
-      <c r="L247" t="n">
+      <c r="L249" t="n">
         <v>950</v>
       </c>
-      <c r="M247" t="n">
+      <c r="M249" t="n">
         <v>926</v>
       </c>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O247" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P247" t="n">
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
         <v>926</v>
       </c>
-      <c r="Q247" t="n">
-        <v>1</v>
-      </c>
-      <c r="R247" t="inlineStr">
+      <c r="Q249" t="n">
+        <v>1</v>
+      </c>
+      <c r="R249" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R249"/>
+  <dimension ref="A1:R251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E66" t="n">
         <v>5</v>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K66" t="n">
         <v>450</v>
@@ -5118,7 +5118,7 @@
         <v>500</v>
       </c>
       <c r="M66" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -5172,25 +5172,25 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K67" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L67" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M67" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q67" t="n">
         <v>1</v>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E68" t="n">
         <v>5</v>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K68" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L68" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M68" t="n">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>350</v>
+        <v>476</v>
       </c>
       <c r="Q68" t="n">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E69" t="n">
         <v>5</v>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5325,16 +5325,16 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K69" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L69" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="M69" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -5393,20 +5393,20 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K70" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L70" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M70" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5419,7 +5419,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q70" t="n">
         <v>1</v>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
@@ -5469,16 +5469,16 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K71" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L71" t="n">
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="M71" t="n">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="Q71" t="n">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44239</v>
+        <v>44403</v>
       </c>
       <c r="E72" t="n">
         <v>5</v>
@@ -5532,25 +5532,25 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J72" t="n">
         <v>80</v>
       </c>
       <c r="K72" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L72" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M72" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q72" t="n">
         <v>1</v>
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5609,20 +5609,20 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K73" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L73" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="M73" t="n">
-        <v>800</v>
+        <v>409</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>800</v>
+        <v>409</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44306</v>
+        <v>44239</v>
       </c>
       <c r="E74" t="n">
         <v>5</v>
@@ -5676,25 +5676,25 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q74" t="n">
         <v>1</v>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E75" t="n">
         <v>5</v>
@@ -5757,16 +5757,16 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K75" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L75" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M75" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E76" t="n">
         <v>5</v>
@@ -5820,25 +5820,25 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J76" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K76" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L76" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M76" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
@@ -5877,7 +5877,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E77" t="n">
         <v>5</v>
@@ -5901,16 +5901,16 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K77" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="L77" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M77" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44396</v>
+        <v>44356</v>
       </c>
       <c r="E78" t="n">
         <v>5</v>
@@ -5964,25 +5964,25 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="K78" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L78" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M78" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6045,16 +6045,16 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K79" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="L79" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="M79" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
@@ -6113,20 +6113,20 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="K80" t="n">
         <v>350</v>
       </c>
       <c r="L80" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M80" t="n">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
@@ -6165,7 +6165,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44340</v>
+        <v>44396</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
@@ -6180,25 +6180,25 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K81" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="L81" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M81" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E82" t="n">
         <v>5</v>
@@ -6257,20 +6257,20 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K82" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L82" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="M82" t="n">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6329,20 +6329,20 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J83" t="n">
         <v>150</v>
       </c>
       <c r="K83" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L83" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
@@ -6381,7 +6381,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E84" t="n">
         <v>5</v>
@@ -6405,16 +6405,16 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K84" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L84" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M84" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q84" t="n">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -6468,16 +6468,16 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K85" t="n">
         <v>300</v>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E86" t="n">
         <v>5</v>
@@ -6549,16 +6549,16 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="K86" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L86" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M86" t="n">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44299</v>
+        <v>44271</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6612,25 +6612,25 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K87" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L87" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M87" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44162</v>
+        <v>44280</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6693,16 +6693,16 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="K88" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="L88" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M88" t="n">
-        <v>1200</v>
+        <v>393</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1200</v>
+        <v>393</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6761,11 +6761,11 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K89" t="n">
         <v>400</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6828,25 +6828,25 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>310</v>
+        <v>70</v>
       </c>
       <c r="K90" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L90" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M90" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44175</v>
+        <v>44342</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6905,20 +6905,20 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="K91" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="L91" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M91" t="n">
-        <v>1146</v>
+        <v>400</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1146</v>
+        <v>400</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,25 +6972,25 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="K92" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L92" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="M92" t="n">
-        <v>639</v>
+        <v>360</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>639</v>
+        <v>360</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44384</v>
+        <v>44175</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7049,20 +7049,20 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="K93" t="n">
-        <v>320</v>
+        <v>1100</v>
       </c>
       <c r="L93" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="M93" t="n">
-        <v>329</v>
+        <v>1146</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>329</v>
+        <v>1146</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7125,16 +7125,16 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K94" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L94" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M94" t="n">
-        <v>423</v>
+        <v>639</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>423</v>
+        <v>639</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44242</v>
+        <v>44384</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7193,20 +7193,20 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K95" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="L95" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M95" t="n">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7260,7 +7260,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7269,16 +7269,16 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="K96" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L96" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="N96" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7337,20 +7337,20 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K97" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L97" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M97" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44323</v>
+        <v>44242</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7404,25 +7404,25 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="K98" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L98" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M98" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44200</v>
+        <v>44204</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K99" t="n">
         <v>500</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,16 +7548,16 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="K100" t="n">
         <v>350</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44363</v>
+        <v>44200</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J101" t="n">
         <v>120</v>
       </c>
       <c r="K101" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L101" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M101" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44216</v>
+        <v>44200</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K102" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L102" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M102" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44216</v>
+        <v>44363</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K103" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L103" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44349</v>
+        <v>44216</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7841,20 +7841,20 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J104" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K104" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="L104" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M104" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44385</v>
+        <v>44216</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7908,25 +7908,25 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K105" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L105" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M105" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44258</v>
+        <v>44349</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7985,20 +7985,20 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J106" t="n">
         <v>170</v>
       </c>
       <c r="K106" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="L106" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M106" t="n">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8057,20 +8057,20 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="K107" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L107" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M107" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="N107" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44243</v>
+        <v>44258</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8129,20 +8129,20 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="K108" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L108" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M108" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8201,20 +8201,20 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K109" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L109" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M109" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N109" t="inlineStr">
         <is>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8273,20 +8273,20 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K110" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L110" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M110" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K111" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L111" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M111" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="K112" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L112" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M112" t="n">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>721</v>
+        <v>500</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="K113" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L113" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M113" t="n">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>521</v>
+        <v>350</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8556,25 +8556,25 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K114" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L114" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M114" t="n">
-        <v>322</v>
+        <v>721</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>322</v>
+        <v>721</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="K115" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L115" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M115" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44237</v>
+        <v>44222</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8700,25 +8700,25 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="K116" t="n">
         <v>300</v>
       </c>
       <c r="L116" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44273</v>
+        <v>44237</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K117" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L117" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M117" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44377</v>
+        <v>44237</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8844,25 +8844,25 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K118" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L118" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M118" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8925,16 +8925,16 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="K119" t="n">
+        <v>380</v>
+      </c>
+      <c r="L119" t="n">
         <v>400</v>
       </c>
-      <c r="L119" t="n">
-        <v>450</v>
-      </c>
       <c r="M119" t="n">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44257</v>
+        <v>44377</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8988,25 +8988,25 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J120" t="n">
         <v>80</v>
       </c>
       <c r="K120" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L120" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M120" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K121" t="n">
         <v>400</v>
       </c>
       <c r="L121" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M121" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9137,11 +9137,11 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K122" t="n">
         <v>330</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="K123" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L123" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="M123" t="n">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K124" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L124" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M124" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="K125" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L125" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M125" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="K126" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L126" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M126" t="n">
-        <v>726</v>
+        <v>350</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>726</v>
+        <v>350</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,25 +9492,25 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K127" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L127" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M127" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9569,20 +9569,20 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K128" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L128" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M128" t="n">
-        <v>350</v>
+        <v>726</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>350</v>
+        <v>726</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K129" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="L129" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="M129" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,11 +9713,11 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K130" t="n">
         <v>350</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K131" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="L131" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="M131" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>350</v>
+        <v>270</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9857,20 +9857,20 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K132" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L132" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M132" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44383</v>
+        <v>44298</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K133" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="L133" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M133" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K134" t="n">
-        <v>1400</v>
+        <v>330</v>
       </c>
       <c r="L134" t="n">
-        <v>1500</v>
+        <v>340</v>
       </c>
       <c r="M134" t="n">
-        <v>1453</v>
+        <v>335</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10023,11 +10023,11 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1453</v>
+        <v>335</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K135" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="L135" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="M135" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>900</v>
+        <v>230</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K136" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L136" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="M136" t="n">
-        <v>529</v>
+        <v>1453</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10167,11 +10167,11 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>529</v>
+        <v>1453</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K137" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L137" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M137" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44412</v>
+        <v>44410</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10293,16 +10293,16 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="K138" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L138" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M138" t="n">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K139" t="n">
         <v>350</v>
       </c>
       <c r="L139" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M139" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,25 +10428,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K140" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L140" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>300</v>
+        <v>474</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44300</v>
+        <v>44336</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K141" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L141" t="n">
         <v>380</v>
       </c>
       <c r="M141" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K142" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L142" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="M142" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44172</v>
+        <v>44300</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K143" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="L143" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="M143" t="n">
-        <v>878</v>
+        <v>380</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>878</v>
+        <v>380</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K144" t="n">
-        <v>450</v>
+        <v>1500</v>
       </c>
       <c r="L144" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="M144" t="n">
-        <v>473</v>
+        <v>1500</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>473</v>
+        <v>1500</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K145" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="L145" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="M145" t="n">
-        <v>350</v>
+        <v>878</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>350</v>
+        <v>878</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K146" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L146" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M146" t="n">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K147" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="L147" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="M147" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J148" t="n">
         <v>170</v>
       </c>
       <c r="K148" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L148" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M148" t="n">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>426</v>
+        <v>339</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K149" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="L149" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="M149" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44274</v>
+        <v>44238</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11160,13 +11160,13 @@
         <v>170</v>
       </c>
       <c r="K150" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L150" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M150" t="n">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,16 +11220,16 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K151" t="n">
         <v>350</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K152" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="L152" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M152" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11369,11 +11369,11 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K153" t="n">
         <v>350</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K154" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L154" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M154" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K155" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L155" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M155" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K156" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L156" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M156" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L157" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M157" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K158" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L158" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M158" t="n">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11801,11 +11801,11 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="K159" t="n">
         <v>350</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K160" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L160" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11945,11 +11945,11 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="K161" t="n">
         <v>350</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12012,25 +12012,25 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="K162" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L162" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M162" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K163" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L163" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M163" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K164" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L164" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K165" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L165" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M165" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12300,25 +12300,25 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="K166" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L166" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M166" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44391</v>
+        <v>44313</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="K167" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L167" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M167" t="n">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>335</v>
+        <v>391</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K168" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L168" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M168" t="n">
-        <v>755</v>
+        <v>342</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>755</v>
+        <v>342</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,25 +12516,25 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L169" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="M169" t="n">
-        <v>526</v>
+        <v>335</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>526</v>
+        <v>335</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12588,25 +12588,25 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L170" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M170" t="n">
-        <v>427</v>
+        <v>755</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>427</v>
+        <v>755</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,25 +12660,25 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>330</v>
+        <v>155</v>
       </c>
       <c r="K171" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L171" t="n">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="M171" t="n">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>355</v>
+        <v>526</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12732,25 +12732,25 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K172" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L172" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="M172" t="n">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12809,20 +12809,20 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="K173" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L173" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="M173" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K174" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L174" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="M174" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K175" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L175" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M175" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K176" t="n">
         <v>350</v>
       </c>
       <c r="L176" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M176" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="K177" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="L177" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M177" t="n">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K178" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L178" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M178" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K179" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L179" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M179" t="n">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K180" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="L180" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="M180" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44251</v>
+        <v>44399</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13380,25 +13380,25 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K181" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L181" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>300</v>
+        <v>413</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K182" t="n">
         <v>450</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13524,25 +13524,25 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K183" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L183" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M183" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K184" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L184" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M184" t="n">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13677,7 +13677,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="K185" t="n">
         <v>330</v>
@@ -13686,7 +13686,7 @@
         <v>350</v>
       </c>
       <c r="M185" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K186" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L186" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M186" t="n">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K187" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L187" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M187" t="n">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>425</v>
+        <v>339</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K188" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L188" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13968,13 +13968,13 @@
         <v>160</v>
       </c>
       <c r="K189" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L189" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M189" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K190" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="L190" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M190" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>490</v>
+        <v>160</v>
       </c>
       <c r="K191" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L191" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M191" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>361</v>
+        <v>500</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14172,25 +14172,25 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K192" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="L192" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M192" t="n">
-        <v>340</v>
+        <v>750</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>340</v>
+        <v>750</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14244,25 +14244,25 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>170</v>
+        <v>490</v>
       </c>
       <c r="K193" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="L193" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="M193" t="n">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14316,25 +14316,25 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K194" t="n">
-        <v>1400</v>
+        <v>330</v>
       </c>
       <c r="L194" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M194" t="n">
-        <v>1400</v>
+        <v>340</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1400</v>
+        <v>340</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K195" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="L195" t="n">
-        <v>1200</v>
+        <v>230</v>
       </c>
       <c r="M195" t="n">
-        <v>1200</v>
+        <v>214</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1200</v>
+        <v>214</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14460,25 +14460,25 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K196" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L196" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M196" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K197" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="L197" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M197" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K198" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L198" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="M198" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K199" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="L199" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="M199" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44333</v>
+        <v>44265</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K200" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L200" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="M200" t="n">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14820,25 +14820,25 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K201" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="L201" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="M201" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44277</v>
+        <v>44333</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L202" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M202" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J203" t="n">
         <v>180</v>
       </c>
       <c r="K203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K204" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L204" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="M204" t="n">
-        <v>674</v>
+        <v>410</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>674</v>
+        <v>410</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15108,25 +15108,25 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K205" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L205" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M205" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="K206" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="L206" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M206" t="n">
-        <v>391</v>
+        <v>674</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>391</v>
+        <v>674</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K207" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="M207" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="K208" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L208" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M208" t="n">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K209" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="L209" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="M209" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K210" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L210" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M210" t="n">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="L211" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M211" t="n">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K212" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L212" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K213" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="L213" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M213" t="n">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K214" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L214" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M214" t="n">
-        <v>853</v>
+        <v>300</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>853</v>
+        <v>300</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44186</v>
+        <v>44281</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15828,25 +15828,25 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K215" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L215" t="n">
-        <v>650</v>
+        <v>420</v>
       </c>
       <c r="M215" t="n">
-        <v>626</v>
+        <v>411</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>626</v>
+        <v>411</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15912,13 +15912,13 @@
         <v>170</v>
       </c>
       <c r="K216" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L216" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="M216" t="n">
-        <v>474</v>
+        <v>853</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>474</v>
+        <v>853</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K217" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L217" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M217" t="n">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>371</v>
+        <v>626</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K218" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L218" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M218" t="n">
-        <v>317</v>
+        <v>474</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>317</v>
+        <v>474</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K219" t="n">
+        <v>350</v>
+      </c>
+      <c r="L219" t="n">
         <v>400</v>
       </c>
-      <c r="L219" t="n">
-        <v>420</v>
-      </c>
       <c r="M219" t="n">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44272</v>
+        <v>44301</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K220" t="n">
         <v>300</v>
       </c>
       <c r="L220" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M220" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K221" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L221" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M221" t="n">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>335</v>
+        <v>409</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K222" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L222" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="M222" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K223" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L223" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="M223" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44230</v>
+        <v>44326</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16476,25 +16476,25 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K224" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="L224" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M224" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K225" t="n">
         <v>350</v>
       </c>
       <c r="L225" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M225" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,11 +16625,11 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K226" t="n">
         <v>250</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K227" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L227" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M227" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K228" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="L228" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M228" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44398</v>
+        <v>44232</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K229" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L229" t="n">
         <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K230" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L230" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M230" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44270</v>
+        <v>44398</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16980,25 +16980,25 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K231" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L231" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M231" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K232" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L232" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M232" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17124,25 +17124,25 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K233" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="L233" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M233" t="n">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>339</v>
+        <v>280</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K234" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L234" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M234" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17268,25 +17268,25 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K235" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L235" t="n">
         <v>350</v>
       </c>
       <c r="M235" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K236" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L236" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M236" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17424,13 +17424,13 @@
         <v>80</v>
       </c>
       <c r="K237" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L237" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44343</v>
+        <v>44244</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K238" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L238" t="n">
         <v>400</v>
       </c>
       <c r="M238" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K239" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L239" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K240" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L240" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M240" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K241" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="L241" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="M241" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="K242" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L242" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="M242" t="n">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K243" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L243" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M243" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K244" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L244" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M244" t="n">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>800</v>
+        <v>478</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K245" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L245" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M245" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44284</v>
+        <v>44179</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18060,25 +18060,25 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K246" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="L246" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M246" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18132,25 +18132,25 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="K247" t="n">
-        <v>360</v>
+        <v>700</v>
       </c>
       <c r="L247" t="n">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="M247" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>367</v>
+        <v>700</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44168</v>
+        <v>44284</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="K248" t="n">
-        <v>1500</v>
+        <v>320</v>
       </c>
       <c r="L248" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="M248" t="n">
-        <v>1500</v>
+        <v>333</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18231,11 +18231,11 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P248" t="n">
-        <v>1500</v>
+        <v>333</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,58 +18261,202 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E249" t="n">
+        <v>5</v>
+      </c>
+      <c r="F249" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J249" t="n">
+        <v>240</v>
+      </c>
+      <c r="K249" t="n">
+        <v>360</v>
+      </c>
+      <c r="L249" t="n">
+        <v>370</v>
+      </c>
+      <c r="M249" t="n">
+        <v>367</v>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P249" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>1</v>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>3</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E249" t="n">
-        <v>5</v>
-      </c>
-      <c r="F249" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="E250" t="n">
+        <v>5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J250" t="n">
+        <v>160</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Perú</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>1</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>3</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I249" t="inlineStr">
+      <c r="I251" t="inlineStr">
         <is>
           <t>1a nueva(o)</t>
         </is>
       </c>
-      <c r="J249" t="n">
+      <c r="J251" t="n">
         <v>230</v>
       </c>
-      <c r="K249" t="n">
+      <c r="K251" t="n">
         <v>900</v>
       </c>
-      <c r="L249" t="n">
+      <c r="L251" t="n">
         <v>950</v>
       </c>
-      <c r="M249" t="n">
+      <c r="M251" t="n">
         <v>926</v>
       </c>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O249" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P249" t="n">
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P251" t="n">
         <v>926</v>
       </c>
-      <c r="Q249" t="n">
-        <v>1</v>
-      </c>
-      <c r="R249" t="inlineStr">
+      <c r="Q251" t="n">
+        <v>1</v>
+      </c>
+      <c r="R251" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E87" t="n">
         <v>5</v>
@@ -6617,20 +6617,20 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J87" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="K87" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L87" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="M87" t="n">
-        <v>365</v>
+        <v>750</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>365</v>
+        <v>750</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6684,25 +6684,25 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J88" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K88" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="L88" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="M88" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6761,20 +6761,20 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="K89" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L89" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="M89" t="n">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E90" t="n">
         <v>5</v>
@@ -6833,20 +6833,20 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J90" t="n">
         <v>150</v>
       </c>
       <c r="K90" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L90" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E91" t="n">
         <v>5</v>
@@ -6909,16 +6909,16 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="K91" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L91" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M91" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E92" t="n">
         <v>5</v>
@@ -6972,16 +6972,16 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K92" t="n">
         <v>300</v>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E93" t="n">
         <v>5</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="K93" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L93" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M93" t="n">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -7101,7 +7101,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44299</v>
+        <v>44271</v>
       </c>
       <c r="E94" t="n">
         <v>5</v>
@@ -7116,25 +7116,25 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K94" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L94" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M94" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q94" t="n">
         <v>1</v>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44162</v>
+        <v>44280</v>
       </c>
       <c r="E95" t="n">
         <v>5</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7197,16 +7197,16 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="K95" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="L95" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M95" t="n">
-        <v>1200</v>
+        <v>393</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1200</v>
+        <v>393</v>
       </c>
       <c r="Q95" t="n">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E96" t="n">
         <v>5</v>
@@ -7265,11 +7265,11 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K96" t="n">
         <v>400</v>
@@ -7317,7 +7317,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44362</v>
+        <v>44428</v>
       </c>
       <c r="E97" t="n">
         <v>5</v>
@@ -7341,16 +7341,16 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="K97" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L97" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="M97" t="n">
-        <v>360</v>
+        <v>574</v>
       </c>
       <c r="N97" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>360</v>
+        <v>574</v>
       </c>
       <c r="Q97" t="n">
         <v>1</v>
@@ -7389,7 +7389,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44175</v>
+        <v>44428</v>
       </c>
       <c r="E98" t="n">
         <v>5</v>
@@ -7409,20 +7409,20 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c r="K98" t="n">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="L98" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M98" t="n">
-        <v>1146</v>
+        <v>400</v>
       </c>
       <c r="N98" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1146</v>
+        <v>400</v>
       </c>
       <c r="Q98" t="n">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44175</v>
+        <v>44428</v>
       </c>
       <c r="E99" t="n">
         <v>5</v>
@@ -7481,20 +7481,20 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J99" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="K99" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L99" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="M99" t="n">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="N99" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44384</v>
+        <v>44162</v>
       </c>
       <c r="E100" t="n">
         <v>5</v>
@@ -7548,25 +7548,25 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K100" t="n">
-        <v>320</v>
+        <v>1200</v>
       </c>
       <c r="L100" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="M100" t="n">
-        <v>329</v>
+        <v>1200</v>
       </c>
       <c r="N100" t="inlineStr">
         <is>
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>329</v>
+        <v>1200</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44242</v>
+        <v>44342</v>
       </c>
       <c r="E101" t="n">
         <v>5</v>
@@ -7625,20 +7625,20 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K101" t="n">
         <v>400</v>
       </c>
       <c r="L101" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M101" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="N101" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="Q101" t="n">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E102" t="n">
         <v>5</v>
@@ -7697,20 +7697,20 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K102" t="n">
         <v>350</v>
       </c>
       <c r="L102" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M102" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q102" t="n">
         <v>1</v>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44242</v>
+        <v>44175</v>
       </c>
       <c r="E103" t="n">
         <v>5</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7773,16 +7773,16 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="K103" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="L103" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>1146</v>
       </c>
       <c r="N103" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>300</v>
+        <v>1146</v>
       </c>
       <c r="Q103" t="n">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44204</v>
+        <v>44175</v>
       </c>
       <c r="E104" t="n">
         <v>5</v>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K104" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L104" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M104" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="N104" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44323</v>
+        <v>44384</v>
       </c>
       <c r="E105" t="n">
         <v>5</v>
@@ -7913,20 +7913,20 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="K105" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="L105" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M105" t="n">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="N105" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44200</v>
+        <v>44242</v>
       </c>
       <c r="E106" t="n">
         <v>5</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K106" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L106" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M106" t="n">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="N106" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44200</v>
+        <v>44242</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -8052,16 +8052,16 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K107" t="n">
         <v>350</v>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44363</v>
+        <v>44242</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8124,25 +8124,25 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="K108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N108" t="inlineStr">
         <is>
@@ -8155,7 +8155,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q108" t="n">
         <v>1</v>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44216</v>
+        <v>44204</v>
       </c>
       <c r="E109" t="n">
         <v>5</v>
@@ -8205,7 +8205,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K109" t="n">
         <v>500</v>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44216</v>
+        <v>44323</v>
       </c>
       <c r="E110" t="n">
         <v>5</v>
@@ -8268,25 +8268,25 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K110" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L110" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M110" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N110" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44349</v>
+        <v>44200</v>
       </c>
       <c r="E111" t="n">
         <v>5</v>
@@ -8345,20 +8345,20 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K111" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="L111" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M111" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="N111" t="inlineStr">
         <is>
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E112" t="n">
         <v>5</v>
@@ -8412,25 +8412,25 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K112" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L112" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M112" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="N112" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44258</v>
+        <v>44363</v>
       </c>
       <c r="E113" t="n">
         <v>5</v>
@@ -8489,20 +8489,20 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K113" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L113" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M113" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="N113" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44243</v>
+        <v>44216</v>
       </c>
       <c r="E114" t="n">
         <v>5</v>
@@ -8565,16 +8565,16 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K114" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L114" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M114" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N114" t="inlineStr">
         <is>
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44243</v>
+        <v>44216</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8628,16 +8628,16 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="K115" t="n">
         <v>300</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44243</v>
+        <v>44349</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8705,20 +8705,20 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K116" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="L116" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M116" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8781,16 +8781,16 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K117" t="n">
-        <v>650</v>
+        <v>320</v>
       </c>
       <c r="L117" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="M117" t="n">
-        <v>675</v>
+        <v>325</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>675</v>
+        <v>325</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44427</v>
+        <v>44258</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K118" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L118" t="n">
         <v>450</v>
       </c>
       <c r="M118" t="n">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44427</v>
+        <v>44243</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8916,16 +8916,16 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="K119" t="n">
         <v>400</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8993,20 +8993,20 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K120" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L120" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M120" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K121" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L121" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M121" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44176</v>
+        <v>44427</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9132,25 +9132,25 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="K122" t="n">
+        <v>650</v>
+      </c>
+      <c r="L122" t="n">
         <v>700</v>
       </c>
-      <c r="L122" t="n">
-        <v>750</v>
-      </c>
       <c r="M122" t="n">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>721</v>
+        <v>675</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K123" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L123" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M123" t="n">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>528</v>
+        <v>450</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44421</v>
+        <v>44427</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c r="K125" t="n">
         <v>500</v>
       </c>
       <c r="L125" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M125" t="n">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9405,7 +9405,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E126" t="n">
         <v>5</v>
@@ -9425,20 +9425,20 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K126" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L126" t="n">
         <v>350</v>
       </c>
       <c r="M126" t="n">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44237</v>
+        <v>44176</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K127" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L127" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="M127" t="n">
-        <v>450</v>
+        <v>721</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>450</v>
+        <v>721</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9549,7 +9549,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44237</v>
+        <v>44421</v>
       </c>
       <c r="E128" t="n">
         <v>5</v>
@@ -9564,25 +9564,25 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="K128" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L128" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>340</v>
+        <v>110</v>
       </c>
       <c r="K129" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L129" t="n">
         <v>400</v>
       </c>
       <c r="M129" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9693,7 +9693,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44377</v>
+        <v>44222</v>
       </c>
       <c r="E130" t="n">
         <v>5</v>
@@ -9713,20 +9713,20 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="K130" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L130" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M130" t="n">
-        <v>350</v>
+        <v>521</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>350</v>
+        <v>521</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44257</v>
+        <v>44222</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9785,20 +9785,20 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K131" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L131" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M131" t="n">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44257</v>
+        <v>44237</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9864,13 +9864,13 @@
         <v>80</v>
       </c>
       <c r="K132" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L132" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="M132" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44400</v>
+        <v>44237</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="K133" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L133" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M133" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -9996,25 +9996,25 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="K134" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L134" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M134" t="n">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44426</v>
+        <v>44377</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K135" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L135" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M135" t="n">
-        <v>523</v>
+        <v>350</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>523</v>
+        <v>350</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="K136" t="n">
+        <v>400</v>
+      </c>
+      <c r="L136" t="n">
         <v>450</v>
       </c>
-      <c r="L136" t="n">
-        <v>500</v>
-      </c>
       <c r="M136" t="n">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>478</v>
+        <v>422</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="K137" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L137" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M137" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44295</v>
+        <v>44400</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="K138" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L138" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M138" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44194</v>
+        <v>44400</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="K139" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L139" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="M139" t="n">
-        <v>726</v>
+        <v>330</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>726</v>
+        <v>330</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44194</v>
+        <v>44426</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10428,25 +10428,25 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K140" t="n">
         <v>500</v>
       </c>
       <c r="L140" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M140" t="n">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44390</v>
+        <v>44225</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="K141" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L141" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M141" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44390</v>
+        <v>44225</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="K142" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="L142" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M142" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44321</v>
+        <v>44295</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K143" t="n">
         <v>350</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44298</v>
+        <v>44194</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="K144" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L144" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="M144" t="n">
-        <v>350</v>
+        <v>726</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>350</v>
+        <v>726</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44383</v>
+        <v>44194</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K145" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L145" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="M145" t="n">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10860,7 +10860,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="K146" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="L146" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M146" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44169</v>
+        <v>44390</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K147" t="n">
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="L147" t="n">
-        <v>1500</v>
+        <v>270</v>
       </c>
       <c r="M147" t="n">
-        <v>1453</v>
+        <v>270</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10959,11 +10959,11 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1453</v>
+        <v>270</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44169</v>
+        <v>44321</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,25 +11004,25 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K148" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L148" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="M148" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44410</v>
+        <v>44298</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K149" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L149" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M149" t="n">
-        <v>529</v>
+        <v>350</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>529</v>
+        <v>350</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44410</v>
+        <v>44383</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,7 +11148,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -11157,16 +11157,16 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K150" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L150" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M150" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44412</v>
+        <v>44383</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
+        <v>60</v>
+      </c>
+      <c r="K151" t="n">
         <v>230</v>
       </c>
-      <c r="K151" t="n">
-        <v>450</v>
-      </c>
       <c r="L151" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="M151" t="n">
-        <v>474</v>
+        <v>230</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>474</v>
+        <v>230</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="K152" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="L152" t="n">
-        <v>380</v>
+        <v>1500</v>
       </c>
       <c r="M152" t="n">
-        <v>362</v>
+        <v>1453</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11319,11 +11319,11 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>362</v>
+        <v>1453</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="K153" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="L153" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44300</v>
+        <v>44410</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K154" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L154" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="M154" t="n">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>380</v>
+        <v>529</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44172</v>
+        <v>44410</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11508,25 +11508,25 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
         <v>120</v>
       </c>
       <c r="K155" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="L155" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="M155" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44172</v>
+        <v>44412</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11580,25 +11580,25 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K156" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L156" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M156" t="n">
-        <v>878</v>
+        <v>474</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>878</v>
+        <v>474</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="K157" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L157" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="M157" t="n">
-        <v>473</v>
+        <v>362</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>473</v>
+        <v>362</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K158" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L158" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M158" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44371</v>
+        <v>44300</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L159" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M159" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K160" t="n">
-        <v>240</v>
+        <v>850</v>
       </c>
       <c r="L160" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="M160" t="n">
-        <v>240</v>
+        <v>878</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>240</v>
+        <v>878</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="K161" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L161" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M161" t="n">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J163" t="n">
         <v>170</v>
       </c>
       <c r="K163" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L163" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M163" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12156,25 +12156,25 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K164" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="L164" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="M164" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K165" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="L165" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="M165" t="n">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12300,12 +12300,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J166" t="n">
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44364</v>
+        <v>44274</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K167" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L167" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M167" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44405</v>
+        <v>44320</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J168" t="n">
         <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L168" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M168" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>525</v>
+        <v>350</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44224</v>
+        <v>44314</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K169" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="L169" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M169" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44224</v>
+        <v>44314</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12593,11 +12593,11 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K170" t="n">
         <v>350</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44260</v>
+        <v>44364</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K171" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L171" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M171" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44260</v>
+        <v>44435</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="K172" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L172" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M172" t="n">
-        <v>350</v>
+        <v>651</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>350</v>
+        <v>651</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44260</v>
+        <v>44435</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12804,25 +12804,25 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="K173" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L173" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>591</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>300</v>
+        <v>591</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12876,25 +12876,25 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J174" t="n">
         <v>160</v>
       </c>
       <c r="K174" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L174" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M174" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44209</v>
+        <v>44431</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K175" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L175" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M175" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44231</v>
+        <v>44431</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13025,20 +13025,20 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K176" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L176" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M176" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44231</v>
+        <v>44405</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13092,25 +13092,25 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K177" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L177" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>300</v>
+        <v>525</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44313</v>
+        <v>44224</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K178" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L178" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M178" t="n">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44330</v>
+        <v>44224</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K179" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L179" t="n">
         <v>350</v>
       </c>
       <c r="M179" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44391</v>
+        <v>44260</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K180" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L180" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="M180" t="n">
-        <v>335</v>
+        <v>426</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>335</v>
+        <v>426</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44193</v>
+        <v>44260</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="K181" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L181" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M181" t="n">
-        <v>755</v>
+        <v>350</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>755</v>
+        <v>350</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44193</v>
+        <v>44260</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="K182" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L182" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M182" t="n">
-        <v>526</v>
+        <v>300</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>526</v>
+        <v>300</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44193</v>
+        <v>44327</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13524,25 +13524,25 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K183" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L183" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M183" t="n">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L184" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="M184" t="n">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="K185" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L185" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="M185" t="n">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44196</v>
+        <v>44231</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K186" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L186" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M186" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44315</v>
+        <v>44313</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13821,16 +13821,16 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="K187" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L187" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="M187" t="n">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44278</v>
+        <v>44330</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="K188" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L188" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M188" t="n">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>410</v>
+        <v>342</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44391</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K189" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L189" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M189" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="K190" t="n">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="L190" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M190" t="n">
-        <v>337</v>
+        <v>755</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>337</v>
+        <v>755</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14100,25 +14100,25 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K191" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="L191" t="n">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="M191" t="n">
-        <v>280</v>
+        <v>526</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>280</v>
+        <v>526</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44399</v>
+        <v>44193</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14172,25 +14172,25 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K192" t="n">
         <v>400</v>
       </c>
       <c r="L192" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M192" t="n">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44251</v>
+        <v>44351</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="K193" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L193" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="M193" t="n">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>450</v>
+        <v>355</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44251</v>
+        <v>44350</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14316,25 +14316,25 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K194" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L194" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="M194" t="n">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44250</v>
+        <v>44196</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K195" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M195" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44292</v>
+        <v>44315</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K196" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L196" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M196" t="n">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44305</v>
+        <v>44278</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="K197" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L197" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M197" t="n">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K198" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L198" t="n">
         <v>350</v>
       </c>
       <c r="M198" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44294</v>
+        <v>44389</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14676,25 +14676,25 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K199" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="L199" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M199" t="n">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>250</v>
+        <v>337</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44417</v>
+        <v>44389</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K200" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L200" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="M200" t="n">
-        <v>529</v>
+        <v>280</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>529</v>
+        <v>280</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44419</v>
+        <v>44399</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K201" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L201" t="n">
-        <v>550</v>
+        <v>420</v>
       </c>
       <c r="M201" t="n">
-        <v>526</v>
+        <v>413</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>526</v>
+        <v>413</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44420</v>
+        <v>44251</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K202" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L202" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="M202" t="n">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44420</v>
+        <v>44251</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44245</v>
+        <v>44250</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K204" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L204" t="n">
         <v>450</v>
       </c>
       <c r="M204" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44245</v>
+        <v>44292</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15108,25 +15108,25 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="K205" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L205" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44202</v>
+        <v>44305</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K206" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L206" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M206" t="n">
-        <v>500</v>
+        <v>341</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>500</v>
+        <v>341</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44181</v>
+        <v>44294</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15252,25 +15252,25 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="K207" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="L207" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M207" t="n">
-        <v>750</v>
+        <v>339</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>750</v>
+        <v>339</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44369</v>
+        <v>44294</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15324,25 +15324,25 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>490</v>
+        <v>120</v>
       </c>
       <c r="K208" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L208" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="M208" t="n">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44307</v>
+        <v>44417</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K209" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L209" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M209" t="n">
-        <v>340</v>
+        <v>529</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>340</v>
+        <v>529</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44307</v>
+        <v>44419</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15468,25 +15468,25 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
         <v>170</v>
       </c>
       <c r="K210" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L210" t="n">
-        <v>230</v>
+        <v>550</v>
       </c>
       <c r="M210" t="n">
-        <v>214</v>
+        <v>526</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>214</v>
+        <v>526</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44161</v>
+        <v>44420</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="K211" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="L211" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="M211" t="n">
-        <v>1400</v>
+        <v>524</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1400</v>
+        <v>524</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44161</v>
+        <v>44420</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K212" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L212" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="M212" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44195</v>
+        <v>44245</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="K213" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L213" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M213" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>500</v>
+        <v>425</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44195</v>
+        <v>44245</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="K214" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="L214" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M214" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44265</v>
+        <v>44202</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="K215" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L215" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="M215" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44159</v>
+        <v>44181</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K216" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="L216" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="M216" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44333</v>
+        <v>44369</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>160</v>
+        <v>490</v>
       </c>
       <c r="K217" t="n">
         <v>350</v>
       </c>
       <c r="L217" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M217" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44201</v>
+        <v>44307</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K218" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L218" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16116,25 +16116,25 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J219" t="n">
+        <v>170</v>
+      </c>
+      <c r="K219" t="n">
+        <v>200</v>
+      </c>
+      <c r="L219" t="n">
         <v>230</v>
       </c>
-      <c r="K219" t="n">
-        <v>400</v>
-      </c>
-      <c r="L219" t="n">
-        <v>420</v>
-      </c>
       <c r="M219" t="n">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44309</v>
+        <v>44161</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K220" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="L220" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="M220" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>350</v>
+        <v>1400</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44188</v>
+        <v>44161</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="K221" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="L221" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M221" t="n">
-        <v>674</v>
+        <v>1200</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>674</v>
+        <v>1200</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44188</v>
+        <v>44195</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,7 +16341,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="K222" t="n">
         <v>500</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44344</v>
+        <v>44195</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16404,25 +16404,25 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K223" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="L223" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M223" t="n">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>391</v>
+        <v>550</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44344</v>
+        <v>44265</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16476,25 +16476,25 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K224" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L224" t="n">
-        <v>340</v>
+        <v>430</v>
       </c>
       <c r="M224" t="n">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>340</v>
+        <v>414</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44319</v>
+        <v>44159</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16548,25 +16548,25 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K225" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="L225" t="n">
-        <v>330</v>
+        <v>1400</v>
       </c>
       <c r="M225" t="n">
-        <v>316</v>
+        <v>1400</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>316</v>
+        <v>1400</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44319</v>
+        <v>44333</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16620,25 +16620,25 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J226" t="n">
         <v>160</v>
       </c>
       <c r="K226" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L226" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M226" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44316</v>
+        <v>44201</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K227" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M227" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44253</v>
+        <v>44277</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K228" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="L228" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="M228" t="n">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44253</v>
+        <v>44433</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16836,25 +16836,25 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K229" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L229" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44281</v>
+        <v>44309</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K230" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L230" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M230" t="n">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="K231" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L231" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M231" t="n">
-        <v>853</v>
+        <v>674</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>853</v>
+        <v>674</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44186</v>
+        <v>44188</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K232" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L232" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M232" t="n">
-        <v>626</v>
+        <v>500</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>626</v>
+        <v>500</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="K233" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="L233" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M233" t="n">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>474</v>
+        <v>391</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="K234" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L234" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M234" t="n">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44301</v>
+        <v>44319</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17277,7 +17277,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K235" t="n">
         <v>300</v>
@@ -17286,7 +17286,7 @@
         <v>330</v>
       </c>
       <c r="M235" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L236" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="M236" t="n">
-        <v>409</v>
+        <v>250</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>409</v>
+        <v>250</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44272</v>
+        <v>44316</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K237" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L237" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44370</v>
+        <v>44253</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K238" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="L238" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="M238" t="n">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44326</v>
+        <v>44253</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,25 +17556,25 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K239" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L239" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="M239" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44230</v>
+        <v>44281</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K240" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L240" t="n">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M240" t="n">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44230</v>
+        <v>44186</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K241" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L241" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="M241" t="n">
-        <v>250</v>
+        <v>853</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>250</v>
+        <v>853</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44382</v>
+        <v>44186</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17772,25 +17772,25 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K242" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L242" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M242" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44382</v>
+        <v>44211</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K243" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L243" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>250</v>
+        <v>474</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44232</v>
+        <v>44211</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K244" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L244" t="n">
         <v>400</v>
       </c>
       <c r="M244" t="n">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17988,25 +17988,25 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K245" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L245" t="n">
         <v>330</v>
       </c>
       <c r="M245" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44398</v>
+        <v>44272</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K246" t="n">
         <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M246" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44270</v>
+        <v>44272</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K247" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L247" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M247" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44270</v>
+        <v>44370</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18204,25 +18204,25 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="K248" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="L248" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="M248" t="n">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K249" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L249" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M249" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44286</v>
+        <v>44230</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K250" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L250" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M250" t="n">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L251" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44217</v>
+        <v>44382</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18492,16 +18492,16 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K252" t="n">
         <v>350</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44244</v>
+        <v>44382</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18564,25 +18564,25 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K253" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M253" t="n">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>376</v>
+        <v>250</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44244</v>
+        <v>44232</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K254" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L254" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M254" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44343</v>
+        <v>44232</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18708,25 +18708,25 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K255" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L255" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M255" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44223</v>
+        <v>44398</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>150</v>
       </c>
       <c r="K256" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L256" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M256" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44223</v>
+        <v>44270</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="K257" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L257" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44376</v>
+        <v>44270</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,25 +18924,25 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K258" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="L258" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="M258" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44208</v>
+        <v>44355</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K259" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L259" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M259" t="n">
-        <v>478</v>
+        <v>360</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>478</v>
+        <v>360</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44208</v>
+        <v>44286</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19068,25 +19068,25 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K260" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L260" t="n">
         <v>350</v>
       </c>
       <c r="M260" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19152,13 +19152,13 @@
         <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L261" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M261" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K262" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L262" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M262" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44284</v>
+        <v>44244</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="K263" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L263" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M263" t="n">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44334</v>
+        <v>44244</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K264" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="L264" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M264" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44168</v>
+        <v>44343</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K265" t="n">
-        <v>1500</v>
+        <v>380</v>
       </c>
       <c r="L265" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="M265" t="n">
-        <v>1500</v>
+        <v>390</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19455,11 +19455,11 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P265" t="n">
-        <v>1500</v>
+        <v>390</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44168</v>
+        <v>44223</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K266" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="L266" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="M266" t="n">
-        <v>926</v>
+        <v>500</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>926</v>
+        <v>500</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,58 +19557,778 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="E267" t="n">
+        <v>5</v>
+      </c>
+      <c r="F267" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J267" t="n">
+        <v>140</v>
+      </c>
+      <c r="K267" t="n">
+        <v>330</v>
+      </c>
+      <c r="L267" t="n">
+        <v>330</v>
+      </c>
+      <c r="M267" t="n">
+        <v>330</v>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>330</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>1</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>3</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E268" t="n">
+        <v>5</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J268" t="n">
+        <v>160</v>
+      </c>
+      <c r="K268" t="n">
+        <v>340</v>
+      </c>
+      <c r="L268" t="n">
+        <v>340</v>
+      </c>
+      <c r="M268" t="n">
+        <v>340</v>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P268" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>1</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>3</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E269" t="n">
+        <v>5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J269" t="n">
+        <v>200</v>
+      </c>
+      <c r="K269" t="n">
+        <v>450</v>
+      </c>
+      <c r="L269" t="n">
+        <v>500</v>
+      </c>
+      <c r="M269" t="n">
+        <v>478</v>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P269" t="n">
+        <v>478</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>1</v>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>3</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E270" t="n">
+        <v>5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J270" t="n">
+        <v>120</v>
+      </c>
+      <c r="K270" t="n">
+        <v>350</v>
+      </c>
+      <c r="L270" t="n">
+        <v>350</v>
+      </c>
+      <c r="M270" t="n">
+        <v>350</v>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P270" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>1</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>3</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E271" t="n">
+        <v>5</v>
+      </c>
+      <c r="F271" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J271" t="n">
+        <v>120</v>
+      </c>
+      <c r="K271" t="n">
+        <v>800</v>
+      </c>
+      <c r="L271" t="n">
+        <v>800</v>
+      </c>
+      <c r="M271" t="n">
+        <v>800</v>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P271" t="n">
+        <v>800</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>1</v>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>3</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>2a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J272" t="n">
+        <v>100</v>
+      </c>
+      <c r="K272" t="n">
+        <v>700</v>
+      </c>
+      <c r="L272" t="n">
+        <v>700</v>
+      </c>
+      <c r="M272" t="n">
+        <v>700</v>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P272" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>1</v>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>3</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5</v>
+      </c>
+      <c r="F273" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J273" t="n">
+        <v>380</v>
+      </c>
+      <c r="K273" t="n">
+        <v>320</v>
+      </c>
+      <c r="L273" t="n">
+        <v>350</v>
+      </c>
+      <c r="M273" t="n">
+        <v>333</v>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P273" t="n">
+        <v>333</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>1</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>3</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J274" t="n">
+        <v>240</v>
+      </c>
+      <c r="K274" t="n">
+        <v>360</v>
+      </c>
+      <c r="L274" t="n">
+        <v>370</v>
+      </c>
+      <c r="M274" t="n">
+        <v>367</v>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P274" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>1</v>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>3</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E275" t="n">
+        <v>5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J275" t="n">
+        <v>230</v>
+      </c>
+      <c r="K275" t="n">
+        <v>900</v>
+      </c>
+      <c r="L275" t="n">
+        <v>950</v>
+      </c>
+      <c r="M275" t="n">
+        <v>926</v>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P275" t="n">
+        <v>926</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>1</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>3</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E267" t="n">
-        <v>5</v>
-      </c>
-      <c r="F267" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="E276" t="n">
+        <v>5</v>
+      </c>
+      <c r="F276" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I267" t="inlineStr">
+      <c r="I276" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J267" t="n">
+      <c r="J276" t="n">
         <v>230</v>
       </c>
-      <c r="K267" t="n">
+      <c r="K276" t="n">
         <v>500</v>
       </c>
-      <c r="L267" t="n">
+      <c r="L276" t="n">
         <v>550</v>
       </c>
-      <c r="M267" t="n">
+      <c r="M276" t="n">
         <v>524</v>
       </c>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P267" t="n">
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
         <v>524</v>
       </c>
-      <c r="Q267" t="n">
-        <v>1</v>
-      </c>
-      <c r="R267" t="inlineStr">
+      <c r="Q276" t="n">
+        <v>1</v>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>3</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>250</v>
+      </c>
+      <c r="K277" t="n">
+        <v>550</v>
+      </c>
+      <c r="L277" t="n">
+        <v>600</v>
+      </c>
+      <c r="M277" t="n">
+        <v>574</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>574</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R277" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="K180" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="L180" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M180" t="n">
-        <v>426</v>
+        <v>771</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>426</v>
+        <v>771</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K181" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L181" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M181" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="K182" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L182" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K183" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L183" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M183" t="n">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44209</v>
+        <v>44260</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K184" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L184" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M184" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13668,25 +13668,25 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="K185" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L185" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M185" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44231</v>
+        <v>44327</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13740,25 +13740,25 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L186" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="K187" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L187" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M187" t="n">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44330</v>
+        <v>44231</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K188" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L188" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M188" t="n">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44391</v>
+        <v>44231</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13956,25 +13956,25 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K189" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L189" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M189" t="n">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44193</v>
+        <v>44313</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14033,20 +14033,20 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K190" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="L190" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M190" t="n">
-        <v>755</v>
+        <v>391</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>755</v>
+        <v>391</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14100,25 +14100,25 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L191" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M191" t="n">
-        <v>526</v>
+        <v>342</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>526</v>
+        <v>342</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44193</v>
+        <v>44391</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14172,25 +14172,25 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K192" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L192" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="M192" t="n">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14249,20 +14249,20 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K193" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L193" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="M193" t="n">
-        <v>355</v>
+        <v>755</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>355</v>
+        <v>755</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44350</v>
+        <v>44193</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14316,25 +14316,25 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="K194" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L194" t="n">
-        <v>390</v>
+        <v>550</v>
       </c>
       <c r="M194" t="n">
-        <v>385</v>
+        <v>526</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>385</v>
+        <v>526</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14388,25 +14388,25 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K195" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L195" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="M195" t="n">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>500</v>
+        <v>427</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44315</v>
+        <v>44351</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="K196" t="n">
         <v>350</v>
       </c>
       <c r="L196" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="M196" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44278</v>
+        <v>44350</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K197" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L197" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="M197" t="n">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K198" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L198" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M198" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44389</v>
+        <v>44315</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="K199" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L199" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M199" t="n">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44389</v>
+        <v>44278</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K200" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L200" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M200" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K201" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L201" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M201" t="n">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="K202" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="L202" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M202" t="n">
-        <v>450</v>
+        <v>337</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>450</v>
+        <v>337</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14964,25 +14964,25 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K203" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="L203" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M203" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="K204" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L204" t="n">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="M204" t="n">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44292</v>
+        <v>44251</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K205" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L205" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M205" t="n">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44305</v>
+        <v>44251</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15180,25 +15180,25 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K206" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L206" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M206" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44294</v>
+        <v>44250</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="K207" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L207" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M207" t="n">
-        <v>339</v>
+        <v>450</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>339</v>
+        <v>450</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44294</v>
+        <v>44292</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="K208" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L208" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M208" t="n">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K209" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L209" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M209" t="n">
-        <v>529</v>
+        <v>341</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>529</v>
+        <v>341</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44419</v>
+        <v>44294</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L210" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M210" t="n">
-        <v>526</v>
+        <v>339</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>526</v>
+        <v>339</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44420</v>
+        <v>44294</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="K211" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L211" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="M211" t="n">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>524</v>
+        <v>250</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="K212" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L212" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M212" t="n">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>400</v>
+        <v>529</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K213" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L213" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M213" t="n">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15756,25 +15756,25 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>85</v>
+        <v>340</v>
       </c>
       <c r="K214" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L214" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>524</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>300</v>
+        <v>524</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44202</v>
+        <v>44420</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15828,25 +15828,25 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K215" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L215" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M215" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K216" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L216" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="M216" t="n">
-        <v>750</v>
+        <v>425</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>750</v>
+        <v>425</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15972,25 +15972,25 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>490</v>
+        <v>85</v>
       </c>
       <c r="K217" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L217" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M217" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L218" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M218" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44307</v>
+        <v>44181</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K219" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="L219" t="n">
-        <v>230</v>
+        <v>750</v>
       </c>
       <c r="M219" t="n">
-        <v>214</v>
+        <v>750</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>214</v>
+        <v>750</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>120</v>
+        <v>490</v>
       </c>
       <c r="K220" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L220" t="n">
-        <v>1400</v>
+        <v>370</v>
       </c>
       <c r="M220" t="n">
-        <v>1400</v>
+        <v>361</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1400</v>
+        <v>361</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16260,25 +16260,25 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K221" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="L221" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="M221" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1200</v>
+        <v>340</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44195</v>
+        <v>44307</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="K222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L222" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="M222" t="n">
-        <v>500</v>
+        <v>214</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>500</v>
+        <v>214</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K223" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="L223" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="M223" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K224" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L224" t="n">
-        <v>430</v>
+        <v>1200</v>
       </c>
       <c r="M224" t="n">
-        <v>414</v>
+        <v>1200</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>414</v>
+        <v>1200</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16548,25 +16548,25 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K225" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M225" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44333</v>
+        <v>44195</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16620,25 +16620,25 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K226" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L226" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M226" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K227" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L227" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M227" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44277</v>
+        <v>44159</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16764,25 +16764,25 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K228" t="n">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="L228" t="n">
-        <v>420</v>
+        <v>1400</v>
       </c>
       <c r="M228" t="n">
-        <v>410</v>
+        <v>1400</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>410</v>
+        <v>1400</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44433</v>
+        <v>44333</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K229" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L229" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M229" t="n">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
         <v>180</v>
       </c>
       <c r="K230" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L230" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M230" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44188</v>
+        <v>44277</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K231" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="L231" t="n">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="M231" t="n">
-        <v>674</v>
+        <v>410</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>674</v>
+        <v>410</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44188</v>
+        <v>44433</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17052,25 +17052,25 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K232" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L232" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M232" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K233" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L233" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M233" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44344</v>
+        <v>44188</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,25 +17196,25 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="K234" t="n">
-        <v>340</v>
+        <v>650</v>
       </c>
       <c r="L234" t="n">
-        <v>340</v>
+        <v>700</v>
       </c>
       <c r="M234" t="n">
-        <v>340</v>
+        <v>674</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>340</v>
+        <v>674</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44319</v>
+        <v>44188</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17268,25 +17268,25 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K235" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L235" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M235" t="n">
-        <v>316</v>
+        <v>500</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>316</v>
+        <v>500</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K236" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="L236" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M236" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>250</v>
+        <v>391</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44316</v>
+        <v>44344</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K237" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="L237" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="M237" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="K238" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="L238" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="M238" t="n">
-        <v>439</v>
+        <v>316</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>439</v>
+        <v>316</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44253</v>
+        <v>44319</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K239" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="L239" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44281</v>
+        <v>44316</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L240" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M240" t="n">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="K241" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="L241" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M241" t="n">
-        <v>853</v>
+        <v>439</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>853</v>
+        <v>439</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44186</v>
+        <v>44253</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K242" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L242" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="M242" t="n">
-        <v>626</v>
+        <v>300</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>626</v>
+        <v>300</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44211</v>
+        <v>44281</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L243" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="M243" t="n">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K244" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="M244" t="n">
-        <v>371</v>
+        <v>853</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>371</v>
+        <v>853</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44301</v>
+        <v>44186</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17988,25 +17988,25 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K245" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L245" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="M245" t="n">
-        <v>317</v>
+        <v>626</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>317</v>
+        <v>626</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18072,13 +18072,13 @@
         <v>170</v>
       </c>
       <c r="K246" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L246" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M246" t="n">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K247" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L247" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M247" t="n">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44370</v>
+        <v>44301</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K248" t="n">
+        <v>300</v>
+      </c>
+      <c r="L248" t="n">
         <v>330</v>
       </c>
-      <c r="L248" t="n">
-        <v>340</v>
-      </c>
       <c r="M248" t="n">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44326</v>
+        <v>44272</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K249" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L249" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="M249" t="n">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K250" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L250" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M250" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18420,25 +18420,25 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K251" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L251" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="M251" t="n">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44382</v>
+        <v>44326</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K252" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L252" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M252" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18564,25 +18564,25 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K253" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L253" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="M253" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18636,7 +18636,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K254" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M254" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44232</v>
+        <v>44382</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18708,25 +18708,25 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K255" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L255" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M255" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44398</v>
+        <v>44382</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K256" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K257" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L257" t="n">
         <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K258" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="L258" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="M258" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44355</v>
+        <v>44398</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K259" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L259" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M259" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44286</v>
+        <v>44270</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K260" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L260" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M260" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -19149,16 +19149,16 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K261" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L261" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="M261" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19212,25 +19212,25 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K262" t="n">
         <v>350</v>
       </c>
       <c r="L262" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M262" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44244</v>
+        <v>44286</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K263" t="n">
+        <v>330</v>
+      </c>
+      <c r="L263" t="n">
         <v>350</v>
       </c>
-      <c r="L263" t="n">
-        <v>400</v>
-      </c>
       <c r="M263" t="n">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44244</v>
+        <v>44217</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,7 +19356,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19365,16 +19365,16 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19428,25 +19428,25 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K265" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L265" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M265" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K266" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L266" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M266" t="n">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44223</v>
+        <v>44244</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19572,25 +19572,25 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="K267" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L267" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="M267" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K268" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="L268" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M268" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K269" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L269" t="n">
         <v>500</v>
       </c>
       <c r="M269" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44208</v>
+        <v>44223</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19788,25 +19788,25 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="K270" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L270" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M270" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44179</v>
+        <v>44376</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19860,25 +19860,25 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K271" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="L271" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="M271" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>800</v>
+        <v>340</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K272" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L272" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M272" t="n">
-        <v>700</v>
+        <v>478</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>700</v>
+        <v>478</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44284</v>
+        <v>44208</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20004,25 +20004,25 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="K273" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L273" t="n">
         <v>350</v>
       </c>
       <c r="M273" t="n">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20076,25 +20076,25 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K274" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="L274" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="M274" t="n">
-        <v>367</v>
+        <v>800</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>367</v>
+        <v>800</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44168</v>
+        <v>44179</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="K275" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L275" t="n">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="M275" t="n">
-        <v>926</v>
+        <v>700</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>926</v>
+        <v>700</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44418</v>
+        <v>44284</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>230</v>
+        <v>380</v>
       </c>
       <c r="K276" t="n">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="L276" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M276" t="n">
-        <v>524</v>
+        <v>333</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>524</v>
+        <v>333</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,58 +20277,274 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J277" t="n">
+        <v>240</v>
+      </c>
+      <c r="K277" t="n">
+        <v>360</v>
+      </c>
+      <c r="L277" t="n">
+        <v>370</v>
+      </c>
+      <c r="M277" t="n">
+        <v>367</v>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>367</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>1</v>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>3</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E278" t="n">
+        <v>5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J278" t="n">
+        <v>230</v>
+      </c>
+      <c r="K278" t="n">
+        <v>900</v>
+      </c>
+      <c r="L278" t="n">
+        <v>950</v>
+      </c>
+      <c r="M278" t="n">
+        <v>926</v>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P278" t="n">
+        <v>926</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>1</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>3</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5</v>
+      </c>
+      <c r="F279" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J279" t="n">
+        <v>230</v>
+      </c>
+      <c r="K279" t="n">
+        <v>500</v>
+      </c>
+      <c r="L279" t="n">
+        <v>550</v>
+      </c>
+      <c r="M279" t="n">
+        <v>524</v>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P279" t="n">
+        <v>524</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>1</v>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>3</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E277" t="n">
-        <v>5</v>
-      </c>
-      <c r="F277" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="E280" t="n">
+        <v>5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr">
+      <c r="I280" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J277" t="n">
+      <c r="J280" t="n">
         <v>250</v>
       </c>
-      <c r="K277" t="n">
+      <c r="K280" t="n">
         <v>550</v>
       </c>
-      <c r="L277" t="n">
+      <c r="L280" t="n">
         <v>600</v>
       </c>
-      <c r="M277" t="n">
+      <c r="M280" t="n">
         <v>574</v>
       </c>
-      <c r="N277" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P277" t="n">
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P280" t="n">
         <v>574</v>
       </c>
-      <c r="Q277" t="n">
-        <v>1</v>
-      </c>
-      <c r="R277" t="inlineStr">
+      <c r="Q280" t="n">
+        <v>1</v>
+      </c>
+      <c r="R280" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R287"/>
+  <dimension ref="A1:R289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K160" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L160" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="M160" t="n">
-        <v>414</v>
+        <v>800</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>414</v>
+        <v>800</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44292</v>
+        <v>44447</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="K161" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="L161" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M161" t="n">
-        <v>341</v>
+        <v>650</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>341</v>
+        <v>650</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44259</v>
+        <v>44267</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K162" t="n">
         <v>400</v>
       </c>
       <c r="L162" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="M162" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,25 +12084,25 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="K163" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L163" t="n">
         <v>350</v>
       </c>
       <c r="M163" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44300</v>
+        <v>44259</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K164" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L164" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="M164" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44277</v>
+        <v>44259</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K165" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L165" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M165" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44392</v>
+        <v>44300</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K166" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L166" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M166" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44392</v>
+        <v>44277</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,25 +12372,25 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K167" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L167" t="n">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="M167" t="n">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K168" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L168" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M168" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,25 +12516,25 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K169" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L169" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M169" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="K170" t="n">
         <v>500</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,16 +12660,16 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K171" t="n">
         <v>350</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>120</v>
       </c>
       <c r="K172" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L172" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M172" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44179</v>
+        <v>44217</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K173" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L173" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M173" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12876,25 +12876,25 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K174" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L174" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="M174" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12948,25 +12948,25 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K175" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L175" t="n">
-        <v>370</v>
+        <v>800</v>
       </c>
       <c r="M175" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44249</v>
+        <v>44179</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13020,25 +13020,25 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>210</v>
+        <v>100</v>
       </c>
       <c r="K176" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L176" t="n">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="M176" t="n">
-        <v>463</v>
+        <v>700</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>463</v>
+        <v>700</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13092,25 +13092,25 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K177" t="n">
         <v>350</v>
       </c>
       <c r="L177" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M177" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K178" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L178" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M178" t="n">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44384</v>
+        <v>44249</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13236,25 +13236,25 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K179" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L179" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M179" t="n">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13308,25 +13308,25 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K180" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="L180" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="M180" t="n">
-        <v>926</v>
+        <v>350</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>926</v>
+        <v>350</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44322</v>
+        <v>44384</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13385,7 +13385,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
@@ -13395,10 +13395,10 @@
         <v>320</v>
       </c>
       <c r="L181" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="M181" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44272</v>
+        <v>44168</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K182" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="L182" t="n">
-        <v>420</v>
+        <v>950</v>
       </c>
       <c r="M182" t="n">
-        <v>409</v>
+        <v>926</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>409</v>
+        <v>926</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13524,25 +13524,25 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K183" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L183" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K184" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L184" t="n">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="M184" t="n">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>500</v>
+        <v>409</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44365</v>
+        <v>44272</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13668,25 +13668,25 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K185" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L185" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M185" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K186" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L186" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K187" t="n">
+        <v>380</v>
+      </c>
+      <c r="L187" t="n">
         <v>400</v>
       </c>
-      <c r="L187" t="n">
-        <v>450</v>
-      </c>
       <c r="M187" t="n">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13884,16 +13884,16 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K188" t="n">
         <v>300</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13961,20 +13961,20 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K189" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L189" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M189" t="n">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44218</v>
+        <v>44235</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14040,13 +14040,13 @@
         <v>120</v>
       </c>
       <c r="K190" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L190" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M190" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14100,16 +14100,16 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K191" t="n">
         <v>350</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K192" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L192" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M192" t="n">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14244,25 +14244,25 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="K193" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L193" t="n">
         <v>350</v>
       </c>
       <c r="M193" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K194" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="L194" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="M194" t="n">
-        <v>230</v>
+        <v>623</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>230</v>
+        <v>623</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K195" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L195" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M195" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14460,25 +14460,25 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K196" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L196" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M196" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K197" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L197" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M197" t="n">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K198" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L198" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M198" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K199" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L199" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M199" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K200" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L200" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="M200" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K201" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L201" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M201" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="K202" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L202" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M202" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K203" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M203" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K204" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L204" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M204" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K205" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L205" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M205" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K206" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="L206" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="M206" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K207" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L207" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M207" t="n">
-        <v>726</v>
+        <v>476</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>726</v>
+        <v>476</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K208" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L208" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="M208" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="K209" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L209" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M209" t="n">
-        <v>521</v>
+        <v>726</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>521</v>
+        <v>726</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15468,25 +15468,25 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K210" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L210" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M210" t="n">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="K211" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L211" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M211" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="K212" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L212" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M212" t="n">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,7 +15693,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K213" t="n">
         <v>400</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K214" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L214" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="M214" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K215" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L215" t="n">
         <v>400</v>
       </c>
       <c r="M215" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15900,25 +15900,25 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K216" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L216" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="M216" t="n">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K217" t="n">
+        <v>380</v>
+      </c>
+      <c r="L217" t="n">
         <v>400</v>
       </c>
-      <c r="L217" t="n">
-        <v>430</v>
-      </c>
       <c r="M217" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16044,25 +16044,25 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K218" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L218" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="M218" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K219" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L219" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M219" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K220" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L220" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M220" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K221" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="L221" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M221" t="n">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K222" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L222" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M222" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K223" t="n">
-        <v>650</v>
+        <v>430</v>
       </c>
       <c r="L223" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M223" t="n">
-        <v>675</v>
+        <v>439</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>675</v>
+        <v>439</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16476,25 +16476,25 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K224" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L224" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M224" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K225" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L225" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K226" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L226" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="M226" t="n">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K227" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L227" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M227" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
         <v>160</v>
       </c>
       <c r="K228" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L228" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="M228" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="K229" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L229" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M229" t="n">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K230" t="n">
         <v>350</v>
       </c>
       <c r="L230" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M230" t="n">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16980,25 +16980,25 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K231" t="n">
         <v>300</v>
       </c>
       <c r="L231" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K232" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L232" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M232" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17124,25 +17124,25 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K233" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L233" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M233" t="n">
-        <v>529</v>
+        <v>300</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>529</v>
+        <v>300</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,25 +17196,25 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K234" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L234" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M234" t="n">
-        <v>826</v>
+        <v>721</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>826</v>
+        <v>721</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="K235" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L235" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M235" t="n">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K236" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L236" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M236" t="n">
-        <v>450</v>
+        <v>826</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>450</v>
+        <v>826</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K237" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L237" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K238" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L238" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M238" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,25 +17556,25 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="K239" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L239" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M239" t="n">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K240" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L240" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="M240" t="n">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K241" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L241" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="M241" t="n">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17772,25 +17772,25 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="K242" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L242" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M242" t="n">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17853,16 +17853,16 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K243" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L243" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M243" t="n">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,25 +17916,25 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K245" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L245" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M245" t="n">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18060,25 +18060,25 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K247" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="L247" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M247" t="n">
-        <v>800</v>
+        <v>339</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>800</v>
+        <v>339</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K248" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="L248" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M248" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K249" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L249" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="M249" t="n">
-        <v>366</v>
+        <v>800</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>366</v>
+        <v>800</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K250" t="n">
         <v>330</v>
       </c>
       <c r="L250" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M250" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K251" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L251" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="M251" t="n">
-        <v>800</v>
+        <v>366</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>800</v>
+        <v>366</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18504,13 +18504,13 @@
         <v>170</v>
       </c>
       <c r="K252" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L252" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="M252" t="n">
-        <v>524</v>
+        <v>335</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>524</v>
+        <v>335</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K253" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="L253" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M253" t="n">
-        <v>391</v>
+        <v>800</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>391</v>
+        <v>800</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K254" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18717,16 +18717,16 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="K255" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L255" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M255" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18780,25 +18780,25 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="L256" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="M256" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="K257" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="L257" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="M257" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18933,16 +18933,16 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="L258" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M258" t="n">
-        <v>771</v>
+        <v>1400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>771</v>
+        <v>1400</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -18996,25 +18996,25 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K259" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L259" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M259" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K260" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L260" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M260" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K261" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L261" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M261" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
         <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L262" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L263" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M263" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K264" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L264" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M264" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K265" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L265" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M265" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K266" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L266" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M266" t="n">
-        <v>776</v>
+        <v>400</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>776</v>
+        <v>400</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19572,25 +19572,25 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K267" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L267" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M267" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="K268" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L268" t="n">
         <v>800</v>
       </c>
       <c r="M268" t="n">
-        <v>651</v>
+        <v>776</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>651</v>
+        <v>776</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K269" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L269" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M269" t="n">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="K270" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M270" t="n">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K271" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L271" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M271" t="n">
-        <v>316</v>
+        <v>591</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>316</v>
+        <v>591</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
         <v>160</v>
       </c>
       <c r="K272" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L272" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M272" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K273" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="L273" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="M273" t="n">
-        <v>1146</v>
+        <v>316</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>1146</v>
+        <v>316</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K274" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L274" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M274" t="n">
-        <v>639</v>
+        <v>250</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>639</v>
+        <v>250</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="K275" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="L275" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="M275" t="n">
-        <v>340</v>
+        <v>1146</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>340</v>
+        <v>1146</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K276" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L276" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M276" t="n">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K277" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="L277" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="M277" t="n">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M278" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K279" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L279" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M279" t="n">
-        <v>330</v>
+        <v>474</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>330</v>
+        <v>474</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K280" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="L280" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M280" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K281" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L281" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M281" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J282" t="n">
         <v>80</v>
       </c>
       <c r="K282" t="n">
-        <v>1300</v>
+        <v>370</v>
       </c>
       <c r="L282" t="n">
-        <v>1300</v>
+        <v>370</v>
       </c>
       <c r="M282" t="n">
-        <v>1300</v>
+        <v>370</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20679,11 +20679,11 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1300</v>
+        <v>370</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44238</v>
+        <v>44314</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K283" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L283" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M283" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20808,13 +20808,13 @@
         <v>80</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="L284" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="M284" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K285" t="n">
         <v>400</v>
       </c>
       <c r="L285" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M285" t="n">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20940,25 +20940,25 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K286" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M286" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,58 +20997,202 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E287" t="n">
+        <v>5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J287" t="n">
+        <v>280</v>
+      </c>
+      <c r="K287" t="n">
+        <v>400</v>
+      </c>
+      <c r="L287" t="n">
+        <v>420</v>
+      </c>
+      <c r="M287" t="n">
+        <v>413</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>413</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>3</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E287" t="n">
-        <v>5</v>
-      </c>
-      <c r="F287" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="E288" t="n">
+        <v>5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J288" t="n">
+        <v>185</v>
+      </c>
+      <c r="K288" t="n">
+        <v>400</v>
+      </c>
+      <c r="L288" t="n">
+        <v>420</v>
+      </c>
+      <c r="M288" t="n">
+        <v>410</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>1</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>3</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E289" t="n">
+        <v>5</v>
+      </c>
+      <c r="F289" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I287" t="inlineStr">
+      <c r="I289" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J287" t="n">
+      <c r="J289" t="n">
         <v>90</v>
       </c>
-      <c r="K287" t="n">
+      <c r="K289" t="n">
         <v>330</v>
       </c>
-      <c r="L287" t="n">
+      <c r="L289" t="n">
         <v>330</v>
       </c>
-      <c r="M287" t="n">
+      <c r="M289" t="n">
         <v>330</v>
       </c>
-      <c r="N287" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P287" t="n">
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
         <v>330</v>
       </c>
-      <c r="Q287" t="n">
-        <v>1</v>
-      </c>
-      <c r="R287" t="inlineStr">
+      <c r="Q289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R289" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R289"/>
+  <dimension ref="A1:R291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K284" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L284" t="n">
-        <v>1300</v>
+        <v>830</v>
       </c>
       <c r="M284" t="n">
-        <v>1300</v>
+        <v>815</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20823,11 +20823,11 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>1300</v>
+        <v>815</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20868,25 +20868,25 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K285" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L285" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M285" t="n">
-        <v>426</v>
+        <v>550</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>426</v>
+        <v>550</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20952,13 +20952,13 @@
         <v>80</v>
       </c>
       <c r="K286" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="L286" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="M286" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K287" t="n">
         <v>400</v>
       </c>
       <c r="L287" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M287" t="n">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21084,25 +21084,25 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K288" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L288" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M288" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,58 +21141,202 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E289" t="n">
+        <v>5</v>
+      </c>
+      <c r="F289" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J289" t="n">
+        <v>280</v>
+      </c>
+      <c r="K289" t="n">
+        <v>400</v>
+      </c>
+      <c r="L289" t="n">
+        <v>420</v>
+      </c>
+      <c r="M289" t="n">
+        <v>413</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>413</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>1</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>3</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E289" t="n">
-        <v>5</v>
-      </c>
-      <c r="F289" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="E290" t="n">
+        <v>5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J290" t="n">
+        <v>185</v>
+      </c>
+      <c r="K290" t="n">
+        <v>400</v>
+      </c>
+      <c r="L290" t="n">
+        <v>420</v>
+      </c>
+      <c r="M290" t="n">
+        <v>410</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>1</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>3</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E291" t="n">
+        <v>5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I289" t="inlineStr">
+      <c r="I291" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J289" t="n">
+      <c r="J291" t="n">
         <v>90</v>
       </c>
-      <c r="K289" t="n">
+      <c r="K291" t="n">
         <v>330</v>
       </c>
-      <c r="L289" t="n">
+      <c r="L291" t="n">
         <v>330</v>
       </c>
-      <c r="M289" t="n">
+      <c r="M291" t="n">
         <v>330</v>
       </c>
-      <c r="N289" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O289" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P289" t="n">
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
         <v>330</v>
       </c>
-      <c r="Q289" t="n">
-        <v>1</v>
-      </c>
-      <c r="R289" t="inlineStr">
+      <c r="Q291" t="n">
+        <v>1</v>
+      </c>
+      <c r="R291" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R291"/>
+  <dimension ref="A1:R294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,7 +18924,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18936,13 +18936,13 @@
         <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="L258" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="M258" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -18996,25 +18996,25 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="K259" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="L259" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="M259" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="K260" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="L260" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M260" t="n">
-        <v>771</v>
+        <v>500</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>771</v>
+        <v>500</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="L261" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="M261" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K262" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L262" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M262" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K263" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L263" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M263" t="n">
-        <v>450</v>
+        <v>771</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>450</v>
+        <v>771</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K264" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L264" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L265" t="n">
         <v>600</v>
       </c>
       <c r="M265" t="n">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L266" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M266" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L267" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M267" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="K268" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="L268" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>776</v>
+        <v>574</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>776</v>
+        <v>574</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K269" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L269" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M269" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="K270" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L270" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M270" t="n">
-        <v>651</v>
+        <v>400</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>651</v>
+        <v>400</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K271" t="n">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="L271" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M271" t="n">
-        <v>591</v>
+        <v>776</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>591</v>
+        <v>776</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,22 +19932,22 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K272" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L272" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M272" t="n">
         <v>550</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="K273" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="L273" t="n">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="M273" t="n">
-        <v>316</v>
+        <v>651</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>316</v>
+        <v>651</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20076,25 +20076,25 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K274" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="L274" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="M274" t="n">
-        <v>250</v>
+        <v>591</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>250</v>
+        <v>591</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20148,25 +20148,25 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="K275" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="L275" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="M275" t="n">
-        <v>1146</v>
+        <v>550</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1146</v>
+        <v>550</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20220,25 +20220,25 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="K276" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L276" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="M276" t="n">
-        <v>639</v>
+        <v>316</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>639</v>
+        <v>316</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20292,25 +20292,25 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J277" t="n">
         <v>160</v>
       </c>
       <c r="K277" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="L277" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="M277" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="L278" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="M278" t="n">
-        <v>400</v>
+        <v>1146</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>400</v>
+        <v>1146</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44412</v>
+        <v>44175</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20436,25 +20436,25 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="K279" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M279" t="n">
-        <v>474</v>
+        <v>639</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>474</v>
+        <v>639</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44223</v>
+        <v>44376</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K280" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="L280" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="M280" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K281" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L281" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M281" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K282" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="L282" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M282" t="n">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>370</v>
+        <v>474</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K283" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="K284" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="L284" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="M284" t="n">
-        <v>815</v>
+        <v>330</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>815</v>
+        <v>330</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20868,25 +20868,25 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J285" t="n">
         <v>80</v>
       </c>
       <c r="K285" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="L285" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="M285" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>80</v>
       </c>
       <c r="K286" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="M286" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20967,11 +20967,11 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="K287" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L287" t="n">
-        <v>450</v>
+        <v>830</v>
       </c>
       <c r="M287" t="n">
-        <v>426</v>
+        <v>815</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>426</v>
+        <v>815</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>80</v>
       </c>
       <c r="K288" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L288" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M288" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K289" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="L289" t="n">
-        <v>420</v>
+        <v>1300</v>
       </c>
       <c r="M289" t="n">
-        <v>413</v>
+        <v>1300</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>413</v>
+        <v>1300</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K290" t="n">
         <v>400</v>
       </c>
       <c r="L290" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M290" t="n">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,58 +21285,274 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E291" t="n">
+        <v>5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>1a nueva(o)</t>
+        </is>
+      </c>
+      <c r="J291" t="n">
+        <v>80</v>
+      </c>
+      <c r="K291" t="n">
+        <v>350</v>
+      </c>
+      <c r="L291" t="n">
+        <v>350</v>
+      </c>
+      <c r="M291" t="n">
+        <v>350</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>350</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>1</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>3</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E292" t="n">
+        <v>5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J292" t="n">
+        <v>280</v>
+      </c>
+      <c r="K292" t="n">
+        <v>400</v>
+      </c>
+      <c r="L292" t="n">
+        <v>420</v>
+      </c>
+      <c r="M292" t="n">
+        <v>413</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P292" t="n">
+        <v>413</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>1</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E291" t="n">
-        <v>5</v>
-      </c>
-      <c r="F291" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="E293" t="n">
+        <v>5</v>
+      </c>
+      <c r="F293" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J293" t="n">
+        <v>185</v>
+      </c>
+      <c r="K293" t="n">
+        <v>400</v>
+      </c>
+      <c r="L293" t="n">
+        <v>420</v>
+      </c>
+      <c r="M293" t="n">
+        <v>410</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P293" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>1</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E294" t="n">
+        <v>5</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I291" t="inlineStr">
+      <c r="I294" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J291" t="n">
+      <c r="J294" t="n">
         <v>90</v>
       </c>
-      <c r="K291" t="n">
+      <c r="K294" t="n">
         <v>330</v>
       </c>
-      <c r="L291" t="n">
+      <c r="L294" t="n">
         <v>330</v>
       </c>
-      <c r="M291" t="n">
+      <c r="M294" t="n">
         <v>330</v>
       </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P291" t="n">
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
         <v>330</v>
       </c>
-      <c r="Q291" t="n">
-        <v>1</v>
-      </c>
-      <c r="R291" t="inlineStr">
+      <c r="Q294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R294" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R294"/>
+  <dimension ref="A1:R296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="K191" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="L191" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M191" t="n">
-        <v>350</v>
+        <v>771</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>350</v>
+        <v>771</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K192" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L192" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M192" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14244,16 +14244,16 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K193" t="n">
         <v>350</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K194" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L194" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="M194" t="n">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14388,25 +14388,25 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="K195" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L195" t="n">
         <v>350</v>
       </c>
       <c r="M195" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K196" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="L196" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="M196" t="n">
-        <v>230</v>
+        <v>623</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>230</v>
+        <v>623</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K197" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L197" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M197" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14604,25 +14604,25 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K198" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L198" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M198" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44291</v>
+        <v>44274</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K199" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L199" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M199" t="n">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K200" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L200" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M200" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44335</v>
+        <v>44291</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K201" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L201" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M201" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K202" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L202" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="M202" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L203" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M203" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>528</v>
+        <v>389</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="K204" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L204" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M204" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>400</v>
+        <v>523</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K205" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L205" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M205" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>750</v>
+        <v>528</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K206" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L206" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M206" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K207" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="L207" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M207" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15329,20 +15329,20 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K208" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="L208" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="M208" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K209" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L209" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="M209" t="n">
-        <v>726</v>
+        <v>476</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>726</v>
+        <v>476</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L210" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15549,16 +15549,16 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="K211" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L211" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="M211" t="n">
-        <v>521</v>
+        <v>726</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>521</v>
+        <v>726</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K212" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L212" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M212" t="n">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44398</v>
+        <v>44222</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="K213" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L213" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M213" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L214" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M214" t="n">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44420</v>
+        <v>44398</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K215" t="n">
         <v>400</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K216" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L216" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="M216" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44348</v>
+        <v>44420</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K217" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L217" t="n">
         <v>400</v>
       </c>
       <c r="M217" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16044,25 +16044,25 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K218" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L218" t="n">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="M218" t="n">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>280</v>
+        <v>414</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K219" t="n">
+        <v>380</v>
+      </c>
+      <c r="L219" t="n">
         <v>400</v>
       </c>
-      <c r="L219" t="n">
-        <v>430</v>
-      </c>
       <c r="M219" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K220" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L220" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="M220" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44210</v>
+        <v>44263</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K221" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L221" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M221" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>500</v>
+        <v>415</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K222" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L222" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M222" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K223" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="L223" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M223" t="n">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K224" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L224" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M224" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K225" t="n">
-        <v>650</v>
+        <v>430</v>
       </c>
       <c r="L225" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="M225" t="n">
-        <v>675</v>
+        <v>439</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>675</v>
+        <v>439</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16620,25 +16620,25 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K226" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L226" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M226" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16692,7 +16692,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K227" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L227" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M227" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="K228" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L228" t="n">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="M228" t="n">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16836,7 +16836,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K229" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L229" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
         <v>160</v>
       </c>
       <c r="K230" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L230" t="n">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="M230" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="K231" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L231" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M231" t="n">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44244</v>
+        <v>44414</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K232" t="n">
         <v>350</v>
       </c>
       <c r="L232" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M232" t="n">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44244</v>
+        <v>44301</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17124,25 +17124,25 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K233" t="n">
         <v>300</v>
       </c>
       <c r="L233" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17205,16 +17205,16 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K234" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L234" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M234" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44417</v>
+        <v>44244</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17268,25 +17268,25 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K235" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L235" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="M235" t="n">
-        <v>529</v>
+        <v>300</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>529</v>
+        <v>300</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44441</v>
+        <v>44176</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="K236" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L236" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="M236" t="n">
-        <v>826</v>
+        <v>721</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>826</v>
+        <v>721</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="K237" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L237" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M237" t="n">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K238" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L238" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="M238" t="n">
-        <v>450</v>
+        <v>826</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>450</v>
+        <v>826</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44237</v>
+        <v>44441</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,25 +17556,25 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44432</v>
+        <v>44237</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K240" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L240" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M240" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44351</v>
+        <v>44237</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,25 +17700,25 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="K241" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L241" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M241" t="n">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44369</v>
+        <v>44432</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K242" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L242" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="M242" t="n">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>361</v>
+        <v>574</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44257</v>
+        <v>44351</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K243" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L243" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="M243" t="n">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,25 +17916,25 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>80</v>
+        <v>490</v>
       </c>
       <c r="K244" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L244" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M244" t="n">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="K245" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L245" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M245" t="n">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18060,25 +18060,25 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K246" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L246" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M246" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="K247" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L247" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M247" t="n">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18204,25 +18204,25 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K249" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="L249" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M249" t="n">
-        <v>800</v>
+        <v>339</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>800</v>
+        <v>339</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44302</v>
+        <v>44294</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18348,7 +18348,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K250" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="L250" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M250" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44315</v>
+        <v>44379</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K251" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L251" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="M251" t="n">
-        <v>366</v>
+        <v>800</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>366</v>
+        <v>800</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44391</v>
+        <v>44302</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K252" t="n">
         <v>330</v>
       </c>
       <c r="L252" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="M252" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K253" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L253" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="M253" t="n">
-        <v>800</v>
+        <v>366</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>800</v>
+        <v>366</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44411</v>
+        <v>44391</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18648,13 +18648,13 @@
         <v>170</v>
       </c>
       <c r="K254" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L254" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="M254" t="n">
-        <v>524</v>
+        <v>335</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>524</v>
+        <v>335</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K255" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="L255" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M255" t="n">
-        <v>391</v>
+        <v>800</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>391</v>
+        <v>800</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K256" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18852,7 +18852,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18861,16 +18861,16 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="K257" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L257" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J258" t="n">
         <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L258" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M258" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -18996,25 +18996,25 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K259" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="L259" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="M259" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L260" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M260" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K261" t="n">
-        <v>1400</v>
+        <v>650</v>
       </c>
       <c r="L261" t="n">
-        <v>1400</v>
+        <v>650</v>
       </c>
       <c r="M261" t="n">
-        <v>1400</v>
+        <v>650</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1400</v>
+        <v>650</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19212,25 +19212,25 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="K262" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L262" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M262" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="K263" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="L263" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="M263" t="n">
-        <v>771</v>
+        <v>1400</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>771</v>
+        <v>1400</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K264" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="L264" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M264" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K265" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L265" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M265" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K266" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L266" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M266" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
         <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K268" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L268" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M268" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19716,25 +19716,25 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K269" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L269" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M269" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K270" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L270" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K271" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L271" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M271" t="n">
-        <v>776</v>
+        <v>400</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>776</v>
+        <v>400</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="K273" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L273" t="n">
         <v>800</v>
       </c>
       <c r="M273" t="n">
-        <v>651</v>
+        <v>776</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>651</v>
+        <v>776</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K274" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L274" t="n">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="M274" t="n">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="K275" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L275" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M275" t="n">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>550</v>
+        <v>651</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K276" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L276" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M276" t="n">
-        <v>316</v>
+        <v>591</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>316</v>
+        <v>591</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J277" t="n">
         <v>160</v>
       </c>
       <c r="K277" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L277" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="K278" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="L278" t="n">
-        <v>1200</v>
+        <v>330</v>
       </c>
       <c r="M278" t="n">
-        <v>1146</v>
+        <v>316</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1146</v>
+        <v>316</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L279" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M279" t="n">
-        <v>639</v>
+        <v>250</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>639</v>
+        <v>250</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="K280" t="n">
-        <v>340</v>
+        <v>1100</v>
       </c>
       <c r="L280" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="M280" t="n">
-        <v>340</v>
+        <v>1146</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>340</v>
+        <v>1146</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K281" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L281" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M281" t="n">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K282" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="L282" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="M282" t="n">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L283" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M283" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="K284" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L284" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M284" t="n">
-        <v>330</v>
+        <v>474</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>330</v>
+        <v>474</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="K285" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="L285" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M285" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K286" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L286" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M286" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="K287" t="n">
-        <v>800</v>
+        <v>370</v>
       </c>
       <c r="L287" t="n">
-        <v>830</v>
+        <v>370</v>
       </c>
       <c r="M287" t="n">
-        <v>815</v>
+        <v>370</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>815</v>
+        <v>370</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21084,25 +21084,25 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J288" t="n">
         <v>80</v>
       </c>
       <c r="K288" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L288" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M288" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K289" t="n">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="L289" t="n">
-        <v>1300</v>
+        <v>830</v>
       </c>
       <c r="M289" t="n">
-        <v>1300</v>
+        <v>815</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21183,11 +21183,11 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P289" t="n">
-        <v>1300</v>
+        <v>815</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21228,25 +21228,25 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K290" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L290" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M290" t="n">
-        <v>426</v>
+        <v>550</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>426</v>
+        <v>550</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21312,13 +21312,13 @@
         <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="L291" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="M291" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21327,11 +21327,11 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P291" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K292" t="n">
         <v>400</v>
       </c>
       <c r="L292" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M292" t="n">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21444,25 +21444,25 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K293" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L293" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M293" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,58 +21501,202 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E294" t="n">
+        <v>5</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J294" t="n">
+        <v>280</v>
+      </c>
+      <c r="K294" t="n">
+        <v>400</v>
+      </c>
+      <c r="L294" t="n">
+        <v>420</v>
+      </c>
+      <c r="M294" t="n">
+        <v>413</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P294" t="n">
+        <v>413</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>1</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>3</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E294" t="n">
-        <v>5</v>
-      </c>
-      <c r="F294" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="E295" t="n">
+        <v>5</v>
+      </c>
+      <c r="F295" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J295" t="n">
+        <v>185</v>
+      </c>
+      <c r="K295" t="n">
+        <v>400</v>
+      </c>
+      <c r="L295" t="n">
+        <v>420</v>
+      </c>
+      <c r="M295" t="n">
+        <v>410</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P295" t="n">
+        <v>410</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>1</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>3</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E296" t="n">
+        <v>5</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
         <is>
           <t>Paine</t>
         </is>
       </c>
-      <c r="I294" t="inlineStr">
+      <c r="I296" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J294" t="n">
+      <c r="J296" t="n">
         <v>90</v>
       </c>
-      <c r="K294" t="n">
+      <c r="K296" t="n">
         <v>330</v>
       </c>
-      <c r="L294" t="n">
+      <c r="L296" t="n">
         <v>330</v>
       </c>
-      <c r="M294" t="n">
+      <c r="M296" t="n">
         <v>330</v>
       </c>
-      <c r="N294" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O294" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P294" t="n">
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P296" t="n">
         <v>330</v>
       </c>
-      <c r="Q294" t="n">
-        <v>1</v>
-      </c>
-      <c r="R294" t="inlineStr">
+      <c r="Q296" t="n">
+        <v>1</v>
+      </c>
+      <c r="R296" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R300"/>
+  <dimension ref="A1:R302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K198" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L198" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M198" t="n">
-        <v>524</v>
+        <v>800</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>524</v>
+        <v>800</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="K199" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L199" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M199" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K200" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L200" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M200" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K201" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L201" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M201" t="n">
-        <v>1400</v>
+        <v>475</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14847,11 +14847,11 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1400</v>
+        <v>475</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14892,25 +14892,25 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K202" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L202" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M202" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14964,25 +14964,25 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K203" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L203" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M203" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14991,11 +14991,11 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K204" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="L204" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M204" t="n">
-        <v>675</v>
+        <v>1400</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>675</v>
+        <v>1400</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K205" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="L205" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="M205" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15189,16 +15189,16 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K206" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L206" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15252,25 +15252,25 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K207" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L207" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M207" t="n">
-        <v>878</v>
+        <v>450</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>878</v>
+        <v>450</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="K208" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="L208" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M208" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15396,25 +15396,25 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K209" t="n">
-        <v>280</v>
+        <v>850</v>
       </c>
       <c r="L209" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="M209" t="n">
-        <v>280</v>
+        <v>878</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>280</v>
+        <v>878</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="K210" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="L210" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M210" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K211" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L211" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M211" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K212" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L212" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M212" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15684,25 +15684,25 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K213" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L213" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M213" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K214" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L214" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M214" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15833,11 +15833,11 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K215" t="n">
         <v>380</v>
@@ -15846,7 +15846,7 @@
         <v>400</v>
       </c>
       <c r="M215" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K216" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L216" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M216" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K217" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="L217" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M217" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K218" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L218" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16116,25 +16116,25 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K219" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="L219" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="M219" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="K220" t="n">
         <v>400</v>
       </c>
       <c r="L220" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M220" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16260,25 +16260,25 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="K221" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L221" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M221" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K222" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L222" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M222" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K223" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L223" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M223" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="K224" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L224" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M224" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16548,25 +16548,25 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K225" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L225" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="M225" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K226" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L226" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16692,25 +16692,25 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K227" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L227" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M227" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K228" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L228" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M228" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K229" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L229" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M229" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16908,25 +16908,25 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K230" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="L230" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="M230" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K231" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L231" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M231" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17052,25 +17052,25 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K232" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="L232" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M232" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K233" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L233" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M233" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,25 +17196,25 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K234" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L234" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="M234" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K235" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L235" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M235" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17352,13 +17352,13 @@
         <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L236" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="M236" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K237" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L237" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="M237" t="n">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L238" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M238" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,25 +17556,25 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K239" t="n">
         <v>300</v>
       </c>
       <c r="L239" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L240" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M240" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,16 +17700,16 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K241" t="n">
         <v>300</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K242" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L242" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M242" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K243" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L243" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M243" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,25 +17916,25 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K244" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L244" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M244" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K245" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L245" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="M245" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18015,11 +18015,11 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P245" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K246" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L246" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M246" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18132,25 +18132,25 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K247" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L247" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M247" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18159,11 +18159,11 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K248" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L248" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="M248" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18276,25 +18276,25 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="K249" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L249" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M249" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18348,25 +18348,25 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K250" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L250" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M250" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K251" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L251" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K252" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L252" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M252" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K253" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L253" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M253" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18636,25 +18636,25 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K254" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L254" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="M254" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K255" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L255" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M255" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18780,25 +18780,25 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K256" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K257" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L257" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M257" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,25 +18924,25 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L258" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="M258" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K259" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L259" t="n">
         <v>350</v>
       </c>
       <c r="M259" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19068,25 +19068,25 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
+        <v>160</v>
+      </c>
+      <c r="K260" t="n">
         <v>230</v>
       </c>
-      <c r="K260" t="n">
-        <v>400</v>
-      </c>
       <c r="L260" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="M260" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L261" t="n">
         <v>350</v>
       </c>
       <c r="M261" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K262" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M262" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K263" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L263" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M263" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K264" t="n">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="L264" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M264" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K265" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L265" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M265" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K266" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L266" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M266" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K267" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M267" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19644,25 +19644,25 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K268" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L268" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M268" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K269" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L269" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M269" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K270" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L270" t="n">
         <v>350</v>
       </c>
       <c r="M270" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19860,25 +19860,25 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L271" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M271" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19941,16 +19941,16 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
         <v>350</v>
       </c>
       <c r="L272" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M272" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K273" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L273" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M273" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K274" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L274" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K275" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L275" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M275" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K276" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L276" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M276" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20292,25 +20292,25 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K277" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L277" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M277" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="K278" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L278" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M278" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20445,16 +20445,16 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L279" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M279" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K280" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="L280" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="M280" t="n">
-        <v>355</v>
+        <v>1146</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>355</v>
+        <v>1146</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K281" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M281" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20652,25 +20652,25 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K282" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L282" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M282" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K283" t="n">
         <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L284" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M284" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20877,7 +20877,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K285" t="n">
         <v>500</v>
@@ -20886,7 +20886,7 @@
         <v>550</v>
       </c>
       <c r="M285" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20940,25 +20940,25 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M286" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21012,25 +21012,25 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K287" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L287" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M287" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K288" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L288" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M288" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21168,13 +21168,13 @@
         <v>80</v>
       </c>
       <c r="K289" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L289" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M289" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21228,7 +21228,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K290" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L290" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K291" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L291" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M291" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K292" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L292" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M292" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K293" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L293" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M293" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21516,25 +21516,25 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K294" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L294" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M294" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K295" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L295" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M295" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K296" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M296" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21732,25 +21732,25 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K297" t="n">
         <v>350</v>
       </c>
       <c r="L297" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M297" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K298" t="n">
+        <v>450</v>
+      </c>
+      <c r="L298" t="n">
         <v>500</v>
       </c>
-      <c r="L298" t="n">
-        <v>550</v>
-      </c>
       <c r="M298" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21876,25 +21876,25 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K299" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L299" t="n">
         <v>400</v>
       </c>
       <c r="M299" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,58 +21933,202 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E300" t="n">
+        <v>5</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J300" t="n">
+        <v>165</v>
+      </c>
+      <c r="K300" t="n">
+        <v>500</v>
+      </c>
+      <c r="L300" t="n">
+        <v>550</v>
+      </c>
+      <c r="M300" t="n">
+        <v>526</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P300" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>1</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>3</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E301" t="n">
+        <v>5</v>
+      </c>
+      <c r="F301" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J301" t="n">
+        <v>80</v>
+      </c>
+      <c r="K301" t="n">
+        <v>400</v>
+      </c>
+      <c r="L301" t="n">
+        <v>400</v>
+      </c>
+      <c r="M301" t="n">
+        <v>400</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P301" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>1</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>3</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E300" t="n">
-        <v>5</v>
-      </c>
-      <c r="F300" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="E302" t="n">
+        <v>5</v>
+      </c>
+      <c r="F302" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I300" t="inlineStr">
+      <c r="I302" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J300" t="n">
+      <c r="J302" t="n">
         <v>130</v>
       </c>
-      <c r="K300" t="n">
+      <c r="K302" t="n">
         <v>350</v>
       </c>
-      <c r="L300" t="n">
+      <c r="L302" t="n">
         <v>350</v>
       </c>
-      <c r="M300" t="n">
+      <c r="M302" t="n">
         <v>350</v>
       </c>
-      <c r="N300" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P300" t="n">
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P302" t="n">
         <v>350</v>
       </c>
-      <c r="Q300" t="n">
-        <v>1</v>
-      </c>
-      <c r="R300" t="inlineStr">
+      <c r="Q302" t="n">
+        <v>1</v>
+      </c>
+      <c r="R302" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R304"/>
+  <dimension ref="A1:R306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K203" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L203" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M203" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K204" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L204" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M204" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K205" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L205" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M205" t="n">
-        <v>1400</v>
+        <v>475</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15135,11 +15135,11 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1400</v>
+        <v>475</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15180,25 +15180,25 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K206" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L206" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M206" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15252,25 +15252,25 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K207" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L207" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M207" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15279,11 +15279,11 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K208" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="L208" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M208" t="n">
-        <v>675</v>
+        <v>1400</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>675</v>
+        <v>1400</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K209" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="L209" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="M209" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K210" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L210" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M210" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K211" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L211" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M211" t="n">
-        <v>878</v>
+        <v>450</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>878</v>
+        <v>450</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44389</v>
+        <v>44427</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15612,7 +15612,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -15621,16 +15621,16 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="K212" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="L212" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M212" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15684,25 +15684,25 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K213" t="n">
-        <v>280</v>
+        <v>850</v>
       </c>
       <c r="L213" t="n">
-        <v>280</v>
+        <v>900</v>
       </c>
       <c r="M213" t="n">
-        <v>280</v>
+        <v>878</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>280</v>
+        <v>878</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="K214" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="L214" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M214" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15828,25 +15828,25 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K215" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L215" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M215" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K216" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L216" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M216" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15972,25 +15972,25 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K217" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L217" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M217" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K218" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L218" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16121,11 +16121,11 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K219" t="n">
         <v>380</v>
@@ -16134,7 +16134,7 @@
         <v>400</v>
       </c>
       <c r="M219" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K220" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L220" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M220" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K221" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="L221" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M221" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K222" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L222" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16404,25 +16404,25 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K223" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="L223" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="M223" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16481,20 +16481,20 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="K224" t="n">
         <v>400</v>
       </c>
       <c r="L224" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M224" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16548,25 +16548,25 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="K225" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L225" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M225" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16620,7 +16620,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K226" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L226" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M226" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K227" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L227" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M227" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16764,7 +16764,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="K228" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M228" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16836,25 +16836,25 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K229" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L229" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K230" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L230" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M230" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16980,25 +16980,25 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K231" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L231" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M231" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K232" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L232" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M232" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K233" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L233" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M233" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,25 +17196,25 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K234" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="L234" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="M234" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L235" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M235" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K236" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="L236" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M236" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K237" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L237" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M237" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17484,25 +17484,25 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K238" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L238" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="M238" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K239" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L239" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M239" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44196</v>
+        <v>44308</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17640,13 +17640,13 @@
         <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L240" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="M240" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44301</v>
+        <v>44264</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="K241" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L241" t="n">
-        <v>330</v>
+        <v>430</v>
       </c>
       <c r="M241" t="n">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>317</v>
+        <v>414</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L242" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M242" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K243" t="n">
         <v>300</v>
       </c>
       <c r="L243" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L244" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17988,16 +17988,16 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K245" t="n">
         <v>300</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K247" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L247" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M247" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18204,25 +18204,25 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K248" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L248" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M248" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K249" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L249" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="M249" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18303,11 +18303,11 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P249" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K250" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L250" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M250" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18420,25 +18420,25 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K251" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L251" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M251" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18447,11 +18447,11 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K252" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L252" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="M252" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18564,25 +18564,25 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="K253" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L253" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M253" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18636,25 +18636,25 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K254" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L254" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M254" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L255" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M255" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K256" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L256" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K257" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L257" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M257" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,25 +18924,25 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L258" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="M258" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K259" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L259" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M259" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19068,25 +19068,25 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K260" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="L260" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="M260" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L261" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M261" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19212,25 +19212,25 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K262" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="M262" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K263" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L263" t="n">
         <v>350</v>
       </c>
       <c r="M263" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
+        <v>160</v>
+      </c>
+      <c r="K264" t="n">
         <v>230</v>
       </c>
-      <c r="K264" t="n">
-        <v>400</v>
-      </c>
       <c r="L264" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="M264" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L265" t="n">
         <v>350</v>
       </c>
       <c r="M265" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K266" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L266" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M266" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K267" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L267" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M267" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K268" t="n">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="L268" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M268" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K269" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L269" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M269" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K270" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L270" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M270" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K271" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L271" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M271" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L272" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M272" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K273" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L273" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M273" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K274" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L274" t="n">
         <v>350</v>
       </c>
       <c r="M274" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20148,25 +20148,25 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L275" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M275" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K276" t="n">
         <v>350</v>
       </c>
       <c r="L276" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M276" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K277" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L277" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M277" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K278" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L278" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M278" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K279" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L279" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K280" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L280" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M280" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20580,25 +20580,25 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K281" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L281" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M281" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="K282" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L282" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M282" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L283" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M283" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="L284" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="M284" t="n">
-        <v>355</v>
+        <v>1146</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>355</v>
+        <v>1146</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44203</v>
+        <v>44175</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="K285" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L285" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M285" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>500</v>
+        <v>639</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20940,25 +20940,25 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K286" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M286" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K287" t="n">
         <v>500</v>
       </c>
       <c r="L287" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M287" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K288" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L288" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M288" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21165,7 +21165,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K289" t="n">
         <v>500</v>
@@ -21174,7 +21174,7 @@
         <v>550</v>
       </c>
       <c r="M289" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21228,25 +21228,25 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K290" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L290" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M290" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K291" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M291" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K292" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L292" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M292" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21456,13 +21456,13 @@
         <v>80</v>
       </c>
       <c r="K293" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L293" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M293" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K294" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L294" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M294" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K295" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L295" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M295" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K296" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L296" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M296" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K297" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L297" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M297" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21804,25 +21804,25 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K298" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L298" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M298" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K299" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L299" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M299" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K300" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L300" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M300" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22020,25 +22020,25 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K301" t="n">
         <v>350</v>
       </c>
       <c r="L301" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M301" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K302" t="n">
+        <v>450</v>
+      </c>
+      <c r="L302" t="n">
         <v>500</v>
       </c>
-      <c r="L302" t="n">
-        <v>550</v>
-      </c>
       <c r="M302" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22164,25 +22164,25 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K303" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L303" t="n">
         <v>400</v>
       </c>
       <c r="M303" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,58 +22221,202 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E304" t="n">
+        <v>5</v>
+      </c>
+      <c r="F304" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J304" t="n">
+        <v>165</v>
+      </c>
+      <c r="K304" t="n">
+        <v>500</v>
+      </c>
+      <c r="L304" t="n">
+        <v>550</v>
+      </c>
+      <c r="M304" t="n">
+        <v>526</v>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>1</v>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>3</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E305" t="n">
+        <v>5</v>
+      </c>
+      <c r="F305" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J305" t="n">
+        <v>80</v>
+      </c>
+      <c r="K305" t="n">
+        <v>400</v>
+      </c>
+      <c r="L305" t="n">
+        <v>400</v>
+      </c>
+      <c r="M305" t="n">
+        <v>400</v>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>1</v>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>3</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E304" t="n">
-        <v>5</v>
-      </c>
-      <c r="F304" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="E306" t="n">
+        <v>5</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I304" t="inlineStr">
+      <c r="I306" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J304" t="n">
+      <c r="J306" t="n">
         <v>130</v>
       </c>
-      <c r="K304" t="n">
+      <c r="K306" t="n">
         <v>350</v>
       </c>
-      <c r="L304" t="n">
+      <c r="L306" t="n">
         <v>350</v>
       </c>
-      <c r="M304" t="n">
+      <c r="M306" t="n">
         <v>350</v>
       </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O304" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P304" t="n">
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
         <v>350</v>
       </c>
-      <c r="Q304" t="n">
-        <v>1</v>
-      </c>
-      <c r="R304" t="inlineStr">
+      <c r="Q306" t="n">
+        <v>1</v>
+      </c>
+      <c r="R306" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R306"/>
+  <dimension ref="A1:R308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K286" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L286" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="M286" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21084,25 +21084,25 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K288" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L288" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M288" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K289" t="n">
         <v>500</v>
       </c>
       <c r="L289" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M289" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K290" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L290" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M290" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21309,7 +21309,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K291" t="n">
         <v>500</v>
@@ -21318,7 +21318,7 @@
         <v>550</v>
       </c>
       <c r="M291" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21372,25 +21372,25 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K292" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L292" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M292" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21444,25 +21444,25 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K293" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L293" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M293" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K294" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L294" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M294" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21600,13 +21600,13 @@
         <v>80</v>
       </c>
       <c r="K295" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L295" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M295" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K296" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L296" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M296" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -21741,16 +21741,16 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L297" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M297" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K298" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L298" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M298" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K299" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L299" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M299" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21948,25 +21948,25 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K300" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L300" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M300" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K301" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L301" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M301" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K302" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L302" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M302" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22164,25 +22164,25 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
         <v>350</v>
       </c>
       <c r="L303" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M303" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K304" t="n">
+        <v>450</v>
+      </c>
+      <c r="L304" t="n">
         <v>500</v>
       </c>
-      <c r="L304" t="n">
-        <v>550</v>
-      </c>
       <c r="M304" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -22308,25 +22308,25 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K305" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L305" t="n">
         <v>400</v>
       </c>
       <c r="M305" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,58 +22365,202 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E306" t="n">
+        <v>5</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J306" t="n">
+        <v>165</v>
+      </c>
+      <c r="K306" t="n">
+        <v>500</v>
+      </c>
+      <c r="L306" t="n">
+        <v>550</v>
+      </c>
+      <c r="M306" t="n">
+        <v>526</v>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>1</v>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>3</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E307" t="n">
+        <v>5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J307" t="n">
+        <v>80</v>
+      </c>
+      <c r="K307" t="n">
+        <v>400</v>
+      </c>
+      <c r="L307" t="n">
+        <v>400</v>
+      </c>
+      <c r="M307" t="n">
+        <v>400</v>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>1</v>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>3</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E306" t="n">
-        <v>5</v>
-      </c>
-      <c r="F306" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="E308" t="n">
+        <v>5</v>
+      </c>
+      <c r="F308" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr">
+      <c r="I308" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J306" t="n">
+      <c r="J308" t="n">
         <v>130</v>
       </c>
-      <c r="K306" t="n">
+      <c r="K308" t="n">
         <v>350</v>
       </c>
-      <c r="L306" t="n">
+      <c r="L308" t="n">
         <v>350</v>
       </c>
-      <c r="M306" t="n">
+      <c r="M308" t="n">
         <v>350</v>
       </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O306" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P306" t="n">
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
         <v>350</v>
       </c>
-      <c r="Q306" t="n">
-        <v>1</v>
-      </c>
-      <c r="R306" t="inlineStr">
+      <c r="Q308" t="n">
+        <v>1</v>
+      </c>
+      <c r="R308" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R311"/>
+  <dimension ref="A1:R312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K245" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L245" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M245" t="n">
-        <v>500</v>
+        <v>727</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>500</v>
+        <v>727</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K246" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L246" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M246" t="n">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K247" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L247" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="M247" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18216,13 +18216,13 @@
         <v>120</v>
       </c>
       <c r="K248" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L248" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18276,7 +18276,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18285,16 +18285,16 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K249" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L249" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M249" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="K252" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L252" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="M252" t="n">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K253" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L253" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M253" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18636,25 +18636,25 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L254" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M254" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18663,11 +18663,11 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18708,16 +18708,16 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K255" t="n">
         <v>1400</v>
@@ -18735,7 +18735,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P255" t="n">
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J256" t="n">
         <v>50</v>
       </c>
       <c r="K256" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L256" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M256" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K257" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L257" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="M257" t="n">
-        <v>926</v>
+        <v>1200</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>926</v>
+        <v>1200</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,25 +18924,25 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>490</v>
+        <v>230</v>
       </c>
       <c r="K258" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L258" t="n">
-        <v>370</v>
+        <v>950</v>
       </c>
       <c r="M258" t="n">
-        <v>361</v>
+        <v>926</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>361</v>
+        <v>926</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19005,16 +19005,16 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>280</v>
+        <v>490</v>
       </c>
       <c r="K259" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L259" t="n">
-        <v>650</v>
+        <v>370</v>
       </c>
       <c r="M259" t="n">
-        <v>623</v>
+        <v>361</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>623</v>
+        <v>361</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K260" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L260" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M260" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K261" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L261" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K262" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L262" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M262" t="n">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19284,7 +19284,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19293,16 +19293,16 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K263" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="L263" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K264" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="L264" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="M264" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J265" t="n">
         <v>120</v>
       </c>
       <c r="K265" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L265" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="M265" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K266" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L266" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M266" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K267" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L267" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M267" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K268" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L268" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M268" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K269" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L269" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M269" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19793,20 +19793,20 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K270" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L270" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M270" t="n">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K271" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="L271" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M271" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K272" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M272" t="n">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K273" t="n">
-        <v>750</v>
+        <v>380</v>
       </c>
       <c r="L273" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M273" t="n">
-        <v>771</v>
+        <v>389</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>771</v>
+        <v>389</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="K274" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L274" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M274" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20148,16 +20148,16 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K275" t="n">
         <v>600</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K276" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L276" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M276" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20297,11 +20297,11 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K277" t="n">
         <v>330</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K278" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L278" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M278" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
         <v>120</v>
       </c>
       <c r="K279" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L279" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M279" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K280" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L280" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M280" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="K281" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L281" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="M281" t="n">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="K282" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L282" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M282" t="n">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K283" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L283" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M283" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L284" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M284" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K285" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L285" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M285" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K286" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L286" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
-        <v>1100</v>
+        <v>380</v>
       </c>
       <c r="L287" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="M287" t="n">
-        <v>1146</v>
+        <v>380</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>1146</v>
+        <v>380</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="K288" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L288" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M288" t="n">
-        <v>639</v>
+        <v>1146</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>639</v>
+        <v>1146</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21156,25 +21156,25 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K289" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L289" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M289" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
         <v>90</v>
       </c>
       <c r="K290" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L290" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M290" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K291" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L291" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="M291" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="K292" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="M292" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K293" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L293" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M293" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21516,25 +21516,25 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="K294" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L294" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M294" t="n">
-        <v>529</v>
+        <v>1200</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>529</v>
+        <v>1200</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K295" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M295" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K296" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L296" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M296" t="n">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K297" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L297" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M297" t="n">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K298" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L298" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="M298" t="n">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K299" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L299" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M299" t="n">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K300" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L300" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M300" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22029,16 +22029,16 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K301" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L301" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M301" t="n">
-        <v>721</v>
+        <v>300</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>721</v>
+        <v>300</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K302" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L302" t="n">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="M302" t="n">
-        <v>409</v>
+        <v>721</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>409</v>
+        <v>721</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K303" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L303" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22236,25 +22236,25 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K304" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="L304" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M304" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K305" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L305" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M305" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="K306" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L306" t="n">
         <v>350</v>
       </c>
       <c r="M306" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L307" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M307" t="n">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K308" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L308" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M308" t="n">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22596,25 +22596,25 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="K309" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L309" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M309" t="n">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K310" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L310" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M310" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,58 +22725,130 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E311" t="n">
+        <v>5</v>
+      </c>
+      <c r="F311" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J311" t="n">
+        <v>80</v>
+      </c>
+      <c r="K311" t="n">
+        <v>400</v>
+      </c>
+      <c r="L311" t="n">
+        <v>400</v>
+      </c>
+      <c r="M311" t="n">
+        <v>400</v>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>1</v>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>3</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E311" t="n">
-        <v>5</v>
-      </c>
-      <c r="F311" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="E312" t="n">
+        <v>5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I311" t="inlineStr">
+      <c r="I312" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J311" t="n">
+      <c r="J312" t="n">
         <v>130</v>
       </c>
-      <c r="K311" t="n">
+      <c r="K312" t="n">
         <v>350</v>
       </c>
-      <c r="L311" t="n">
+      <c r="L312" t="n">
         <v>350</v>
       </c>
-      <c r="M311" t="n">
+      <c r="M312" t="n">
         <v>350</v>
       </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O311" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P311" t="n">
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
         <v>350</v>
       </c>
-      <c r="Q311" t="n">
-        <v>1</v>
-      </c>
-      <c r="R311" t="inlineStr">
+      <c r="Q312" t="n">
+        <v>1</v>
+      </c>
+      <c r="R312" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R312"/>
+  <dimension ref="A1:R314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K217" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="L217" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M217" t="n">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16053,16 +16053,16 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K218" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="L218" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="M218" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="K219" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="L219" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M219" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K220" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L220" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M220" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K221" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L221" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M221" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K222" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L222" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M222" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K223" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L223" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M223" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16481,11 +16481,11 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K224" t="n">
         <v>380</v>
@@ -16494,7 +16494,7 @@
         <v>400</v>
       </c>
       <c r="M224" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K225" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L225" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M225" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K226" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="L226" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K227" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L227" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M227" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16764,25 +16764,25 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K228" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="L228" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="M228" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="K229" t="n">
         <v>400</v>
       </c>
       <c r="L229" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16908,25 +16908,25 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="K230" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L230" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M230" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16980,7 +16980,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -16989,16 +16989,16 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K231" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L231" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L232" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M232" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="K233" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L233" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M233" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,25 +17196,25 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K234" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L234" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K235" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L235" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M235" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K236" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L236" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M236" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17412,7 +17412,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17421,16 +17421,16 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K237" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L237" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M237" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K238" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L238" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M238" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,25 +17556,25 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K239" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="L239" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="M239" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L240" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M240" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,25 +17700,25 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K241" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="L241" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M241" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K242" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L242" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M242" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K243" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L243" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="M243" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K244" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L244" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M244" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K245" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L245" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="M245" t="n">
-        <v>727</v>
+        <v>330</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>727</v>
+        <v>330</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18069,16 +18069,16 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K246" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L246" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M246" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K247" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L247" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M247" t="n">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K248" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L248" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M248" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18276,25 +18276,25 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K249" t="n">
         <v>300</v>
       </c>
       <c r="L249" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M249" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K250" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L250" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M250" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18420,16 +18420,16 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K251" t="n">
         <v>300</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K252" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L252" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M252" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K253" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L253" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M253" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18636,25 +18636,25 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K254" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L254" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M254" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K255" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L255" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="M255" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18735,11 +18735,11 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L256" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M256" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18852,25 +18852,25 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K257" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L257" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M257" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K258" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L258" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="M258" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -18996,25 +18996,25 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="K259" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L259" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M259" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19068,25 +19068,25 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K260" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L260" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M260" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K261" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L261" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M261" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K262" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L262" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K263" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L263" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M263" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K264" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L264" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="M264" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K265" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L265" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M265" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19500,25 +19500,25 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K266" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="L266" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="M266" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K267" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L267" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M267" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19644,25 +19644,25 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K268" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L268" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="M268" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19725,16 +19725,16 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K269" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L269" t="n">
         <v>350</v>
       </c>
       <c r="M269" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19788,25 +19788,25 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J270" t="n">
+        <v>160</v>
+      </c>
+      <c r="K270" t="n">
         <v>230</v>
       </c>
-      <c r="K270" t="n">
-        <v>400</v>
-      </c>
       <c r="L270" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="M270" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L271" t="n">
         <v>350</v>
       </c>
       <c r="M271" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K272" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M272" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K273" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L273" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M273" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K274" t="n">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="L274" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M274" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K275" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L275" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M275" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K276" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L276" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M276" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K277" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L277" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M277" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20364,25 +20364,25 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K278" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L278" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M278" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K279" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L279" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M279" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K280" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L280" t="n">
         <v>350</v>
       </c>
       <c r="M280" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20580,25 +20580,25 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K281" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L281" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M281" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20661,16 +20661,16 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K282" t="n">
         <v>350</v>
       </c>
       <c r="L282" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M282" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K283" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L283" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M283" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K284" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L284" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K285" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L285" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M285" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K286" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L286" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M286" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21012,25 +21012,25 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K287" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L287" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M287" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="K288" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L288" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M288" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K289" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L289" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M289" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="K290" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L290" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M290" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K291" t="n">
         <v>600</v>
       </c>
       <c r="L291" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M291" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K292" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L292" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="M292" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21516,25 +21516,25 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K294" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L294" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M294" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K295" t="n">
         <v>500</v>
       </c>
       <c r="L295" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M295" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K296" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L296" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M296" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21741,7 +21741,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K297" t="n">
         <v>500</v>
@@ -21750,7 +21750,7 @@
         <v>550</v>
       </c>
       <c r="M297" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21804,25 +21804,25 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K298" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L298" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M298" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21876,25 +21876,25 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K299" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M299" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K300" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L300" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M300" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22032,13 +22032,13 @@
         <v>80</v>
       </c>
       <c r="K301" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L301" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M301" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K302" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L302" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M302" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K303" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L303" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M303" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K304" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L304" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K305" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L305" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M305" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22380,25 +22380,25 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K306" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L306" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M306" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K307" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L307" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M307" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K308" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L308" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M308" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22596,25 +22596,25 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K309" t="n">
         <v>350</v>
       </c>
       <c r="L309" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M309" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K310" t="n">
+        <v>450</v>
+      </c>
+      <c r="L310" t="n">
         <v>500</v>
       </c>
-      <c r="L310" t="n">
-        <v>550</v>
-      </c>
       <c r="M310" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22740,25 +22740,25 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K311" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L311" t="n">
         <v>400</v>
       </c>
       <c r="M311" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,58 +22797,202 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E312" t="n">
+        <v>5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J312" t="n">
+        <v>165</v>
+      </c>
+      <c r="K312" t="n">
+        <v>500</v>
+      </c>
+      <c r="L312" t="n">
+        <v>550</v>
+      </c>
+      <c r="M312" t="n">
+        <v>526</v>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>1</v>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>3</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E313" t="n">
+        <v>5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J313" t="n">
+        <v>80</v>
+      </c>
+      <c r="K313" t="n">
+        <v>400</v>
+      </c>
+      <c r="L313" t="n">
+        <v>400</v>
+      </c>
+      <c r="M313" t="n">
+        <v>400</v>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P313" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E312" t="n">
-        <v>5</v>
-      </c>
-      <c r="F312" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="E314" t="n">
+        <v>5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I312" t="inlineStr">
+      <c r="I314" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J312" t="n">
+      <c r="J314" t="n">
         <v>130</v>
       </c>
-      <c r="K312" t="n">
+      <c r="K314" t="n">
         <v>350</v>
       </c>
-      <c r="L312" t="n">
+      <c r="L314" t="n">
         <v>350</v>
       </c>
-      <c r="M312" t="n">
+      <c r="M314" t="n">
         <v>350</v>
       </c>
-      <c r="N312" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O312" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P312" t="n">
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
         <v>350</v>
       </c>
-      <c r="Q312" t="n">
-        <v>1</v>
-      </c>
-      <c r="R312" t="inlineStr">
+      <c r="Q314" t="n">
+        <v>1</v>
+      </c>
+      <c r="R314" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R314"/>
+  <dimension ref="A1:R316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10077,16 +10077,16 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K135" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L135" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M135" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="K136" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L136" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M136" t="n">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>478</v>
+        <v>600</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="K137" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L137" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M137" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="K138" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="L138" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M138" t="n">
-        <v>750</v>
+        <v>478</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>750</v>
+        <v>478</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E139" t="n">
         <v>5</v>
@@ -10356,25 +10356,25 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K139" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L139" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M139" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="K140" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L140" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M140" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44321</v>
+        <v>44434</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10500,25 +10500,25 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K141" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L141" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M141" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44300</v>
+        <v>44327</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K142" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L142" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M142" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K143" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L143" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M143" t="n">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44452</v>
+        <v>44300</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K144" t="n">
-        <v>750</v>
+        <v>380</v>
       </c>
       <c r="L144" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="M144" t="n">
-        <v>771</v>
+        <v>380</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>771</v>
+        <v>380</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K145" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L145" t="n">
-        <v>600</v>
+        <v>420</v>
       </c>
       <c r="M145" t="n">
-        <v>600</v>
+        <v>413</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>600</v>
+        <v>413</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="K146" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="L146" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M146" t="n">
-        <v>500</v>
+        <v>771</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>500</v>
+        <v>771</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10932,25 +10932,25 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K147" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L147" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M147" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K148" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L148" t="n">
-        <v>340</v>
+        <v>500</v>
       </c>
       <c r="M148" t="n">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K149" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="L149" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M149" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="K150" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L150" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="M150" t="n">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11220,25 +11220,25 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="K151" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L151" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="M151" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K152" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L152" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="M152" t="n">
-        <v>826</v>
+        <v>500</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>826</v>
+        <v>500</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="K153" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="L153" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="M153" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11445,16 +11445,16 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L154" t="n">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="M154" t="n">
-        <v>525</v>
+        <v>826</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>525</v>
+        <v>826</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="K155" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L155" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>415</v>
+        <v>600</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>415</v>
+        <v>600</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44161</v>
+        <v>44405</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11580,7 +11580,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -11589,16 +11589,16 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K156" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="L156" t="n">
-        <v>1400</v>
+        <v>550</v>
       </c>
       <c r="M156" t="n">
-        <v>1400</v>
+        <v>525</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1400</v>
+        <v>525</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11652,7 +11652,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -11661,16 +11661,16 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K157" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L157" t="n">
-        <v>1200</v>
+        <v>430</v>
       </c>
       <c r="M157" t="n">
-        <v>1200</v>
+        <v>415</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1200</v>
+        <v>415</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K158" t="n">
-        <v>550</v>
+        <v>1400</v>
       </c>
       <c r="L158" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="M158" t="n">
-        <v>576</v>
+        <v>1400</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>576</v>
+        <v>1400</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44307</v>
+        <v>44161</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11796,25 +11796,25 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K159" t="n">
-        <v>330</v>
+        <v>1200</v>
       </c>
       <c r="L159" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M159" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11868,25 +11868,25 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>170</v>
       </c>
       <c r="K160" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="L160" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
       <c r="M160" t="n">
-        <v>214</v>
+        <v>576</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>214</v>
+        <v>576</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K161" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L161" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M161" t="n">
-        <v>755</v>
+        <v>340</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>755</v>
+        <v>340</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K162" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L162" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="M162" t="n">
-        <v>526</v>
+        <v>214</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>526</v>
+        <v>214</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12084,25 +12084,25 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="K163" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L163" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="M163" t="n">
-        <v>427</v>
+        <v>755</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>427</v>
+        <v>755</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
@@ -12156,25 +12156,25 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="K164" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L164" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="M164" t="n">
-        <v>362</v>
+        <v>526</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>362</v>
+        <v>526</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K165" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L165" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M165" t="n">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>300</v>
+        <v>427</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K166" t="n">
+        <v>350</v>
+      </c>
+      <c r="L166" t="n">
         <v>380</v>
       </c>
-      <c r="L166" t="n">
-        <v>390</v>
-      </c>
       <c r="M166" t="n">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,25 +12372,25 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K167" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L167" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M167" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="K168" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L168" t="n">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="M168" t="n">
-        <v>523</v>
+        <v>385</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>523</v>
+        <v>385</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44328</v>
+        <v>44274</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K169" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L169" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M169" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44400</v>
+        <v>44426</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="K170" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L170" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="M170" t="n">
-        <v>410</v>
+        <v>523</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>410</v>
+        <v>523</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,25 +12660,25 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K171" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L171" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M171" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12741,16 +12741,16 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="K172" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L172" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M172" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E173" t="n">
         <v>5</v>
@@ -12816,13 +12816,13 @@
         <v>90</v>
       </c>
       <c r="K173" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L173" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M173" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12888,13 +12888,13 @@
         <v>230</v>
       </c>
       <c r="K174" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="L174" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M174" t="n">
-        <v>776</v>
+        <v>340</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>776</v>
+        <v>340</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12948,25 +12948,25 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="K175" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="L175" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="M175" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K176" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="L176" t="n">
         <v>800</v>
       </c>
       <c r="M176" t="n">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13101,16 +13101,16 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K177" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L177" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M177" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J178" t="n">
         <v>180</v>
       </c>
       <c r="K178" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L178" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M178" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44200</v>
+        <v>44453</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K179" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L179" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M179" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13308,12 +13308,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J180" t="n">
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13389,16 +13389,16 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K181" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L181" t="n">
         <v>500</v>
       </c>
       <c r="M181" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K182" t="n">
         <v>350</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="K183" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="L183" t="n">
-        <v>830</v>
+        <v>500</v>
       </c>
       <c r="M183" t="n">
-        <v>815</v>
+        <v>478</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>815</v>
+        <v>478</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13581,7 +13581,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E184" t="n">
         <v>5</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K184" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="L184" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M184" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="K185" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L185" t="n">
-        <v>500</v>
+        <v>830</v>
       </c>
       <c r="M185" t="n">
-        <v>473</v>
+        <v>815</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>473</v>
+        <v>815</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E186" t="n">
         <v>5</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J186" t="n">
         <v>80</v>
       </c>
       <c r="K186" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L186" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M186" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13817,20 +13817,20 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
       <c r="K187" t="n">
+        <v>450</v>
+      </c>
+      <c r="L187" t="n">
         <v>500</v>
       </c>
-      <c r="L187" t="n">
-        <v>550</v>
-      </c>
       <c r="M187" t="n">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K188" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L188" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M188" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="K189" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="M189" t="n">
-        <v>335</v>
+        <v>524</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>335</v>
+        <v>524</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44237</v>
+        <v>44420</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14028,25 +14028,25 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K190" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L190" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M190" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14100,25 +14100,25 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="K191" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L191" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K192" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L192" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M192" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44167</v>
+        <v>44237</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K193" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="L193" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="M193" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14271,11 +14271,11 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P193" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44210</v>
+        <v>44285</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L194" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M194" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="K195" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="L195" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="M195" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>350</v>
+        <v>1300</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14465,20 +14465,20 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K196" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L196" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M196" t="n">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>391</v>
+        <v>500</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14537,20 +14537,20 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K197" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="L197" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M197" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14609,20 +14609,20 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K198" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L198" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M198" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14681,20 +14681,20 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K199" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L199" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M199" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14757,16 +14757,16 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="K200" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L200" t="n">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="M200" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="K201" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L201" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M201" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="K202" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L202" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="M202" t="n">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44455</v>
+        <v>44266</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14964,25 +14964,25 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K203" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L203" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M203" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K204" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L204" t="n">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="M204" t="n">
-        <v>600</v>
+        <v>385</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>600</v>
+        <v>385</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15117,16 +15117,16 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K205" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L205" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M205" t="n">
-        <v>524</v>
+        <v>800</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>524</v>
+        <v>800</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K206" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L206" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M206" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="K207" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="M207" t="n">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K208" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="L208" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="M208" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>475</v>
+        <v>800</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15405,16 +15405,16 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K209" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L209" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M209" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="K210" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L210" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="M210" t="n">
-        <v>1400</v>
+        <v>475</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15495,11 +15495,11 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1400</v>
+        <v>475</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="K211" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L211" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M211" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K212" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L212" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M212" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E213" t="n">
         <v>5</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="K213" t="n">
-        <v>650</v>
+        <v>1400</v>
       </c>
       <c r="L213" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="M213" t="n">
-        <v>675</v>
+        <v>1400</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>675</v>
+        <v>1400</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K214" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="L214" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="M214" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15828,7 +15828,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -15837,16 +15837,16 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="K215" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L215" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="M215" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>400</v>
+        <v>675</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15900,25 +15900,25 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="K216" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="L216" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M216" t="n">
-        <v>878</v>
+        <v>450</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>878</v>
+        <v>450</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K217" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L217" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M217" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16044,25 +16044,25 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="K218" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="L218" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="M218" t="n">
-        <v>600</v>
+        <v>878</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>600</v>
+        <v>878</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="K219" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="L219" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="M219" t="n">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>337</v>
+        <v>800</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16197,16 +16197,16 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K220" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="L220" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="M220" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="K221" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="L221" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M221" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,25 +16332,25 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K222" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L222" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M222" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K223" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L223" t="n">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="M223" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44343</v>
+        <v>44249</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16476,25 +16476,25 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K224" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L224" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M224" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K225" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L225" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M225" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44280</v>
+        <v>44343</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,11 +16625,11 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K226" t="n">
         <v>380</v>
@@ -16638,7 +16638,7 @@
         <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="K227" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L227" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M227" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K228" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="L228" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M228" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>650</v>
+        <v>393</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="K229" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="L229" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E230" t="n">
         <v>5</v>
@@ -16908,25 +16908,25 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K230" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="L230" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="M230" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="K231" t="n">
         <v>400</v>
       </c>
       <c r="L231" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M231" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17052,25 +17052,25 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="K232" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L232" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M232" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="K233" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L233" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>300</v>
+        <v>426</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="K234" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L234" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M234" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -17277,16 +17277,16 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="K235" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L235" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M235" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K236" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L236" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="M236" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K237" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L237" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M237" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17484,25 +17484,25 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K238" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L238" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M238" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K239" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L239" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M239" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K240" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L240" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M240" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,25 +17700,25 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K241" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="L241" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="M241" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K242" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L242" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M242" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K243" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="L243" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M243" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K244" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L244" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M244" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17988,25 +17988,25 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K245" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L245" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="M245" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K246" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L246" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M246" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K247" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L247" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="M247" t="n">
-        <v>727</v>
+        <v>330</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>727</v>
+        <v>330</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K248" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L248" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M248" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K249" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L249" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M249" t="n">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L250" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M250" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18420,25 +18420,25 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K251" t="n">
         <v>300</v>
       </c>
       <c r="L251" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M251" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K252" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L252" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M252" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18564,16 +18564,16 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K253" t="n">
         <v>300</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K254" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L254" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M254" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K255" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L255" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M255" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18780,25 +18780,25 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K256" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L256" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M256" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K257" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L257" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="M257" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18879,11 +18879,11 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K258" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L258" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M258" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18996,25 +18996,25 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K259" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L259" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M259" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K260" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L260" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="M260" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="K261" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L261" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M261" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19212,25 +19212,25 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K262" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L262" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M262" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K263" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L263" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M263" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K264" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L264" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K265" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L265" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M265" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19500,25 +19500,25 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K266" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L266" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="M266" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K267" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L267" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M267" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19644,25 +19644,25 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K268" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="L268" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="M268" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K269" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L269" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M269" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19788,25 +19788,25 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K270" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L270" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="M270" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19869,16 +19869,16 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K271" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L271" t="n">
         <v>350</v>
       </c>
       <c r="M271" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
+        <v>160</v>
+      </c>
+      <c r="K272" t="n">
         <v>230</v>
       </c>
-      <c r="K272" t="n">
-        <v>400</v>
-      </c>
       <c r="L272" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="M272" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K273" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L273" t="n">
         <v>350</v>
       </c>
       <c r="M273" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K274" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L274" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M274" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K275" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L275" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M275" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K276" t="n">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="L276" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M276" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K277" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L277" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M277" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K278" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M278" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K279" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20508,25 +20508,25 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K280" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L280" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M280" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K281" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L281" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M281" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K282" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L282" t="n">
         <v>350</v>
       </c>
       <c r="M282" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20724,25 +20724,25 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L283" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M283" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K284" t="n">
         <v>350</v>
       </c>
       <c r="L284" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M284" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20877,16 +20877,16 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K285" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L285" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M285" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K286" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M286" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K287" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L287" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M287" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K288" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L288" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M288" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21156,25 +21156,25 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K289" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L289" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M289" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21237,16 +21237,16 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="K290" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L290" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M290" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K291" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L291" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M291" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="K292" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L292" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M292" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21444,25 +21444,25 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K293" t="n">
         <v>600</v>
       </c>
       <c r="L293" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M293" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K294" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L294" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="M294" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K295" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L295" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M295" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21660,25 +21660,25 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K296" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L296" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M296" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K297" t="n">
         <v>500</v>
       </c>
       <c r="L297" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M297" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K298" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L298" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M298" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21885,7 +21885,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K299" t="n">
         <v>500</v>
@@ -21894,7 +21894,7 @@
         <v>550</v>
       </c>
       <c r="M299" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21948,25 +21948,25 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K300" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L300" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M300" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22020,25 +22020,25 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K301" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L301" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M301" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M302" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22176,13 +22176,13 @@
         <v>80</v>
       </c>
       <c r="K303" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L303" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22236,7 +22236,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K304" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L304" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M304" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K305" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L305" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M305" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K306" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L306" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K307" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L307" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M307" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22524,25 +22524,25 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K308" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L308" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M308" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K309" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L309" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M309" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -22673,20 +22673,20 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K310" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L310" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M310" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22740,25 +22740,25 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K311" t="n">
         <v>350</v>
       </c>
       <c r="L311" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M311" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K312" t="n">
+        <v>450</v>
+      </c>
+      <c r="L312" t="n">
         <v>500</v>
       </c>
-      <c r="L312" t="n">
-        <v>550</v>
-      </c>
       <c r="M312" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -22884,25 +22884,25 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K313" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L313" t="n">
         <v>400</v>
       </c>
       <c r="M313" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,58 +22941,202 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E314" t="n">
+        <v>5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J314" t="n">
+        <v>165</v>
+      </c>
+      <c r="K314" t="n">
+        <v>500</v>
+      </c>
+      <c r="L314" t="n">
+        <v>550</v>
+      </c>
+      <c r="M314" t="n">
+        <v>526</v>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>1</v>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>3</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E315" t="n">
+        <v>5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J315" t="n">
+        <v>80</v>
+      </c>
+      <c r="K315" t="n">
+        <v>400</v>
+      </c>
+      <c r="L315" t="n">
+        <v>400</v>
+      </c>
+      <c r="M315" t="n">
+        <v>400</v>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>1</v>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>3</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E314" t="n">
-        <v>5</v>
-      </c>
-      <c r="F314" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="E316" t="n">
+        <v>5</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I314" t="inlineStr">
+      <c r="I316" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J314" t="n">
+      <c r="J316" t="n">
         <v>130</v>
       </c>
-      <c r="K314" t="n">
+      <c r="K316" t="n">
         <v>350</v>
       </c>
-      <c r="L314" t="n">
+      <c r="L316" t="n">
         <v>350</v>
       </c>
-      <c r="M314" t="n">
+      <c r="M316" t="n">
         <v>350</v>
       </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O314" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P314" t="n">
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
         <v>350</v>
       </c>
-      <c r="Q314" t="n">
-        <v>1</v>
-      </c>
-      <c r="R314" t="inlineStr">
+      <c r="Q316" t="n">
+        <v>1</v>
+      </c>
+      <c r="R316" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R316"/>
+  <dimension ref="A1:R318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="K237" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="L237" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="M237" t="n">
-        <v>391</v>
+        <v>800</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>391</v>
+        <v>800</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17484,25 +17484,25 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K238" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L238" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="M238" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K239" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L239" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M239" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>847</v>
+        <v>391</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17628,25 +17628,25 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K240" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L240" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M240" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="K241" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L241" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M241" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>626</v>
+        <v>847</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K242" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="L242" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="M242" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K243" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
       <c r="L243" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="M243" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>270</v>
+        <v>626</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17925,16 +17925,16 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="K244" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L244" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M244" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17988,25 +17988,25 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="K245" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="L245" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M245" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K246" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L246" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M246" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18132,25 +18132,25 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="K247" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="L247" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="M247" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18209,20 +18209,20 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="K248" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L248" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M248" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44463</v>
+        <v>44308</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="K249" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L249" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="M249" t="n">
-        <v>727</v>
+        <v>330</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>727</v>
+        <v>330</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K250" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L250" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M250" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>500</v>
+        <v>414</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44301</v>
+        <v>44463</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K251" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L251" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M251" t="n">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44251</v>
+        <v>44196</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18501,16 +18501,16 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K252" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L252" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="M252" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18564,25 +18564,25 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K253" t="n">
         <v>300</v>
       </c>
       <c r="L253" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18645,16 +18645,16 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K254" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L254" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M254" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18708,16 +18708,16 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K255" t="n">
         <v>300</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K256" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="L256" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="M256" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18837,7 +18837,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E257" t="n">
         <v>5</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K257" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L257" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="M257" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>469</v>
+        <v>300</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18924,25 +18924,25 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="K258" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L258" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M258" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K259" t="n">
-        <v>1400</v>
+        <v>450</v>
       </c>
       <c r="L259" t="n">
-        <v>1400</v>
+        <v>480</v>
       </c>
       <c r="M259" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19023,11 +19023,11 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P259" t="n">
-        <v>1400</v>
+        <v>469</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E260" t="n">
         <v>5</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="K260" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L260" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M260" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K261" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L261" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M261" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19197,7 +19197,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E262" t="n">
         <v>5</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K262" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L262" t="n">
-        <v>950</v>
+        <v>1400</v>
       </c>
       <c r="M262" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>926</v>
+        <v>1400</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19269,7 +19269,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44369</v>
+        <v>44166</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -19284,25 +19284,25 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L263" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M263" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>361</v>
+        <v>1200</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44433</v>
+        <v>44168</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="K264" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L264" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="M264" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>623</v>
+        <v>926</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="K265" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L265" t="n">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="M265" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>500</v>
+        <v>361</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="K266" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L266" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>300</v>
+        <v>623</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K267" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L267" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M267" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>339</v>
+        <v>500</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19644,25 +19644,25 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K268" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L268" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="M268" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K269" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L269" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M269" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44279</v>
+        <v>44371</v>
       </c>
       <c r="E270" t="n">
         <v>5</v>
@@ -19788,25 +19788,25 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K270" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="L270" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="M270" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K271" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L271" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M271" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K272" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="L272" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="M272" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K273" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L273" t="n">
         <v>350</v>
       </c>
       <c r="M273" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20076,25 +20076,25 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
+        <v>160</v>
+      </c>
+      <c r="K274" t="n">
         <v>230</v>
       </c>
-      <c r="K274" t="n">
-        <v>400</v>
-      </c>
       <c r="L274" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="M274" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44291</v>
+        <v>44363</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L275" t="n">
         <v>350</v>
       </c>
       <c r="M275" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="K276" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L276" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M276" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="K277" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L277" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M277" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44438</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="K278" t="n">
-        <v>750</v>
+        <v>280</v>
       </c>
       <c r="L278" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="M278" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>771</v>
+        <v>280</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="K279" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L279" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M279" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K280" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L280" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M280" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K281" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L281" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M281" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20652,25 +20652,25 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K282" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L282" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M282" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K283" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L283" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M283" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L284" t="n">
         <v>350</v>
       </c>
       <c r="M284" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20868,25 +20868,25 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K285" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L285" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M285" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K286" t="n">
         <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M286" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K287" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L287" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M287" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K288" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L288" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K289" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L289" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M289" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K290" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L290" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M290" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K291" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L291" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M291" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="K292" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L292" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M292" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K293" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L293" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M293" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="K294" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L294" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M294" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21588,25 +21588,25 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K295" t="n">
         <v>600</v>
       </c>
       <c r="L295" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M295" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21669,16 +21669,16 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K296" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L296" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="M296" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21804,25 +21804,25 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K298" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L298" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M298" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K299" t="n">
         <v>500</v>
       </c>
       <c r="L299" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M299" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K300" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L300" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M300" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K301" t="n">
         <v>500</v>
@@ -22038,7 +22038,7 @@
         <v>550</v>
       </c>
       <c r="M301" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22092,25 +22092,25 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K302" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L302" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M302" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22164,25 +22164,25 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K303" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L303" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M303" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22245,16 +22245,16 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K304" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L304" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M304" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -22320,13 +22320,13 @@
         <v>80</v>
       </c>
       <c r="K305" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L305" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M305" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K306" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L306" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M306" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K307" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L307" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M307" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K308" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L308" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K309" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M309" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -22668,25 +22668,25 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J310" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K310" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L310" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M310" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K311" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L311" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M311" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K312" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L312" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M312" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -22884,25 +22884,25 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K313" t="n">
         <v>350</v>
       </c>
       <c r="L313" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M313" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K314" t="n">
+        <v>450</v>
+      </c>
+      <c r="L314" t="n">
         <v>500</v>
       </c>
-      <c r="L314" t="n">
-        <v>550</v>
-      </c>
       <c r="M314" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -23028,25 +23028,25 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K315" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L315" t="n">
         <v>400</v>
       </c>
       <c r="M315" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,58 +23085,202 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E316" t="n">
+        <v>5</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J316" t="n">
+        <v>165</v>
+      </c>
+      <c r="K316" t="n">
+        <v>500</v>
+      </c>
+      <c r="L316" t="n">
+        <v>550</v>
+      </c>
+      <c r="M316" t="n">
+        <v>526</v>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>1</v>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>3</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E317" t="n">
+        <v>5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J317" t="n">
+        <v>80</v>
+      </c>
+      <c r="K317" t="n">
+        <v>400</v>
+      </c>
+      <c r="L317" t="n">
+        <v>400</v>
+      </c>
+      <c r="M317" t="n">
+        <v>400</v>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>1</v>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>3</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E316" t="n">
-        <v>5</v>
-      </c>
-      <c r="F316" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="E318" t="n">
+        <v>5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I316" t="inlineStr">
+      <c r="I318" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J316" t="n">
+      <c r="J318" t="n">
         <v>130</v>
       </c>
-      <c r="K316" t="n">
+      <c r="K318" t="n">
         <v>350</v>
       </c>
-      <c r="L316" t="n">
+      <c r="L318" t="n">
         <v>350</v>
       </c>
-      <c r="M316" t="n">
+      <c r="M318" t="n">
         <v>350</v>
       </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P316" t="n">
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
         <v>350</v>
       </c>
-      <c r="Q316" t="n">
-        <v>1</v>
-      </c>
-      <c r="R316" t="inlineStr">
+      <c r="Q318" t="n">
+        <v>1</v>
+      </c>
+      <c r="R318" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R318"/>
+  <dimension ref="A1:R319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8613,7 +8613,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44299</v>
+        <v>44469</v>
       </c>
       <c r="E115" t="n">
         <v>5</v>
@@ -8633,20 +8633,20 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="K115" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L115" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M115" t="n">
-        <v>400</v>
+        <v>626</v>
       </c>
       <c r="N115" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>400</v>
+        <v>626</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -8685,7 +8685,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44320</v>
+        <v>44299</v>
       </c>
       <c r="E116" t="n">
         <v>5</v>
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K116" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L116" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M116" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N116" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E117" t="n">
         <v>5</v>
@@ -8777,20 +8777,20 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="K117" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L117" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M117" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="N117" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44284</v>
+        <v>44385</v>
       </c>
       <c r="E118" t="n">
         <v>5</v>
@@ -8849,20 +8849,20 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K118" t="n">
         <v>320</v>
       </c>
       <c r="L118" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M118" t="n">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="N118" t="inlineStr">
         <is>
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44391</v>
+        <v>44284</v>
       </c>
       <c r="E119" t="n">
         <v>5</v>
@@ -8921,20 +8921,20 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="K119" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L119" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M119" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44417</v>
+        <v>44391</v>
       </c>
       <c r="E120" t="n">
         <v>5</v>
@@ -8997,16 +8997,16 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K120" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L120" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="M120" t="n">
-        <v>529</v>
+        <v>335</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>529</v>
+        <v>335</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -9045,7 +9045,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44216</v>
+        <v>44417</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -9065,20 +9065,20 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="K121" t="n">
         <v>500</v>
       </c>
       <c r="L121" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M121" t="n">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -9091,7 +9091,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K122" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L122" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M122" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44340</v>
+        <v>44216</v>
       </c>
       <c r="E123" t="n">
         <v>5</v>
@@ -9204,25 +9204,25 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="K123" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L123" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="M123" t="n">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9281,20 +9281,20 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="K124" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="L124" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="M124" t="n">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9353,20 +9353,20 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="K125" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="L125" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="M125" t="n">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K126" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L126" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M126" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K127" t="n">
-        <v>430</v>
+        <v>250</v>
       </c>
       <c r="L127" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="M127" t="n">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="K128" t="n">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="L128" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>300</v>
+        <v>439</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,7 +9636,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9645,16 +9645,16 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K129" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L129" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="M129" t="n">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>425</v>
+        <v>300</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K130" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L130" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,25 +9780,25 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K131" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="L131" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M131" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9837,7 +9837,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E132" t="n">
         <v>5</v>
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="K132" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="L132" t="n">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="M132" t="n">
-        <v>526</v>
+        <v>367</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>526</v>
+        <v>367</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44250</v>
+        <v>44419</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9929,20 +9929,20 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K133" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L133" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M133" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44281</v>
+        <v>44250</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="K134" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L134" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="M134" t="n">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44467</v>
+        <v>44281</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K135" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L135" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="M135" t="n">
-        <v>800</v>
+        <v>411</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>800</v>
+        <v>411</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10145,20 +10145,20 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K136" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L136" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M136" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10217,20 +10217,20 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="K137" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L137" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M137" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="K138" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L138" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M138" t="n">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="K139" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L139" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M139" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="K140" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L140" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M140" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -10509,16 +10509,16 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K141" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L141" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10557,7 +10557,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E142" t="n">
         <v>5</v>
@@ -10572,25 +10572,25 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K142" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L142" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M142" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K143" t="n">
         <v>350</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44300</v>
+        <v>44321</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K144" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L144" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M144" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44399</v>
+        <v>44300</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10793,20 +10793,20 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K145" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L145" t="n">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="M145" t="n">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="K146" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="L146" t="n">
-        <v>800</v>
+        <v>420</v>
       </c>
       <c r="M146" t="n">
-        <v>771</v>
+        <v>413</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>771</v>
+        <v>413</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="K147" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L147" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M147" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="K148" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L148" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M148" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -11085,16 +11085,16 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K149" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L149" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M149" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11148,25 +11148,25 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K150" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L150" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M150" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -11229,16 +11229,16 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="K151" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L151" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="M151" t="n">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>230</v>
+        <v>335</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11292,25 +11292,25 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="K152" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="L152" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="M152" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K153" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L153" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M153" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44441</v>
+        <v>44223</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="K154" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="L154" t="n">
-        <v>850</v>
+        <v>330</v>
       </c>
       <c r="M154" t="n">
-        <v>826</v>
+        <v>330</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>826</v>
+        <v>330</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K155" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L155" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="M155" t="n">
-        <v>600</v>
+        <v>826</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>600</v>
+        <v>826</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44405</v>
+        <v>44441</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="K156" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L156" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M156" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K157" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L157" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="M157" t="n">
-        <v>415</v>
+        <v>525</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>415</v>
+        <v>525</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11724,25 +11724,25 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="K158" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="L158" t="n">
-        <v>1400</v>
+        <v>430</v>
       </c>
       <c r="M158" t="n">
-        <v>1400</v>
+        <v>415</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1400</v>
+        <v>415</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L159" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M159" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11868,25 +11868,25 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K160" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="L160" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="M160" t="n">
-        <v>576</v>
+        <v>1200</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>576</v>
+        <v>1200</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11945,20 +11945,20 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K161" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="L161" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M161" t="n">
-        <v>340</v>
+        <v>576</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>340</v>
+        <v>576</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K162" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L162" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M162" t="n">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44193</v>
+        <v>44307</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12084,25 +12084,25 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K163" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="L163" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="M163" t="n">
-        <v>755</v>
+        <v>214</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>755</v>
+        <v>214</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K164" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L164" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M164" t="n">
-        <v>526</v>
+        <v>755</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>526</v>
+        <v>755</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K165" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L165" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M165" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12300,25 +12300,25 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="K166" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L166" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="M166" t="n">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12381,16 +12381,16 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="K167" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L167" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12444,25 +12444,25 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K168" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L168" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="M168" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44274</v>
+        <v>44341</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12521,20 +12521,20 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K169" t="n">
         <v>380</v>
       </c>
       <c r="L169" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M169" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44426</v>
+        <v>44274</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12593,20 +12593,20 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K170" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L170" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M170" t="n">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="K171" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L171" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M171" t="n">
-        <v>350</v>
+        <v>523</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>350</v>
+        <v>523</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K172" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L172" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M172" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K173" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L173" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="M173" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12885,16 +12885,16 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K174" t="n">
         <v>330</v>
       </c>
       <c r="L174" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M174" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K175" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L175" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M175" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
+        <v>90</v>
+      </c>
+      <c r="K176" t="n">
         <v>230</v>
       </c>
-      <c r="K176" t="n">
-        <v>750</v>
-      </c>
       <c r="L176" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="M176" t="n">
-        <v>776</v>
+        <v>230</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>776</v>
+        <v>230</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="K177" t="n">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="L177" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M177" t="n">
-        <v>550</v>
+        <v>776</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>550</v>
+        <v>776</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K178" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L178" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M178" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13241,20 +13241,20 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="K180" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L180" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M180" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K181" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L181" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M181" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K182" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L182" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M182" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K183" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L183" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M183" t="n">
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -13605,16 +13605,16 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K184" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L184" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M184" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>350</v>
+        <v>478</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13668,25 +13668,25 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>310</v>
+        <v>120</v>
       </c>
       <c r="K185" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L185" t="n">
-        <v>830</v>
+        <v>350</v>
       </c>
       <c r="M185" t="n">
-        <v>815</v>
+        <v>350</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>815</v>
+        <v>350</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K186" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L186" t="n">
-        <v>550</v>
+        <v>830</v>
       </c>
       <c r="M186" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13812,25 +13812,25 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="K187" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L187" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M187" t="n">
-        <v>473</v>
+        <v>550</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>473</v>
+        <v>550</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -13893,16 +13893,16 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K188" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L188" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M188" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13941,7 +13941,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44420</v>
+        <v>44214</v>
       </c>
       <c r="E189" t="n">
         <v>5</v>
@@ -13956,25 +13956,25 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="K189" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L189" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M189" t="n">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14028,7 +14028,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -14037,16 +14037,16 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="K190" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M190" t="n">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>400</v>
+        <v>524</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44370</v>
+        <v>44420</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14100,7 +14100,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K191" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L191" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M191" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44237</v>
+        <v>44370</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="K192" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L192" t="n">
-        <v>450</v>
+        <v>340</v>
       </c>
       <c r="M192" t="n">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K193" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L193" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44285</v>
+        <v>44237</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14316,25 +14316,25 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="K194" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L194" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M194" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J195" t="n">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="K195" t="n">
-        <v>1300</v>
+        <v>330</v>
       </c>
       <c r="L195" t="n">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="M195" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14415,11 +14415,11 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1300</v>
+        <v>340</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K196" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="L196" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="M196" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14487,11 +14487,11 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K197" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L197" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M197" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14604,25 +14604,25 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K198" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L198" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M198" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="K199" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="L199" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M199" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14748,25 +14748,25 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K200" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="L200" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="M200" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -14829,16 +14829,16 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14901,16 +14901,16 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="K202" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L202" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M202" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14973,16 +14973,16 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="K203" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L203" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M203" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15036,25 +15036,25 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="K204" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L204" t="n">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="M204" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K205" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L205" t="n">
-        <v>800</v>
+        <v>390</v>
       </c>
       <c r="M205" t="n">
-        <v>800</v>
+        <v>385</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>800</v>
+        <v>385</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J206" t="n">
         <v>90</v>
       </c>
       <c r="K206" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L206" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M206" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44418</v>
+        <v>44455</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15257,20 +15257,20 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J207" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K207" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L207" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M207" t="n">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15333,16 +15333,16 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="K208" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L208" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="M208" t="n">
-        <v>800</v>
+        <v>524</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>800</v>
+        <v>524</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15401,20 +15401,20 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K209" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L209" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M209" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E210" t="n">
         <v>5</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="L210" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M210" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15545,20 +15545,20 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K211" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L211" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M211" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K212" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L212" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M212" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15639,11 +15639,11 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15684,16 +15684,16 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K213" t="n">
         <v>1400</v>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P213" t="n">
@@ -15761,20 +15761,20 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K214" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L214" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M214" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44427</v>
+        <v>44165</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15828,25 +15828,25 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="K215" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="L215" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M215" t="n">
-        <v>675</v>
+        <v>1200</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>675</v>
+        <v>1200</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K216" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L216" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M216" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15972,25 +15972,25 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K217" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L217" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M217" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="K218" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="L218" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="M218" t="n">
-        <v>878</v>
+        <v>400</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>878</v>
+        <v>400</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44466</v>
+        <v>44172</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16116,25 +16116,25 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K219" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="L219" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M219" t="n">
-        <v>800</v>
+        <v>878</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>800</v>
+        <v>878</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K220" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L220" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M220" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44389</v>
+        <v>44466</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K221" t="n">
-        <v>320</v>
+        <v>600</v>
       </c>
       <c r="L221" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M221" t="n">
-        <v>337</v>
+        <v>600</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>337</v>
+        <v>600</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16337,20 +16337,20 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J222" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K222" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="L222" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M222" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44249</v>
+        <v>44389</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16409,20 +16409,20 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="K223" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="L223" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="M223" t="n">
-        <v>463</v>
+        <v>280</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>463</v>
+        <v>280</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="K224" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L224" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M224" t="n">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>350</v>
+        <v>463</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K225" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L225" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M225" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="K226" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="L226" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="M226" t="n">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16697,20 +16697,20 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K227" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L227" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M227" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16773,16 +16773,16 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K228" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M228" t="n">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>393</v>
+        <v>500</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44447</v>
+        <v>44280</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="K229" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L229" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>800</v>
+        <v>393</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>800</v>
+        <v>393</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16913,20 +16913,20 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K230" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L230" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M230" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44270</v>
+        <v>44447</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K231" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="L231" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="M231" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -17061,16 +17061,16 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K232" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L232" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M232" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17124,25 +17124,25 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="K233" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="L233" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="M233" t="n">
-        <v>426</v>
+        <v>280</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>426</v>
+        <v>280</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="K234" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L234" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M234" t="n">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17268,25 +17268,25 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="K235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17340,25 +17340,25 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="K236" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L236" t="n">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="M236" t="n">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44468</v>
+        <v>44267</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K237" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L237" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="M237" t="n">
-        <v>800</v>
+        <v>414</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>800</v>
+        <v>414</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K238" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L238" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M238" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J239" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="L239" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M239" t="n">
-        <v>391</v>
+        <v>600</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>391</v>
+        <v>600</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -17637,16 +17637,16 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K240" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L240" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17700,25 +17700,25 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K241" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L241" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="M241" t="n">
-        <v>847</v>
+        <v>300</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>847</v>
+        <v>300</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="K242" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L242" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M242" t="n">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17844,25 +17844,25 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="K243" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L243" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M243" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,25 +17916,25 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K244" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L244" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M244" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K245" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="L245" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M245" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K246" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="L246" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="M246" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18132,7 +18132,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -18141,16 +18141,16 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K247" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L247" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M247" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18204,25 +18204,25 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J248" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="K248" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L248" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M248" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K249" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L249" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M249" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18357,16 +18357,16 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K250" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="L250" t="n">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="M250" t="n">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E251" t="n">
         <v>5</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="K251" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="L251" t="n">
-        <v>750</v>
+        <v>430</v>
       </c>
       <c r="M251" t="n">
-        <v>727</v>
+        <v>414</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>727</v>
+        <v>414</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="K252" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L252" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="M252" t="n">
-        <v>500</v>
+        <v>727</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>500</v>
+        <v>727</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K253" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L253" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M253" t="n">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>317</v>
+        <v>500</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E254" t="n">
         <v>5</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K254" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L254" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="M254" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18708,7 +18708,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -18720,13 +18720,13 @@
         <v>120</v>
       </c>
       <c r="K255" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="L255" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M255" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K256" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L256" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="K259" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="L259" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="M259" t="n">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19068,7 +19068,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -19077,16 +19077,16 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K260" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L260" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M260" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="K261" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="L261" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M261" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19167,11 +19167,11 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P261" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19212,16 +19212,16 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K262" t="n">
         <v>1400</v>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P262" t="n">
@@ -19289,20 +19289,20 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
         <v>50</v>
       </c>
       <c r="K263" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L263" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M263" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19361,20 +19361,20 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K264" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L264" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="M264" t="n">
-        <v>926</v>
+        <v>1200</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>926</v>
+        <v>1200</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19428,25 +19428,25 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>490</v>
+        <v>230</v>
       </c>
       <c r="K265" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="L265" t="n">
-        <v>370</v>
+        <v>950</v>
       </c>
       <c r="M265" t="n">
-        <v>361</v>
+        <v>926</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>361</v>
+        <v>926</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19509,16 +19509,16 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>280</v>
+        <v>490</v>
       </c>
       <c r="K266" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L266" t="n">
-        <v>650</v>
+        <v>370</v>
       </c>
       <c r="M266" t="n">
-        <v>623</v>
+        <v>361</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>623</v>
+        <v>361</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19577,20 +19577,20 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="K267" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L267" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M267" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K268" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L268" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M268" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K269" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L269" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M269" t="n">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K270" t="n">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="L270" t="n">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="M270" t="n">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19860,25 +19860,25 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K271" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="L271" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="M271" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19937,20 +19937,20 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J272" t="n">
         <v>120</v>
       </c>
       <c r="K272" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L272" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="M272" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20009,20 +20009,20 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K273" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L273" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M273" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20076,7 +20076,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K274" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L274" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M274" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -20157,16 +20157,16 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K275" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="L275" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="M275" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K276" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L276" t="n">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="M276" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20297,20 +20297,20 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J277" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K277" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L277" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="M277" t="n">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K278" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="L278" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M278" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="K279" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L279" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M279" t="n">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="K280" t="n">
-        <v>750</v>
+        <v>380</v>
       </c>
       <c r="L280" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M280" t="n">
-        <v>771</v>
+        <v>389</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>771</v>
+        <v>389</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="K281" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L281" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M281" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20652,16 +20652,16 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K282" t="n">
         <v>600</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20724,7 +20724,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20733,16 +20733,16 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K283" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L283" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M283" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,11 +20801,11 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="K284" t="n">
         <v>330</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K285" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L285" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M285" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J286" t="n">
         <v>120</v>
       </c>
       <c r="K286" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L286" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M286" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -21021,16 +21021,16 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K287" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L287" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M287" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21084,7 +21084,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -21093,16 +21093,16 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="K288" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L288" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="M288" t="n">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21165,16 +21165,16 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="K289" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L289" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="M289" t="n">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K290" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L290" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>300</v>
+        <v>389</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K291" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L291" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M291" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21377,20 +21377,20 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J292" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K292" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M292" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K293" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L293" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M293" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21525,16 +21525,16 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="K294" t="n">
-        <v>1100</v>
+        <v>380</v>
       </c>
       <c r="L294" t="n">
-        <v>1200</v>
+        <v>380</v>
       </c>
       <c r="M294" t="n">
-        <v>1146</v>
+        <v>380</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>1146</v>
+        <v>380</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -21597,16 +21597,16 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="K295" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="L295" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="M295" t="n">
-        <v>639</v>
+        <v>1146</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>639</v>
+        <v>1146</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21660,25 +21660,25 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K296" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L296" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M296" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>800</v>
+        <v>639</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J297" t="n">
         <v>90</v>
       </c>
       <c r="K297" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L297" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M297" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K298" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L298" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="M298" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>355</v>
+        <v>600</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21881,20 +21881,20 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J299" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="K299" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L299" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="M299" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>500</v>
+        <v>355</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="K300" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M300" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22020,25 +22020,25 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="K301" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="L301" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="M301" t="n">
-        <v>529</v>
+        <v>1200</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>529</v>
+        <v>1200</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L302" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M302" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22164,7 +22164,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -22173,16 +22173,16 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K303" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L303" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="M303" t="n">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>524</v>
+        <v>350</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K304" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L304" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M304" t="n">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22317,16 +22317,16 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K305" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L305" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="M305" t="n">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22380,7 +22380,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22389,16 +22389,16 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K306" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L306" t="n">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="M306" t="n">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22452,7 +22452,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22461,16 +22461,16 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K307" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L307" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M307" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22533,16 +22533,16 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="K308" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="L308" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="M308" t="n">
-        <v>721</v>
+        <v>300</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>721</v>
+        <v>300</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K309" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L309" t="n">
-        <v>420</v>
+        <v>750</v>
       </c>
       <c r="M309" t="n">
-        <v>409</v>
+        <v>721</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>409</v>
+        <v>721</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K310" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L310" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M310" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22740,25 +22740,25 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K311" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="L311" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M311" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K312" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L312" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M312" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="K313" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L313" t="n">
         <v>350</v>
       </c>
       <c r="M313" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -22961,20 +22961,20 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L314" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M314" t="n">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>474</v>
+        <v>350</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23028,7 +23028,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -23037,16 +23037,16 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K315" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L315" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M315" t="n">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -23100,25 +23100,25 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="K316" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L316" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M316" t="n">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>526</v>
+        <v>371</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K317" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L317" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M317" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,58 +23229,130 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E318" t="n">
+        <v>5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J318" t="n">
+        <v>80</v>
+      </c>
+      <c r="K318" t="n">
+        <v>400</v>
+      </c>
+      <c r="L318" t="n">
+        <v>400</v>
+      </c>
+      <c r="M318" t="n">
+        <v>400</v>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>1</v>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>3</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E318" t="n">
-        <v>5</v>
-      </c>
-      <c r="F318" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="E319" t="n">
+        <v>5</v>
+      </c>
+      <c r="F319" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I318" t="inlineStr">
+      <c r="I319" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J318" t="n">
+      <c r="J319" t="n">
         <v>130</v>
       </c>
-      <c r="K318" t="n">
+      <c r="K319" t="n">
         <v>350</v>
       </c>
-      <c r="L318" t="n">
+      <c r="L319" t="n">
         <v>350</v>
       </c>
-      <c r="M318" t="n">
+      <c r="M319" t="n">
         <v>350</v>
       </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O318" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P318" t="n">
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
         <v>350</v>
       </c>
-      <c r="Q318" t="n">
-        <v>1</v>
-      </c>
-      <c r="R318" t="inlineStr">
+      <c r="Q319" t="n">
+        <v>1</v>
+      </c>
+      <c r="R319" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R322"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20805,16 +20805,16 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K284" t="n">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="L284" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M284" t="n">
-        <v>771</v>
+        <v>626</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>771</v>
+        <v>626</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20868,25 +20868,25 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K285" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L285" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="M285" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20940,7 +20940,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -20949,16 +20949,16 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="K286" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L286" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M286" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K287" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L287" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M287" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21084,25 +21084,25 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K288" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L288" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M288" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>339</v>
+        <v>600</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K289" t="n">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="L289" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M289" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K290" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L290" t="n">
         <v>350</v>
       </c>
       <c r="M290" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21300,25 +21300,25 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K291" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="L291" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="M291" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="K292" t="n">
         <v>350</v>
       </c>
       <c r="L292" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M292" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44365</v>
+        <v>44356</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K293" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L293" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M293" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="K294" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L294" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M294" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K295" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L295" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M295" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="K296" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L296" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M296" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>476</v>
+        <v>300</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21732,25 +21732,25 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K297" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L297" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="M297" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="K298" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="L298" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="M298" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>1146</v>
+        <v>476</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K299" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="L299" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="M299" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="K300" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="L300" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="M300" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>800</v>
+        <v>1146</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22020,25 +22020,25 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K301" t="n">
         <v>600</v>
       </c>
       <c r="L301" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="M301" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>600</v>
+        <v>639</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22101,16 +22101,16 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="L302" t="n">
-        <v>360</v>
+        <v>800</v>
       </c>
       <c r="M302" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>355</v>
+        <v>800</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44203</v>
+        <v>44461</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="K303" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L303" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M303" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22236,25 +22236,25 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="K304" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="L304" t="n">
-        <v>1200</v>
+        <v>360</v>
       </c>
       <c r="M304" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>1200</v>
+        <v>355</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K305" t="n">
         <v>500</v>
       </c>
       <c r="L305" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M305" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22385,20 +22385,20 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K306" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L306" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="M306" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -22461,7 +22461,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="K307" t="n">
         <v>500</v>
@@ -22470,7 +22470,7 @@
         <v>550</v>
       </c>
       <c r="M307" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22524,25 +22524,25 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L308" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M308" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>422</v>
+        <v>350</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22596,25 +22596,25 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K309" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L309" t="n">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="M309" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>330</v>
+        <v>524</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K310" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L310" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M310" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22752,13 +22752,13 @@
         <v>80</v>
       </c>
       <c r="K311" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="L311" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="M311" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -22812,7 +22812,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22821,16 +22821,16 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="K312" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="L312" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="M312" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>721</v>
+        <v>376</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
@@ -22884,7 +22884,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22893,16 +22893,16 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="K313" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L313" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M313" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -22965,16 +22965,16 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="K314" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L314" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="M314" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>300</v>
+        <v>721</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K315" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="L315" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="M315" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -23100,25 +23100,25 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K316" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L316" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M316" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -23181,16 +23181,16 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K317" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L317" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M317" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44211</v>
+        <v>44292</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K318" t="n">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="L318" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M318" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23301,7 +23301,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E319" t="n">
         <v>5</v>
@@ -23316,25 +23316,25 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="K319" t="n">
         <v>350</v>
       </c>
       <c r="L319" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M319" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K320" t="n">
+        <v>450</v>
+      </c>
+      <c r="L320" t="n">
         <v>500</v>
       </c>
-      <c r="L320" t="n">
-        <v>550</v>
-      </c>
       <c r="M320" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -23460,25 +23460,25 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="K321" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L321" t="n">
         <v>400</v>
       </c>
       <c r="M321" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,58 +23517,202 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>1a (guarda)</t>
+        </is>
+      </c>
+      <c r="J322" t="n">
+        <v>165</v>
+      </c>
+      <c r="K322" t="n">
+        <v>500</v>
+      </c>
+      <c r="L322" t="n">
+        <v>550</v>
+      </c>
+      <c r="M322" t="n">
+        <v>526</v>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>1</v>
+      </c>
+      <c r="R322" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>3</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E323" t="n">
+        <v>5</v>
+      </c>
+      <c r="F323" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>2a (guarda)</t>
+        </is>
+      </c>
+      <c r="J323" t="n">
+        <v>80</v>
+      </c>
+      <c r="K323" t="n">
+        <v>400</v>
+      </c>
+      <c r="L323" t="n">
+        <v>400</v>
+      </c>
+      <c r="M323" t="n">
+        <v>400</v>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>1</v>
+      </c>
+      <c r="R323" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E322" t="n">
-        <v>5</v>
-      </c>
-      <c r="F322" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="E324" t="n">
+        <v>5</v>
+      </c>
+      <c r="F324" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I322" t="inlineStr">
+      <c r="I324" t="inlineStr">
         <is>
           <t>1a (cosecha)</t>
         </is>
       </c>
-      <c r="J322" t="n">
+      <c r="J324" t="n">
         <v>130</v>
       </c>
-      <c r="K322" t="n">
+      <c r="K324" t="n">
         <v>350</v>
       </c>
-      <c r="L322" t="n">
+      <c r="L324" t="n">
         <v>350</v>
       </c>
-      <c r="M322" t="n">
+      <c r="M324" t="n">
         <v>350</v>
       </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O322" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P322" t="n">
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P324" t="n">
         <v>350</v>
       </c>
-      <c r="Q322" t="n">
-        <v>1</v>
-      </c>
-      <c r="R322" t="inlineStr">
+      <c r="Q324" t="n">
+        <v>1</v>
+      </c>
+      <c r="R324" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R326"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K273" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L273" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M273" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K274" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L274" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M274" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K275" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L275" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="M275" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20220,7 +20220,7 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K276" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L276" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M276" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K277" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="L277" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="M277" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K278" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L278" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="M278" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K279" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L279" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="M279" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,11 +20513,11 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K280" t="n">
         <v>350</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20585,20 +20585,20 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="K281" t="n">
         <v>350</v>
       </c>
       <c r="L281" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="M281" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20652,25 +20652,25 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K282" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L282" t="n">
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="M282" t="n">
-        <v>878</v>
+        <v>361</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>878</v>
+        <v>361</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20724,25 +20724,25 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K283" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L283" t="n">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="M283" t="n">
-        <v>317</v>
+        <v>878</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>317</v>
+        <v>878</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,20 +20801,20 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="K284" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L284" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="M284" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K285" t="n">
         <v>350</v>
       </c>
       <c r="L285" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M285" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20949,7 +20949,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K286" t="n">
         <v>350</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21017,20 +21017,20 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K287" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L287" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M287" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K288" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L288" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M288" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K289" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L289" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M289" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L290" t="n">
         <v>350</v>
       </c>
       <c r="M290" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21309,16 +21309,16 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K291" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L291" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M291" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21357,7 +21357,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E292" t="n">
         <v>5</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K292" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="L292" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="M292" t="n">
-        <v>475</v>
+        <v>230</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>475</v>
+        <v>230</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21449,20 +21449,20 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J293" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K293" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L293" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M293" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21501,7 +21501,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E294" t="n">
         <v>5</v>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21593,20 +21593,20 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K295" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="L295" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="M295" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="N295" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="Q295" t="n">
         <v>1</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J296" t="n">
         <v>80</v>
       </c>
       <c r="K296" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L296" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M296" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21717,7 +21717,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E297" t="n">
         <v>5</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J297" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K297" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L297" t="n">
         <v>350</v>
       </c>
       <c r="M297" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21804,7 +21804,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -21813,16 +21813,16 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K298" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L298" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M298" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21861,7 +21861,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E299" t="n">
         <v>5</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="K299" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="L299" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="M299" t="n">
-        <v>526</v>
+        <v>230</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>526</v>
+        <v>230</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21953,20 +21953,20 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J300" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K300" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L300" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M300" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22005,7 +22005,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E301" t="n">
         <v>5</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K301" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L301" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M301" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K302" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="L302" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M302" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22149,7 +22149,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K303" t="n">
-        <v>800</v>
+        <v>270</v>
       </c>
       <c r="L303" t="n">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="M303" t="n">
-        <v>847</v>
+        <v>270</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>847</v>
+        <v>270</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="K304" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L304" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M304" t="n">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22308,25 +22308,25 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="K305" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L305" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M305" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E306" t="n">
         <v>5</v>
@@ -22380,25 +22380,25 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="K306" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L306" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M306" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22457,20 +22457,20 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K307" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L307" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M307" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22509,7 +22509,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E308" t="n">
         <v>5</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K308" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L308" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M308" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22605,16 +22605,16 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K309" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L309" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M309" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22653,7 +22653,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="K310" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="L310" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="M310" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22745,20 +22745,20 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J311" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="K311" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L311" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M311" t="n">
-        <v>771</v>
+        <v>450</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>771</v>
+        <v>450</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="K312" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L312" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M312" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22884,16 +22884,16 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K313" t="n">
         <v>600</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E314" t="n">
         <v>5</v>
@@ -22956,25 +22956,25 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K314" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L314" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M314" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N314" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q314" t="n">
         <v>1</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -23033,20 +23033,20 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K315" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L315" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M315" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J316" t="n">
         <v>90</v>
       </c>
       <c r="K316" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L316" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M316" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23157,7 +23157,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K317" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L317" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M317" t="n">
-        <v>755</v>
+        <v>600</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>755</v>
+        <v>600</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -23253,16 +23253,16 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K318" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L318" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M318" t="n">
-        <v>526</v>
+        <v>755</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>526</v>
+        <v>755</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23321,20 +23321,20 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J319" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K319" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L319" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M319" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23373,7 +23373,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E320" t="n">
         <v>5</v>
@@ -23388,25 +23388,25 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K320" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L320" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M320" t="n">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -23465,20 +23465,20 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K321" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L321" t="n">
         <v>350</v>
       </c>
       <c r="M321" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K322" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="L322" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M322" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23589,7 +23589,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E323" t="n">
         <v>5</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K323" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L323" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M323" t="n">
-        <v>391</v>
+        <v>280</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>391</v>
+        <v>280</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23676,7 +23676,7 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23685,16 +23685,16 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K324" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L324" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23733,7 +23733,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E325" t="n">
         <v>5</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K325" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L325" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="M325" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,58 +23805,130 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E326" t="n">
+        <v>5</v>
+      </c>
+      <c r="F326" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J326" t="n">
+        <v>180</v>
+      </c>
+      <c r="K326" t="n">
+        <v>380</v>
+      </c>
+      <c r="L326" t="n">
+        <v>380</v>
+      </c>
+      <c r="M326" t="n">
+        <v>380</v>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>1</v>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>3</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E326" t="n">
-        <v>5</v>
-      </c>
-      <c r="F326" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="E327" t="n">
+        <v>5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I326" t="inlineStr">
+      <c r="I327" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J326" t="n">
+      <c r="J327" t="n">
         <v>250</v>
       </c>
-      <c r="K326" t="n">
+      <c r="K327" t="n">
         <v>550</v>
       </c>
-      <c r="L326" t="n">
+      <c r="L327" t="n">
         <v>600</v>
       </c>
-      <c r="M326" t="n">
+      <c r="M327" t="n">
         <v>574</v>
       </c>
-      <c r="N326" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O326" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P326" t="n">
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
         <v>574</v>
       </c>
-      <c r="Q326" t="n">
-        <v>1</v>
-      </c>
-      <c r="R326" t="inlineStr">
+      <c r="Q327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R327" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E122" t="n">
         <v>5</v>
@@ -9141,16 +9141,16 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="K122" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L122" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M122" t="n">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -9163,7 +9163,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>523</v>
+        <v>600</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -9209,20 +9209,20 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K123" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L123" t="n">
-        <v>420</v>
+        <v>550</v>
       </c>
       <c r="M123" t="n">
-        <v>409</v>
+        <v>523</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>409</v>
+        <v>523</v>
       </c>
       <c r="Q123" t="n">
         <v>1</v>
@@ -9276,25 +9276,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K124" t="n">
         <v>400</v>
       </c>
       <c r="L124" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="M124" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9307,7 +9307,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -9333,7 +9333,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E125" t="n">
         <v>5</v>
@@ -9348,25 +9348,25 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K125" t="n">
         <v>400</v>
       </c>
       <c r="L125" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="M125" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="Q125" t="n">
         <v>1</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9429,16 +9429,16 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K126" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L126" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M126" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>300</v>
+        <v>425</v>
       </c>
       <c r="Q126" t="n">
         <v>1</v>
@@ -9477,7 +9477,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E127" t="n">
         <v>5</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9501,16 +9501,16 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="K127" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L127" t="n">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="M127" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="N127" t="inlineStr">
         <is>
@@ -9523,7 +9523,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9573,16 +9573,16 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="K128" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L128" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="M128" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="N128" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>250</v>
+        <v>361</v>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44382</v>
+        <v>44230</v>
       </c>
       <c r="E129" t="n">
         <v>5</v>
@@ -9636,25 +9636,25 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="K129" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="L129" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="M129" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="N129" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9717,16 +9717,16 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K130" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L130" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M130" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N130" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q130" t="n">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44216</v>
+        <v>44382</v>
       </c>
       <c r="E131" t="n">
         <v>5</v>
@@ -9780,25 +9780,25 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K131" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L131" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="M131" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N131" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Q131" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9861,16 +9861,16 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K132" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L132" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M132" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N132" t="inlineStr">
         <is>
@@ -9883,7 +9883,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -9909,7 +9909,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44370</v>
+        <v>44216</v>
       </c>
       <c r="E133" t="n">
         <v>5</v>
@@ -9924,25 +9924,25 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="K133" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="L133" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M133" t="n">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="N133" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="Q133" t="n">
         <v>1</v>
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44284</v>
+        <v>44370</v>
       </c>
       <c r="E134" t="n">
         <v>5</v>
@@ -10001,20 +10001,20 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="K134" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L134" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M134" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N134" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q134" t="n">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44244</v>
+        <v>44284</v>
       </c>
       <c r="E135" t="n">
         <v>5</v>
@@ -10073,20 +10073,20 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="K135" t="n">
+        <v>320</v>
+      </c>
+      <c r="L135" t="n">
         <v>350</v>
       </c>
-      <c r="L135" t="n">
-        <v>400</v>
-      </c>
       <c r="M135" t="n">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="N135" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="Q135" t="n">
         <v>1</v>
@@ -10140,7 +10140,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K136" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L136" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M136" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="N136" t="inlineStr">
         <is>
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="Q136" t="n">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44449</v>
+        <v>44244</v>
       </c>
       <c r="E137" t="n">
         <v>5</v>
@@ -10212,25 +10212,25 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K137" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="L137" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="M137" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N137" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="Q137" t="n">
         <v>1</v>
@@ -10289,20 +10289,20 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K138" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L138" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M138" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N138" t="inlineStr">
         <is>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q138" t="n">
         <v>1</v>
@@ -10361,20 +10361,20 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K139" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L139" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M139" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N139" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10433,20 +10433,20 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="K140" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L140" t="n">
         <v>500</v>
       </c>
       <c r="M140" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E141" t="n">
         <v>5</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="K141" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L141" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M141" t="n">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10581,16 +10581,16 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="K142" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L142" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10644,25 +10644,25 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="K143" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L143" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M143" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10716,7 +10716,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -10725,16 +10725,16 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K144" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L144" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E145" t="n">
         <v>5</v>
@@ -10788,25 +10788,25 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K145" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L145" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M145" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10865,20 +10865,20 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K146" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L146" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M146" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E147" t="n">
         <v>5</v>
@@ -10937,20 +10937,20 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K147" t="n">
         <v>330</v>
       </c>
       <c r="L147" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M147" t="n">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11009,20 +11009,20 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K148" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L148" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M148" t="n">
-        <v>727</v>
+        <v>342</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>727</v>
+        <v>342</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E149" t="n">
         <v>5</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K149" t="n">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="L149" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M149" t="n">
-        <v>325</v>
+        <v>727</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>325</v>
+        <v>727</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K150" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L150" t="n">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="M150" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K151" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L151" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="M151" t="n">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K152" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L152" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M152" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11364,12 +11364,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J153" t="n">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11436,25 +11436,25 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K155" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L155" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M155" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -11585,20 +11585,20 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K156" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L156" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M156" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N156" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q156" t="n">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11657,20 +11657,20 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J157" t="n">
         <v>170</v>
       </c>
       <c r="K157" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L157" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="M157" t="n">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11709,7 +11709,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E158" t="n">
         <v>5</v>
@@ -11733,16 +11733,16 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K158" t="n">
         <v>350</v>
       </c>
       <c r="L158" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M158" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K159" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L159" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M159" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J160" t="n">
+        <v>230</v>
+      </c>
+      <c r="K160" t="n">
         <v>380</v>
       </c>
-      <c r="K160" t="n">
-        <v>500</v>
-      </c>
       <c r="L160" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M160" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11940,7 +11940,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K161" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L161" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M161" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -12021,16 +12021,16 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K162" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L162" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M162" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K163" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L163" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M163" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12161,20 +12161,20 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K164" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L164" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M164" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12233,20 +12233,20 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K165" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L165" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M165" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12300,7 +12300,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12309,16 +12309,16 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K166" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L166" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E167" t="n">
         <v>5</v>
@@ -12372,25 +12372,25 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K167" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L167" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M167" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12444,7 +12444,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -12453,16 +12453,16 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K168" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L168" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M168" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12501,7 +12501,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E169" t="n">
         <v>5</v>
@@ -12516,25 +12516,25 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K169" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L169" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M169" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12597,16 +12597,16 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K170" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L170" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M170" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E171" t="n">
         <v>5</v>
@@ -12660,25 +12660,25 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K171" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L171" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M171" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12737,20 +12737,20 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J172" t="n">
         <v>120</v>
       </c>
       <c r="K172" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L172" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M172" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K173" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L173" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M173" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12876,25 +12876,25 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K174" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="L174" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="M174" t="n">
-        <v>1453</v>
+        <v>250</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12903,11 +12903,11 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1453</v>
+        <v>250</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -12957,16 +12957,16 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K175" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L175" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="M175" t="n">
-        <v>900</v>
+        <v>1453</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12975,11 +12975,11 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>900</v>
+        <v>1453</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E176" t="n">
         <v>5</v>
@@ -13020,25 +13020,25 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K176" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L176" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M176" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13097,20 +13097,20 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K177" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L177" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M177" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13123,7 +13123,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13149,7 +13149,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E178" t="n">
         <v>5</v>
@@ -13169,20 +13169,20 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K178" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L178" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M178" t="n">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13236,7 +13236,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -13245,16 +13245,16 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K179" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L179" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M179" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E180" t="n">
         <v>5</v>
@@ -13308,7 +13308,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K180" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L180" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M180" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K181" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L181" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E182" t="n">
         <v>5</v>
@@ -13457,20 +13457,20 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K182" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L182" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M182" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13529,20 +13529,20 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K183" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L183" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M183" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13596,25 +13596,25 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K184" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L184" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13668,25 +13668,25 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K185" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L185" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M185" t="n">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -13749,16 +13749,16 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K186" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L186" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="M186" t="n">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E187" t="n">
         <v>5</v>
@@ -13812,25 +13812,25 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K187" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="L187" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M187" t="n">
-        <v>674</v>
+        <v>250</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>674</v>
+        <v>250</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13889,20 +13889,20 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="K188" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L188" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M188" t="n">
-        <v>500</v>
+        <v>674</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>500</v>
+        <v>674</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13956,25 +13956,25 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J189" t="n">
         <v>90</v>
       </c>
       <c r="K189" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L189" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M189" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14028,25 +14028,25 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="K190" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L190" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M190" t="n">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14085,7 +14085,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L191" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M191" t="n">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E192" t="n">
         <v>5</v>
@@ -14177,20 +14177,20 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
         <v>170</v>
       </c>
       <c r="K192" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L192" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="M192" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14253,16 +14253,16 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K193" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L193" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M193" t="n">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14316,7 +14316,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -14325,16 +14325,16 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K194" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L194" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M194" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14388,7 +14388,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -14397,16 +14397,16 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K195" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L195" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M195" t="n">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K196" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L196" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M196" t="n">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E197" t="n">
         <v>5</v>
@@ -14532,25 +14532,25 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K197" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L197" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M197" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14609,11 +14609,11 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K198" t="n">
         <v>500</v>
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E199" t="n">
         <v>5</v>
@@ -14681,11 +14681,11 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J199" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K199" t="n">
         <v>500</v>
@@ -14753,20 +14753,20 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K200" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L200" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M200" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14825,20 +14825,20 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K201" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L201" t="n">
         <v>350</v>
       </c>
       <c r="M201" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N201" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q201" t="n">
         <v>1</v>
@@ -14897,20 +14897,20 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K202" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="L202" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M202" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="N202" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="Q202" t="n">
         <v>1</v>
@@ -14949,7 +14949,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E203" t="n">
         <v>5</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K203" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L203" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="M203" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15045,16 +15045,16 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="K204" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L204" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M204" t="n">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15093,7 +15093,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -15108,25 +15108,25 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K205" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L205" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="M205" t="n">
-        <v>926</v>
+        <v>626</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>926</v>
+        <v>626</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15180,25 +15180,25 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K206" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L206" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M206" t="n">
-        <v>750</v>
+        <v>926</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>750</v>
+        <v>926</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15252,7 +15252,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K207" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L207" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M207" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15324,25 +15324,25 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K208" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L208" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M208" t="n">
-        <v>341</v>
+        <v>600</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>341</v>
+        <v>600</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15396,25 +15396,25 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="K209" t="n">
-        <v>1400</v>
+        <v>330</v>
       </c>
       <c r="L209" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M209" t="n">
-        <v>1400</v>
+        <v>341</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>1400</v>
+        <v>341</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15473,20 +15473,20 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J210" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K210" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L210" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M210" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K211" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L211" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="M211" t="n">
-        <v>355</v>
+        <v>1200</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>355</v>
+        <v>1200</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15617,20 +15617,20 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K212" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L212" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="M212" t="n">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15684,7 +15684,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -15693,16 +15693,16 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K213" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L213" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M213" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15756,7 +15756,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -15765,16 +15765,16 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K214" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L214" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M214" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15837,7 +15837,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="K215" t="n">
         <v>380</v>
@@ -15846,7 +15846,7 @@
         <v>400</v>
       </c>
       <c r="M215" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15885,7 +15885,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E216" t="n">
         <v>5</v>
@@ -15905,20 +15905,20 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J216" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="K216" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L216" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="M216" t="n">
-        <v>815</v>
+        <v>389</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>815</v>
+        <v>389</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15977,20 +15977,20 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J217" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K217" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L217" t="n">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="M217" t="n">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16049,20 +16049,20 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J218" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K218" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L218" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="M218" t="n">
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -16125,16 +16125,16 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K219" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L219" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M219" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E220" t="n">
         <v>5</v>
@@ -16188,25 +16188,25 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K220" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L220" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M220" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16260,7 +16260,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -16269,16 +16269,16 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="K221" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="L221" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M221" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16317,7 +16317,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E222" t="n">
         <v>5</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K222" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="L222" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="M222" t="n">
-        <v>576</v>
+        <v>340</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>576</v>
+        <v>340</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16413,16 +16413,16 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K223" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L223" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M223" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16461,7 +16461,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E224" t="n">
         <v>5</v>
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K224" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L224" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M224" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16553,20 +16553,20 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J225" t="n">
         <v>170</v>
       </c>
       <c r="K225" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L225" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M225" t="n">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16625,20 +16625,20 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="K226" t="n">
-        <v>1400</v>
+        <v>380</v>
       </c>
       <c r="L226" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="M226" t="n">
-        <v>1400</v>
+        <v>389</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16647,11 +16647,11 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1400</v>
+        <v>389</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16692,16 +16692,16 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K227" t="n">
         <v>1400</v>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P227" t="n">
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K228" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L228" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M228" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16836,25 +16836,25 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K229" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L229" t="n">
-        <v>420</v>
+        <v>1200</v>
       </c>
       <c r="M229" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16917,16 +16917,16 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K230" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L230" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M230" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N230" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q230" t="n">
         <v>1</v>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E231" t="n">
         <v>5</v>
@@ -16980,25 +16980,25 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K231" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L231" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M231" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17057,20 +17057,20 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L232" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M232" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17109,7 +17109,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E233" t="n">
         <v>5</v>
@@ -17129,20 +17129,20 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J233" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K233" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L233" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M233" t="n">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17201,20 +17201,20 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K234" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L234" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M234" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K235" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L235" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M235" t="n">
-        <v>626</v>
+        <v>400</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>626</v>
+        <v>400</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17340,7 +17340,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -17349,16 +17349,16 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K236" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L236" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M236" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17397,7 +17397,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -17412,25 +17412,25 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K237" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L237" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M237" t="n">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17484,7 +17484,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17493,16 +17493,16 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K238" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L238" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M238" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17541,7 +17541,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E239" t="n">
         <v>5</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K239" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L239" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17633,20 +17633,20 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="K240" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L240" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M240" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17685,7 +17685,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E241" t="n">
         <v>5</v>
@@ -17705,20 +17705,20 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J241" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="K241" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L241" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M241" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17777,20 +17777,20 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J242" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K242" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L242" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="M242" t="n">
-        <v>853</v>
+        <v>380</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>853</v>
+        <v>380</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -17856,13 +17856,13 @@
         <v>170</v>
       </c>
       <c r="K243" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L243" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M243" t="n">
-        <v>626</v>
+        <v>853</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>626</v>
+        <v>853</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17916,25 +17916,25 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J244" t="n">
         <v>170</v>
       </c>
       <c r="K244" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="L244" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="M244" t="n">
-        <v>375</v>
+        <v>626</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>375</v>
+        <v>626</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17997,16 +17997,16 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K245" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L245" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M245" t="n">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18045,7 +18045,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E246" t="n">
         <v>5</v>
@@ -18065,20 +18065,20 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J246" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="K246" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L246" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="M246" t="n">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18137,20 +18137,20 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J247" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K247" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L247" t="n">
-        <v>830</v>
+        <v>390</v>
       </c>
       <c r="M247" t="n">
-        <v>815</v>
+        <v>385</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>815</v>
+        <v>385</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18204,7 +18204,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K248" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L248" t="n">
-        <v>550</v>
+        <v>830</v>
       </c>
       <c r="M248" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18276,25 +18276,25 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K249" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L249" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M249" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18425,20 +18425,20 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J251" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18497,20 +18497,20 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K252" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L252" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M252" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18549,7 +18549,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -18573,16 +18573,16 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K253" t="n">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="L253" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="M253" t="n">
-        <v>771</v>
+        <v>325</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>771</v>
+        <v>325</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="K254" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L254" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M254" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18785,20 +18785,20 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J256" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K256" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L256" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M256" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K257" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L257" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M257" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="K258" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L258" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M258" t="n">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="K259" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L259" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M259" t="n">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19068,25 +19068,25 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K260" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L260" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M260" t="n">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19140,25 +19140,25 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K261" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L261" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M261" t="n">
-        <v>423</v>
+        <v>550</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>423</v>
+        <v>550</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K262" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L262" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M262" t="n">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19284,25 +19284,25 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K263" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L263" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K264" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L264" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M264" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E265" t="n">
         <v>5</v>
@@ -19437,16 +19437,16 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K265" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L265" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M265" t="n">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19485,7 +19485,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E266" t="n">
         <v>5</v>
@@ -19505,20 +19505,20 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K266" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L266" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M266" t="n">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -19581,16 +19581,16 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K267" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L267" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M267" t="n">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19649,20 +19649,20 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J268" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K268" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="L268" t="n">
-        <v>1400</v>
+        <v>230</v>
       </c>
       <c r="M268" t="n">
-        <v>1400</v>
+        <v>214</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>1400</v>
+        <v>214</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19716,16 +19716,16 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K269" t="n">
         <v>1400</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P269" t="n">
@@ -19788,16 +19788,16 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J270" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K270" t="n">
         <v>1400</v>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P270" t="n">
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J271" t="n">
         <v>50</v>
       </c>
       <c r="K271" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L271" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M271" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,25 +19932,25 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="K272" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="L272" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M272" t="n">
-        <v>367</v>
+        <v>1200</v>
       </c>
       <c r="N272" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>367</v>
+        <v>1200</v>
       </c>
       <c r="Q272" t="n">
         <v>1</v>
@@ -19989,7 +19989,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E273" t="n">
         <v>5</v>
@@ -20013,16 +20013,16 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K273" t="n">
-        <v>650</v>
+        <v>360</v>
       </c>
       <c r="L273" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="M273" t="n">
-        <v>678</v>
+        <v>367</v>
       </c>
       <c r="N273" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>678</v>
+        <v>367</v>
       </c>
       <c r="Q273" t="n">
         <v>1</v>
@@ -20061,7 +20061,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E274" t="n">
         <v>5</v>
@@ -20085,16 +20085,16 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K274" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L274" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M274" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20153,20 +20153,20 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K275" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L275" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M275" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20225,20 +20225,20 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J276" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K276" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L276" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="M276" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K277" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L277" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M277" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20349,7 +20349,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E278" t="n">
         <v>5</v>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -20373,16 +20373,16 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K278" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="L278" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="M278" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K279" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L279" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="M279" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E280" t="n">
         <v>5</v>
@@ -20513,20 +20513,20 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J280" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K280" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L280" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="M280" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20585,11 +20585,11 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J281" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K281" t="n">
         <v>350</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="K282" t="n">
         <v>350</v>
       </c>
       <c r="L282" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="M282" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20724,25 +20724,25 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K283" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L283" t="n">
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="M283" t="n">
-        <v>878</v>
+        <v>361</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>878</v>
+        <v>361</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20796,25 +20796,25 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K284" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L284" t="n">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="M284" t="n">
-        <v>317</v>
+        <v>878</v>
       </c>
       <c r="N284" t="inlineStr">
         <is>
@@ -20827,7 +20827,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>317</v>
+        <v>878</v>
       </c>
       <c r="Q284" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="K285" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L285" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="M285" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20945,20 +20945,20 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K286" t="n">
         <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M286" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K287" t="n">
         <v>350</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K288" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L288" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M288" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K289" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="L289" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="M289" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>330</v>
+        <v>500</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21233,20 +21233,20 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J290" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K290" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="L290" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M290" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="N290" t="inlineStr">
         <is>
@@ -21259,7 +21259,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="Q290" t="n">
         <v>1</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E291" t="n">
         <v>5</v>
@@ -21305,20 +21305,20 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J291" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="K291" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L291" t="n">
         <v>350</v>
       </c>
       <c r="M291" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="N291" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q291" t="n">
         <v>1</v>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21381,16 +21381,16 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K292" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L292" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M292" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="N292" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="Q292" t="n">
         <v>1</v>
@@ -21429,7 +21429,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E293" t="n">
         <v>5</v>
@@ -21444,7 +21444,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21453,16 +21453,16 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K293" t="n">
-        <v>450</v>
+        <v>230</v>
       </c>
       <c r="L293" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="M293" t="n">
-        <v>475</v>
+        <v>230</v>
       </c>
       <c r="N293" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>475</v>
+        <v>230</v>
       </c>
       <c r="Q293" t="n">
         <v>1</v>
@@ -21521,20 +21521,20 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J294" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="K294" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L294" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M294" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="N294" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="Q294" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E295" t="n">
         <v>5</v>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J295" t="n">
@@ -21645,7 +21645,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E296" t="n">
         <v>5</v>
@@ -21665,20 +21665,20 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J296" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K296" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="L296" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="M296" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="N296" t="inlineStr">
         <is>
@@ -21691,7 +21691,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="Q296" t="n">
         <v>1</v>
@@ -21737,20 +21737,20 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J297" t="n">
         <v>80</v>
       </c>
       <c r="K297" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="L297" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="M297" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="N297" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="Q297" t="n">
         <v>1</v>
@@ -21789,7 +21789,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E298" t="n">
         <v>5</v>
@@ -21809,20 +21809,20 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J298" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="K298" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L298" t="n">
         <v>350</v>
       </c>
       <c r="M298" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="N298" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q298" t="n">
         <v>1</v>
@@ -21876,7 +21876,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21885,16 +21885,16 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="K299" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L299" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M299" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="N299" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="Q299" t="n">
         <v>1</v>
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E300" t="n">
         <v>5</v>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21957,16 +21957,16 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="K300" t="n">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="L300" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="M300" t="n">
-        <v>526</v>
+        <v>230</v>
       </c>
       <c r="N300" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>526</v>
+        <v>230</v>
       </c>
       <c r="Q300" t="n">
         <v>1</v>
@@ -22025,20 +22025,20 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J301" t="n">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="K301" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L301" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M301" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="N301" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>400</v>
+        <v>526</v>
       </c>
       <c r="Q301" t="n">
         <v>1</v>
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -22097,20 +22097,20 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J302" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="K302" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L302" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M302" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N302" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="Q302" t="n">
         <v>1</v>
@@ -22169,20 +22169,20 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J303" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K303" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="L303" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="M303" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="N303" t="inlineStr">
         <is>
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="Q303" t="n">
         <v>1</v>
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E304" t="n">
         <v>5</v>
@@ -22241,20 +22241,20 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J304" t="n">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K304" t="n">
-        <v>800</v>
+        <v>270</v>
       </c>
       <c r="L304" t="n">
-        <v>900</v>
+        <v>270</v>
       </c>
       <c r="M304" t="n">
-        <v>847</v>
+        <v>270</v>
       </c>
       <c r="N304" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>847</v>
+        <v>270</v>
       </c>
       <c r="Q304" t="n">
         <v>1</v>
@@ -22313,20 +22313,20 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J305" t="n">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="K305" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L305" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M305" t="n">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="N305" t="inlineStr">
         <is>
@@ -22339,7 +22339,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>700</v>
+        <v>847</v>
       </c>
       <c r="Q305" t="n">
         <v>1</v>
@@ -22380,25 +22380,25 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J306" t="n">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="K306" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L306" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="M306" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="N306" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="Q306" t="n">
         <v>1</v>
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E307" t="n">
         <v>5</v>
@@ -22452,25 +22452,25 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J307" t="n">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="K307" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L307" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="M307" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="N307" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>800</v>
+        <v>626</v>
       </c>
       <c r="Q307" t="n">
         <v>1</v>
@@ -22529,20 +22529,20 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J308" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K308" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L308" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M308" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N308" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q308" t="n">
         <v>1</v>
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22601,20 +22601,20 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J309" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="K309" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L309" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M309" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N309" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q309" t="n">
         <v>1</v>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22677,16 +22677,16 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K310" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="L310" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M310" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="N310" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="Q310" t="n">
         <v>1</v>
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E311" t="n">
         <v>5</v>
@@ -22740,7 +22740,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22749,16 +22749,16 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="K311" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="L311" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="M311" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="N311" t="inlineStr">
         <is>
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="Q311" t="n">
         <v>1</v>
@@ -22797,7 +22797,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
@@ -22817,20 +22817,20 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J312" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="K312" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="L312" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="M312" t="n">
-        <v>771</v>
+        <v>450</v>
       </c>
       <c r="N312" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>771</v>
+        <v>450</v>
       </c>
       <c r="Q312" t="n">
         <v>1</v>
@@ -22889,20 +22889,20 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J313" t="n">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="K313" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L313" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M313" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N313" t="inlineStr">
         <is>
@@ -22915,7 +22915,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q313" t="n">
         <v>1</v>
@@ -22956,16 +22956,16 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J314" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K314" t="n">
         <v>600</v>
@@ -23013,7 +23013,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E315" t="n">
         <v>5</v>
@@ -23028,25 +23028,25 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J315" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N315" t="inlineStr">
         <is>
@@ -23059,7 +23059,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q315" t="n">
         <v>1</v>
@@ -23085,7 +23085,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E316" t="n">
         <v>5</v>
@@ -23105,20 +23105,20 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J316" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="K316" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L316" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M316" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N316" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q316" t="n">
         <v>1</v>
@@ -23177,20 +23177,20 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J317" t="n">
         <v>90</v>
       </c>
       <c r="K317" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L317" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M317" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N317" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q317" t="n">
         <v>1</v>
@@ -23229,7 +23229,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -23249,20 +23249,20 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J318" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K318" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L318" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M318" t="n">
-        <v>755</v>
+        <v>600</v>
       </c>
       <c r="N318" t="inlineStr">
         <is>
@@ -23275,7 +23275,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>755</v>
+        <v>600</v>
       </c>
       <c r="Q318" t="n">
         <v>1</v>
@@ -23316,7 +23316,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -23325,16 +23325,16 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K319" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L319" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="M319" t="n">
-        <v>526</v>
+        <v>755</v>
       </c>
       <c r="N319" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>526</v>
+        <v>755</v>
       </c>
       <c r="Q319" t="n">
         <v>1</v>
@@ -23393,20 +23393,20 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J320" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K320" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L320" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="M320" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="N320" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>427</v>
+        <v>526</v>
       </c>
       <c r="Q320" t="n">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E321" t="n">
         <v>5</v>
@@ -23460,25 +23460,25 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J321" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="K321" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L321" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M321" t="n">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="N321" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>339</v>
+        <v>427</v>
       </c>
       <c r="Q321" t="n">
         <v>1</v>
@@ -23517,7 +23517,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E322" t="n">
         <v>5</v>
@@ -23537,20 +23537,20 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J322" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K322" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L322" t="n">
         <v>350</v>
       </c>
       <c r="M322" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N322" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q322" t="n">
         <v>1</v>
@@ -23609,20 +23609,20 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J323" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="K323" t="n">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="L323" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M323" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="N323" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="Q323" t="n">
         <v>1</v>
@@ -23661,7 +23661,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
@@ -23681,20 +23681,20 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J324" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="K324" t="n">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="L324" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="M324" t="n">
-        <v>391</v>
+        <v>280</v>
       </c>
       <c r="N324" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>391</v>
+        <v>280</v>
       </c>
       <c r="Q324" t="n">
         <v>1</v>
@@ -23748,7 +23748,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -23757,16 +23757,16 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K325" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="L325" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="N325" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="Q325" t="n">
         <v>1</v>
@@ -23805,7 +23805,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
@@ -23820,7 +23820,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23829,16 +23829,16 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K326" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="L326" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="M326" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="N326" t="inlineStr">
         <is>
@@ -23851,7 +23851,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="Q326" t="n">
         <v>1</v>
@@ -23877,58 +23877,130 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E327" t="n">
+        <v>5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Camote</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>1a (cosecha)</t>
+        </is>
+      </c>
+      <c r="J327" t="n">
+        <v>180</v>
+      </c>
+      <c r="K327" t="n">
+        <v>380</v>
+      </c>
+      <c r="L327" t="n">
+        <v>380</v>
+      </c>
+      <c r="M327" t="n">
+        <v>380</v>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>380</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>3</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Femacal de La Calera</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E327" t="n">
-        <v>5</v>
-      </c>
-      <c r="F327" t="n">
-        <v>100112045</v>
-      </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>Zapallo</t>
-        </is>
-      </c>
-      <c r="H327" t="inlineStr">
+      <c r="E328" t="n">
+        <v>5</v>
+      </c>
+      <c r="F328" t="n">
+        <v>100112045</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Zapallo</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
         <is>
           <t>Camote</t>
         </is>
       </c>
-      <c r="I327" t="inlineStr">
+      <c r="I328" t="inlineStr">
         <is>
           <t>1a (guarda)</t>
         </is>
       </c>
-      <c r="J327" t="n">
+      <c r="J328" t="n">
         <v>250</v>
       </c>
-      <c r="K327" t="n">
+      <c r="K328" t="n">
         <v>550</v>
       </c>
-      <c r="L327" t="n">
+      <c r="L328" t="n">
         <v>600</v>
       </c>
-      <c r="M327" t="n">
+      <c r="M328" t="n">
         <v>574</v>
       </c>
-      <c r="N327" t="inlineStr">
-        <is>
-          <t>$/kilo (volumen en unidades)</t>
-        </is>
-      </c>
-      <c r="O327" t="inlineStr">
-        <is>
-          <t>Provincia de Talca</t>
-        </is>
-      </c>
-      <c r="P327" t="n">
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>$/kilo (volumen en unidades)</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>Provincia de Talca</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
         <v>574</v>
       </c>
-      <c r="Q327" t="n">
-        <v>1</v>
-      </c>
-      <c r="R327" t="inlineStr">
+      <c r="Q328" t="n">
+        <v>1</v>
+      </c>
+      <c r="R328" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Femacal de La Calera - Zapallo.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R330"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E140" t="n">
         <v>5</v>
@@ -10440,13 +10440,13 @@
         <v>120</v>
       </c>
       <c r="K140" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="L140" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M140" t="n">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="N140" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -10505,20 +10505,20 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K141" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L141" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M141" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N141" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q141" t="n">
         <v>1</v>
@@ -10577,20 +10577,20 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>3a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K142" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L142" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="M142" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="N142" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="Q142" t="n">
         <v>1</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E143" t="n">
         <v>5</v>
@@ -10649,20 +10649,20 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a (guarda)</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="K143" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L143" t="n">
         <v>500</v>
       </c>
       <c r="M143" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="N143" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q143" t="n">
         <v>1</v>
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E144" t="n">
         <v>5</v>
@@ -10721,20 +10721,20 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="K144" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L144" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M144" t="n">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="N144" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="Q144" t="n">
         <v>1</v>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10797,16 +10797,16 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="K145" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L145" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="N145" t="inlineStr">
         <is>
@@ -10819,7 +10819,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="Q145" t="n">
         <v>1</v>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E146" t="n">
         <v>5</v>
@@ -10860,25 +10860,25 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>370</v>
+        <v>190</v>
       </c>
       <c r="K146" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L146" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="M146" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="N146" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="Q146" t="n">
         <v>1</v>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="K147" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L147" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N147" t="inlineStr">
         <is>
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q147" t="n">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E148" t="n">
         <v>5</v>
@@ -11004,25 +11004,25 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K148" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L148" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M148" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N148" t="inlineStr">
         <is>
@@ -11035,7 +11035,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q148" t="n">
         <v>1</v>
@@ -11081,20 +11081,20 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K149" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L149" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M149" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="N149" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="Q149" t="n">
         <v>1</v>
@@ -11133,7 +11133,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E150" t="n">
         <v>5</v>
@@ -11153,20 +11153,20 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="K150" t="n">
         <v>330</v>
       </c>
       <c r="L150" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="M150" t="n">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="N150" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="Q150" t="n">
         <v>1</v>
@@ -11205,7 +11205,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E151" t="n">
         <v>5</v>
@@ -11225,20 +11225,20 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K151" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="L151" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="M151" t="n">
-        <v>727</v>
+        <v>342</v>
       </c>
       <c r="N151" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>727</v>
+        <v>342</v>
       </c>
       <c r="Q151" t="n">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E152" t="n">
         <v>5</v>
@@ -11297,20 +11297,20 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K152" t="n">
-        <v>320</v>
+        <v>700</v>
       </c>
       <c r="L152" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="M152" t="n">
-        <v>325</v>
+        <v>727</v>
       </c>
       <c r="N152" t="inlineStr">
         <is>
@@ -11323,7 +11323,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>325</v>
+        <v>727</v>
       </c>
       <c r="Q152" t="n">
         <v>1</v>
@@ -11349,7 +11349,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E153" t="n">
         <v>5</v>
@@ -11369,20 +11369,20 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="K153" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L153" t="n">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="M153" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="N153" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>414</v>
+        <v>325</v>
       </c>
       <c r="Q153" t="n">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E154" t="n">
         <v>5</v>
@@ -11441,20 +11441,20 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K154" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="L154" t="n">
-        <v>600</v>
+        <v>430</v>
       </c>
       <c r="M154" t="n">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="N154" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>574</v>
+        <v>414</v>
       </c>
       <c r="Q154" t="n">
         <v>1</v>
@@ -11513,20 +11513,20 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="K155" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L155" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="N155" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>400</v>
+        <v>574</v>
       </c>
       <c r="Q155" t="n">
         <v>1</v>
@@ -11580,12 +11580,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J156" t="n">
@@ -11637,7 +11637,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E157" t="n">
         <v>5</v>
@@ -11652,25 +11652,25 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c r="K157" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L157" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M157" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N157" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q157" t="n">
         <v>1</v>
@@ -11729,20 +11729,20 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K158" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L158" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M158" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N158" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q158" t="n">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E159" t="n">
         <v>5</v>
@@ -11801,20 +11801,20 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J159" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="K159" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L159" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="M159" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="N159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>414</v>
+        <v>350</v>
       </c>
       <c r="Q159" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E160" t="n">
         <v>5</v>
@@ -11873,20 +11873,20 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J160" t="n">
         <v>170</v>
       </c>
       <c r="K160" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L160" t="n">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="M160" t="n">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="N160" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="Q160" t="n">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E161" t="n">
         <v>5</v>
@@ -11949,16 +11949,16 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K161" t="n">
         <v>350</v>
       </c>
       <c r="L161" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M161" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="N161" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="Q161" t="n">
         <v>1</v>
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E162" t="n">
         <v>5</v>
@@ -12017,20 +12017,20 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="K162" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L162" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M162" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="N162" t="inlineStr">
         <is>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="Q162" t="n">
         <v>1</v>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E163" t="n">
         <v>5</v>
@@ -12089,20 +12089,20 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J163" t="n">
+        <v>230</v>
+      </c>
+      <c r="K163" t="n">
         <v>380</v>
       </c>
-      <c r="K163" t="n">
-        <v>500</v>
-      </c>
       <c r="L163" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M163" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="N163" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="Q163" t="n">
         <v>1</v>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12165,16 +12165,16 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K164" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="L164" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="M164" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="N164" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q164" t="n">
         <v>1</v>
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12237,16 +12237,16 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="K165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="L165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="M165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="N165" t="inlineStr">
         <is>
@@ -12259,7 +12259,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q165" t="n">
         <v>1</v>
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
@@ -12305,20 +12305,20 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K166" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L166" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M166" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N166" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q166" t="n">
         <v>1</v>
@@ -12377,20 +12377,20 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K167" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="L167" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="M167" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="N167" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="Q167" t="n">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12449,20 +12449,20 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K168" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L168" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="M168" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="N168" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="Q168" t="n">
         <v>1</v>
@@ -12516,7 +12516,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K169" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L169" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M169" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="N169" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="Q169" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E170" t="n">
         <v>5</v>
@@ -12588,25 +12588,25 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>280</v>
+        <v>110</v>
       </c>
       <c r="K170" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="L170" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="M170" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="N170" t="inlineStr">
         <is>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>339</v>
+        <v>400</v>
       </c>
       <c r="Q170" t="n">
         <v>1</v>
@@ -12660,7 +12660,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12669,16 +12669,16 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K171" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="L171" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M171" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="N171" t="inlineStr">
         <is>
@@ -12691,7 +12691,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>250</v>
+        <v>339</v>
       </c>
       <c r="Q171" t="n">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E172" t="n">
         <v>5</v>
@@ -12732,25 +12732,25 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K172" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L172" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M172" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="Q172" t="n">
         <v>1</v>
@@ -12804,7 +12804,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12813,16 +12813,16 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K173" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="L173" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M173" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>330</v>
+        <v>391</v>
       </c>
       <c r="Q173" t="n">
         <v>1</v>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E174" t="n">
         <v>5</v>
@@ -12876,25 +12876,25 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K174" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L174" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="M174" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="N174" t="inlineStr">
         <is>
@@ -12907,7 +12907,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="Q174" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E175" t="n">
         <v>5</v>
@@ -12953,20 +12953,20 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J175" t="n">
         <v>120</v>
       </c>
       <c r="K175" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="L175" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M175" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="N175" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="Q175" t="n">
         <v>1</v>
@@ -13020,7 +13020,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -13029,16 +13029,16 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K176" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L176" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M176" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Q176" t="n">
         <v>1</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E177" t="n">
         <v>5</v>
@@ -13092,25 +13092,25 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J177" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K177" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="L177" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="M177" t="n">
-        <v>1453</v>
+        <v>250</v>
       </c>
       <c r="N177" t="inlineStr">
         <is>
@@ -13119,11 +13119,11 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>1453</v>
+        <v>250</v>
       </c>
       <c r="Q177" t="n">
         <v>1</v>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -13173,16 +13173,16 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="K178" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="L178" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="M178" t="n">
-        <v>900</v>
+        <v>1453</v>
       </c>
       <c r="N178" t="inlineStr">
         <is>
@@ -13191,11 +13191,11 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>900</v>
+        <v>1453</v>
       </c>
       <c r="Q178" t="n">
         <v>1</v>
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44454</v>
+        <v>44169</v>
       </c>
       <c r="E179" t="n">
         <v>5</v>
@@ -13236,25 +13236,25 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K179" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L179" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="M179" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N179" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q179" t="n">
         <v>1</v>
@@ -13313,20 +13313,20 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K180" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L180" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M180" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N180" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q180" t="n">
         <v>1</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44410</v>
+        <v>44454</v>
       </c>
       <c r="E181" t="n">
         <v>5</v>
@@ -13385,20 +13385,20 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="K181" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L181" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="M181" t="n">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="N181" t="inlineStr">
         <is>
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="Q181" t="n">
         <v>1</v>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -13461,16 +13461,16 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="K182" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L182" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="M182" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="N182" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>350</v>
+        <v>529</v>
       </c>
       <c r="Q182" t="n">
         <v>1</v>
@@ -13509,7 +13509,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44467</v>
+        <v>44410</v>
       </c>
       <c r="E183" t="n">
         <v>5</v>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -13533,16 +13533,16 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="K183" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="L183" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="M183" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N183" t="inlineStr">
         <is>
@@ -13555,7 +13555,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="Q183" t="n">
         <v>1</v>
@@ -13601,20 +13601,20 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K184" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L184" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M184" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N184" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q184" t="n">
         <v>1</v>
@@ -13653,7 +13653,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E185" t="n">
         <v>5</v>
@@ -13673,20 +13673,20 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="K185" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="L185" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M185" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="N185" t="inlineStr">
         <is>
@@ -13699,7 +13699,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>675</v>
+        <v>600</v>
       </c>
       <c r="Q185" t="n">
         <v>1</v>
@@ -13745,20 +13745,20 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K186" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="L186" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="M186" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="N186" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>450</v>
+        <v>675</v>
       </c>
       <c r="Q186" t="n">
         <v>1</v>
@@ -13812,25 +13812,25 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K187" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="L187" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M187" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="N187" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q187" t="n">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E188" t="n">
         <v>5</v>
@@ -13884,25 +13884,25 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="K188" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L188" t="n">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="M188" t="n">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="N188" t="inlineStr">
         <is>
@@ -13915,7 +13915,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>316</v>
+        <v>400</v>
       </c>
       <c r="Q188" t="n">
         <v>1</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -13965,16 +13965,16 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K189" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L189" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="M189" t="n">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="N189" t="inlineStr">
         <is>
@@ -13987,7 +13987,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="Q189" t="n">
         <v>1</v>
@@ -14013,7 +14013,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E190" t="n">
         <v>5</v>
@@ -14028,25 +14028,25 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K190" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="L190" t="n">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="M190" t="n">
-        <v>674</v>
+        <v>250</v>
       </c>
       <c r="N190" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>674</v>
+        <v>250</v>
       </c>
       <c r="Q190" t="n">
         <v>1</v>
@@ -14105,20 +14105,20 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="K191" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="L191" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M191" t="n">
-        <v>500</v>
+        <v>674</v>
       </c>
       <c r="N191" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>500</v>
+        <v>674</v>
       </c>
       <c r="Q191" t="n">
         <v>1</v>
@@ -14172,25 +14172,25 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J192" t="n">
         <v>90</v>
       </c>
       <c r="K192" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L192" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M192" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N192" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q192" t="n">
         <v>1</v>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E193" t="n">
         <v>5</v>
@@ -14244,25 +14244,25 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J193" t="n">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="K193" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L193" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M193" t="n">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="N193" t="inlineStr">
         <is>
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="Q193" t="n">
         <v>1</v>
@@ -14301,7 +14301,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E194" t="n">
         <v>5</v>
@@ -14321,20 +14321,20 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J194" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K194" t="n">
-        <v>500</v>
+        <v>380</v>
       </c>
       <c r="L194" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="M194" t="n">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="N194" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>524</v>
+        <v>389</v>
       </c>
       <c r="Q194" t="n">
         <v>1</v>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E195" t="n">
         <v>5</v>
@@ -14393,20 +14393,20 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J195" t="n">
         <v>170</v>
       </c>
       <c r="K195" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L195" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="M195" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="N195" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="Q195" t="n">
         <v>1</v>
@@ -14445,7 +14445,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E196" t="n">
         <v>5</v>
@@ -14469,16 +14469,16 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="K196" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="L196" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M196" t="n">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="N196" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>476</v>
+        <v>414</v>
       </c>
       <c r="Q196" t="n">
         <v>1</v>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14541,16 +14541,16 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K197" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="L197" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="M197" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="N197" t="inlineStr">
         <is>
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>380</v>
+        <v>476</v>
       </c>
       <c r="Q197" t="n">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E198" t="n">
         <v>5</v>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14613,16 +14613,16 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K198" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="L198" t="n">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="M198" t="n">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="N198" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="Q198" t="n">
         <v>1</v>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -14685,16 +14685,16 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="K199" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L199" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="M199" t="n">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="N199" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="Q199" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -14748,25 +14748,25 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J200" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K200" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L200" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M200" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N200" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q200" t="n">
         <v>1</v>
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E201" t="n">
         <v>5</v>
@@ -14825,11 +14825,11 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J201" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="K201" t="n">
         <v>500</v>
@@ -14877,7 +14877,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E202" t="n">
         <v>5</v>
@@ -14897,11 +14897,11 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J202" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="K202" t="n">
         <v>500</v>
@@ -14969,20 +14969,20 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J203" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N203" t="inlineStr">
         <is>
@@ -14995,7 +14995,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Q203" t="n">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E204" t="n">
         <v>5</v>
@@ -15041,20 +15041,20 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="K204" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L204" t="n">
         <v>350</v>
       </c>
       <c r="M204" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="N204" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q204" t="n">
         <v>1</v>
@@ -15113,20 +15113,20 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>2a (cosecha)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J205" t="n">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="K205" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="L205" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M205" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="N205" t="inlineStr">
         <is>
@@ -15139,7 +15139,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="Q205" t="n">
         <v>1</v>
@@ -15165,7 +15165,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44426</v>
+        <v>44291</v>
       </c>
       <c r="E206" t="n">
         <v>5</v>
@@ -15185,20 +15185,20 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (cosecha)</t>
         </is>
       </c>
       <c r="J206" t="n">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="K206" t="n">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="L206" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="M206" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="N206" t="inlineStr">
         <is>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>523</v>
+        <v>280</v>
       </c>
       <c r="Q206" t="n">
         <v>1</v>
@@ -15237,7 +15237,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E207" t="n">
         <v>5</v>
@@ -15261,16 +15261,16 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="K207" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L207" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="M207" t="n">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="N207" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="Q207" t="n">
         <v>1</v>
@@ -15309,7 +15309,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E208" t="n">
         <v>5</v>
@@ -15324,25 +15324,25 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J208" t="n">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="K208" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L208" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="M208" t="n">
-        <v>926</v>
+        <v>626</v>
       </c>
       <c r="N208" t="inlineStr">
         <is>
@@ -15355,7 +15355,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>926</v>
+        <v>626</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -15381,7 +15381,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E209" t="n">
         <v>5</v>
@@ -15396,25 +15396,25 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J209" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="K209" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L209" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="M209" t="n">
-        <v>750</v>
+        <v>926</v>
       </c>
       <c r="N209" t="inlineStr">
         <is>
@@ -15427,7 +15427,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>750</v>
+        <v>926</v>
       </c>
       <c r="Q209" t="n">
         <v>1</v>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15477,16 +15477,16 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="K210" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="L210" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M210" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="N210" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="Q210" t="n">
         <v>1</v>
@@ -15525,7 +15525,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E211" t="n">
         <v>5</v>
@@ -15540,25 +15540,25 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J211" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="K211" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L211" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M211" t="n">
-        <v>341</v>
+        <v>600</v>
       </c>
       <c r="N211" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>341</v>
+        <v>600</v>
       </c>
       <c r="Q211" t="n">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -15612,25 +15612,25 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J212" t="n">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="K212" t="n">
-        <v>1400</v>
+        <v>330</v>
       </c>
       <c r="L212" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="M212" t="n">
-        <v>1400</v>
+        <v>341</v>
       </c>
       <c r="N212" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>1400</v>
+        <v>341</v>
       </c>
       <c r="Q212" t="n">
         <v>1</v>
@@ -15689,20 +15689,20 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="K213" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L213" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M213" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N213" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q213" t="n">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E214" t="n">
         <v>5</v>
@@ -15756,25 +15756,25 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="K214" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="L214" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="M214" t="n">
-        <v>355</v>
+        <v>1200</v>
       </c>
       <c r="N214" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>355</v>
+        <v>1200</v>
       </c>
       <c r="Q214" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E215" t="n">
         <v>5</v>
@@ -15833,20 +15833,20 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J215" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="K215" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L215" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="M215" t="n">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="N215" t="inlineStr">
         <is>
@@ -15859,7 +15859,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>473</v>
+        <v>355</v>
       </c>
       <c r="Q215" t="n">
         <v>1</v>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -15909,16 +15909,16 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K216" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L216" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="M216" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="N216" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>350</v>
+        <v>473</v>
       </c>
       <c r="Q216" t="n">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -15972,7 +15972,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -15981,16 +15981,16 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K217" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L217" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="M217" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="N217" t="inlineStr">
         <is>
@@ -16003,7 +16003,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="Q217" t="n">
         <v>1</v>
@@ -16029,7 +16029,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44274</v>
+        <v>44280</v>
       </c>
       <c r="E218" t="n">
         <v>5</v>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="K218" t="n">
         <v>380</v>
@@ -16062,7 +16062,7 @@
         <v>400</v>
       </c>
       <c r="M218" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N218" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q218" t="n">
         <v>1</v>
@@ -16101,7 +16101,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44445</v>
+        <v>44274</v>
       </c>
       <c r="E219" t="n">
         <v>5</v>
@@ -16121,20 +16121,20 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J219" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="K219" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L219" t="n">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="M219" t="n">
-        <v>815</v>
+        <v>389</v>
       </c>
       <c r="N219" t="inlineStr">
         <is>
@@ -16147,7 +16147,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>815</v>
+        <v>389</v>
       </c>
       <c r="Q219" t="n">
         <v>1</v>
@@ -16193,20 +16193,20 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J220" t="n">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="K220" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L220" t="n">
-        <v>600</v>
+        <v>830</v>
       </c>
       <c r="M220" t="n">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="N220" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>600</v>
+        <v>815</v>
       </c>
       <c r="Q220" t="n">
         <v>1</v>
@@ -16245,7 +16245,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E221" t="n">
         <v>5</v>
@@ -16265,20 +16265,20 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J221" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K221" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L221" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="M221" t="n">
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="N221" t="inlineStr">
         <is>
@@ -16291,7 +16291,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="Q221" t="n">
         <v>1</v>
@@ -16332,7 +16332,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -16341,16 +16341,16 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="K222" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="L222" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="M222" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="N222" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>250</v>
+        <v>366</v>
       </c>
       <c r="Q222" t="n">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -16404,25 +16404,25 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J223" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="K223" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="L223" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="M223" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="N223" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="Q223" t="n">
         <v>1</v>
@@ -16476,7 +16476,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -16485,16 +16485,16 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="K224" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="L224" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="M224" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="N224" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="Q224" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E225" t="n">
         <v>5</v>
@@ -16548,7 +16548,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="K225" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="L225" t="n">
-        <v>600</v>
+        <v>340</v>
       </c>
       <c r="M225" t="n">
-        <v>576</v>
+        <v>340</v>
       </c>
       <c r="N225" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>576</v>
+        <v>340</v>
       </c>
       <c r="Q225" t="n">
         <v>1</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E226" t="n">
         <v>5</v>
@@ -16629,16 +16629,16 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="K226" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="L226" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="M226" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="N226" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>350</v>
+        <v>576</v>
       </c>
       <c r="Q226" t="n">
         <v>1</v>
@@ -16677,7 +16677,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44391</v>
+        <v>44358</v>
       </c>
       <c r="E227" t="n">
         <v>5</v>
@@ -16701,16 +16701,16 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K227" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="L227" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="M227" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="N227" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q227" t="n">
         <v>1</v>
@@ -16749,7 +16749,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44335</v>
+        <v>44391</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -16769,20 +16769,20 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J228" t="n">
         <v>170</v>
       </c>
       <c r="K228" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L228" t="n">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="M228" t="n">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="N228" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="Q228" t="n">
         <v>1</v>
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44165</v>
+        <v>44335</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16841,20 +16841,20 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="K229" t="n">
-        <v>1400</v>
+        <v>380</v>
       </c>
       <c r="L229" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="M229" t="n">
-        <v>1400</v>
+        <v>389</v>
       </c>
       <c r="N229" t="inlineStr">
         <is>
@@ -16863,11 +16863,11 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P229" t="n">
-        <v>1400</v>
+        <v>389</v>
       </c>
       <c r="Q229" t="n">
         <v>1</v>
@@ -16908,16 +16908,16 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K230" t="n">
         <v>1400</v>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P230" t="n">
@@ -16985,20 +16985,20 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="K231" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L231" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M231" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q231" t="n">
         <v>1</v>
@@ -17037,7 +17037,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E232" t="n">
         <v>5</v>
@@ -17052,25 +17052,25 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J232" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K232" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="L232" t="n">
-        <v>420</v>
+        <v>1200</v>
       </c>
       <c r="M232" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -17083,7 +17083,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>410</v>
+        <v>1200</v>
       </c>
       <c r="Q232" t="n">
         <v>1</v>
@@ -17124,7 +17124,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -17133,16 +17133,16 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K233" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L233" t="n">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="N233" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="Q233" t="n">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E234" t="n">
         <v>5</v>
@@ -17196,25 +17196,25 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J234" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="K234" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L234" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M234" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N234" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q234" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44258</v>
+        <v>44320</v>
       </c>
       <c r="E235" t="n">
         <v>5</v>
@@ -17273,20 +17273,20 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J235" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="K235" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="L235" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M235" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="N235" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="Q235" t="n">
         <v>1</v>
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44475</v>
+        <v>44258</v>
       </c>
       <c r="E236" t="n">
         <v>5</v>
@@ -17345,20 +17345,20 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J236" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="K236" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L236" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="M236" t="n">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="N236" t="inlineStr">
         <is>
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>600</v>
+        <v>426</v>
       </c>
       <c r="Q236" t="n">
         <v>1</v>
@@ -17417,20 +17417,20 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="K237" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L237" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="M237" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N237" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="Q237" t="n">
         <v>1</v>
@@ -17469,7 +17469,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E238" t="n">
         <v>5</v>
@@ -17489,20 +17489,20 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="K238" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L238" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="M238" t="n">
-        <v>626</v>
+        <v>400</v>
       </c>
       <c r="N238" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>626</v>
+        <v>400</v>
       </c>
       <c r="Q238" t="n">
         <v>1</v>
@@ -17556,7 +17556,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17565,16 +17565,16 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="K239" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="L239" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M239" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="N239" t="inlineStr">
         <is>
@@ -17587,7 +17587,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>350</v>
+        <v>626</v>
       </c>
       <c r="Q239" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -17628,25 +17628,25 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J240" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K240" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="L240" t="n">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="M240" t="n">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="N240" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="Q240" t="n">
         <v>1</v>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -17709,16 +17709,16 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K241" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="L241" t="n">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="M241" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="N241" t="inlineStr">
         <is>
@@ -17731,7 +17731,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>350</v>
+        <v>469</v>
       </c>
       <c r="Q241" t="n">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E242" t="n">
         <v>5</v>
@@ -17772,7 +17772,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -17781,16 +17781,16 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K242" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="L242" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="M242" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N242" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q242" t="n">
         <v>1</v>
@@ -17829,7 +17829,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E243" t="n">
         <v>5</v>
@@ -17849,20 +17849,20 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>310</v>
+        <v>90</v>
       </c>
       <c r="K243" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L243" t="n">
-        <v>370</v>
+        <v>500</v>
       </c>
       <c r="M243" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="N243" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>360</v>
+        <v>500</v>
       </c>
       <c r="Q243" t="n">
         <v>1</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44300</v>
+        <v>44362</v>
       </c>
       <c r="E244" t="n">
         <v>5</v>
@@ -17921,20 +17921,20 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J244" t="n">
-        <v>120</v>
+        <v>310</v>
       </c>
       <c r="K244" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="L244" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M244" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="N244" t="inlineStr">
         <is>
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="Q244" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44186</v>
+        <v>44300</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17993,20 +17993,20 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J245" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="K245" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L245" t="n">
-        <v>900</v>
+        <v>380</v>
       </c>
       <c r="M245" t="n">
-        <v>853</v>
+        <v>380</v>
       </c>
       <c r="N245" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>853</v>
+        <v>380</v>
       </c>
       <c r="Q245" t="n">
         <v>1</v>
@@ -18060,7 +18060,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -18072,13 +18072,13 @@
         <v>170</v>
       </c>
       <c r="K246" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L246" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="M246" t="n">
-        <v>626</v>
+        <v>853</v>
       </c>
       <c r="N246" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>626</v>
+        <v>853</v>
       </c>
       <c r="Q246" t="n">
         <v>1</v>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44349</v>
+        <v>44186</v>
       </c>
       <c r="E247" t="n">
         <v>5</v>
@@ -18132,25 +18132,25 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J247" t="n">
         <v>170</v>
       </c>
       <c r="K247" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="L247" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="M247" t="n">
-        <v>375</v>
+        <v>626</v>
       </c>
       <c r="N247" t="inlineStr">
         <is>
@@ -18163,7 +18163,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>375</v>
+        <v>626</v>
       </c>
       <c r="Q247" t="n">
         <v>1</v>
@@ -18189,7 +18189,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E248" t="n">
         <v>5</v>
@@ -18213,16 +18213,16 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="K248" t="n">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="L248" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="M248" t="n">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="N248" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="Q248" t="n">
         <v>1</v>
@@ -18261,7 +18261,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E249" t="n">
         <v>5</v>
@@ -18281,20 +18281,20 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J249" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="K249" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="L249" t="n">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="M249" t="n">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="N249" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="Q249" t="n">
         <v>1</v>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E250" t="n">
         <v>5</v>
@@ -18353,20 +18353,20 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J250" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K250" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="L250" t="n">
-        <v>830</v>
+        <v>390</v>
       </c>
       <c r="M250" t="n">
-        <v>815</v>
+        <v>385</v>
       </c>
       <c r="N250" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>815</v>
+        <v>385</v>
       </c>
       <c r="Q250" t="n">
         <v>1</v>
@@ -18420,7 +18420,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18429,16 +18429,16 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="K251" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="L251" t="n">
-        <v>550</v>
+        <v>830</v>
       </c>
       <c r="M251" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
       <c r="N251" t="inlineStr">
         <is>
@@ -18451,7 +18451,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>550</v>
+        <v>815</v>
       </c>
       <c r="Q251" t="n">
         <v>1</v>
@@ -18477,7 +18477,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E252" t="n">
         <v>5</v>
@@ -18492,25 +18492,25 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J252" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K252" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="L252" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="M252" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="N252" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="Q252" t="n">
         <v>1</v>
@@ -18569,20 +18569,20 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J253" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K253" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L253" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N253" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q253" t="n">
         <v>1</v>
@@ -18641,20 +18641,20 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>3a nueva (o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J254" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K254" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L254" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M254" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N254" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q254" t="n">
         <v>1</v>
@@ -18693,7 +18693,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E255" t="n">
         <v>5</v>
@@ -18713,20 +18713,20 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>3a nueva (o)</t>
         </is>
       </c>
       <c r="J255" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="K255" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="L255" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M255" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="N255" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="Q255" t="n">
         <v>1</v>
@@ -18765,7 +18765,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E256" t="n">
         <v>5</v>
@@ -18789,16 +18789,16 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="K256" t="n">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="L256" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="M256" t="n">
-        <v>771</v>
+        <v>325</v>
       </c>
       <c r="N256" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>771</v>
+        <v>325</v>
       </c>
       <c r="Q256" t="n">
         <v>1</v>
@@ -18857,20 +18857,20 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J257" t="n">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="K257" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="L257" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M257" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="N257" t="inlineStr">
         <is>
@@ -18883,7 +18883,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>600</v>
+        <v>771</v>
       </c>
       <c r="Q257" t="n">
         <v>1</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E258" t="n">
         <v>5</v>
@@ -18929,20 +18929,20 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J258" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K258" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L258" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M258" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N258" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q258" t="n">
         <v>1</v>
@@ -18981,7 +18981,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44453</v>
+        <v>44202</v>
       </c>
       <c r="E259" t="n">
         <v>5</v>
@@ -19001,20 +19001,20 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J259" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K259" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="L259" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="M259" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N259" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="Q259" t="n">
         <v>1</v>
@@ -19073,20 +19073,20 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J260" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K260" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L260" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M260" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N260" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q260" t="n">
         <v>1</v>
@@ -19125,7 +19125,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E261" t="n">
         <v>5</v>
@@ -19145,20 +19145,20 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J261" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="K261" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="L261" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M261" t="n">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="N261" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="Q261" t="n">
         <v>1</v>
@@ -19217,20 +19217,20 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J262" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="K262" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="L262" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="M262" t="n">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="N262" t="inlineStr">
         <is>
@@ -19243,7 +19243,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>591</v>
+        <v>651</v>
       </c>
       <c r="Q262" t="n">
         <v>1</v>
@@ -19284,25 +19284,25 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J263" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K263" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L263" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="M263" t="n">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="N263" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="Q263" t="n">
         <v>1</v>
@@ -19341,7 +19341,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
@@ -19356,25 +19356,25 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J264" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K264" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L264" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="M264" t="n">
-        <v>423</v>
+        <v>550</v>
       </c>
       <c r="N264" t="inlineStr">
         <is>
@@ -19387,7 +19387,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>423</v>
+        <v>550</v>
       </c>
       <c r="Q264" t="n">
         <v>1</v>
@@ -19433,20 +19433,20 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J265" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="K265" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L265" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="M265" t="n">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="N265" t="inlineStr">
         <is>
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="Q265" t="n">
         <v>1</v>
@@ -19500,25 +19500,25 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J266" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K266" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="L266" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N266" t="inlineStr">
         <is>
@@ -19531,7 +19531,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="Q266" t="n">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44377</v>
+        <v>44242</v>
       </c>
       <c r="E267" t="n">
         <v>5</v>
@@ -19572,25 +19572,25 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J267" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K267" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L267" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M267" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N267" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="Q267" t="n">
         <v>1</v>
@@ -19629,7 +19629,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44433</v>
+        <v>44377</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
@@ -19653,16 +19653,16 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="K268" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="L268" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="M268" t="n">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="N268" t="inlineStr">
         <is>
@@ -19675,7 +19675,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>623</v>
+        <v>350</v>
       </c>
       <c r="Q268" t="n">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44307</v>
+        <v>44433</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
@@ -19721,20 +19721,20 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J269" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K269" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L269" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="M269" t="n">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="N269" t="inlineStr">
         <is>
@@ -19747,7 +19747,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>340</v>
+        <v>623</v>
       </c>
       <c r="Q269" t="n">
         <v>1</v>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19797,16 +19797,16 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="K270" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="L270" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M270" t="n">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="N270" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="Q270" t="n">
         <v>1</v>
@@ -19845,7 +19845,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E271" t="n">
         <v>5</v>
@@ -19865,20 +19865,20 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J271" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="K271" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="L271" t="n">
-        <v>1400</v>
+        <v>230</v>
       </c>
       <c r="M271" t="n">
-        <v>1400</v>
+        <v>214</v>
       </c>
       <c r="N271" t="inlineStr">
         <is>
@@ -19891,7 +19891,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>1400</v>
+        <v>214</v>
       </c>
       <c r="Q271" t="n">
         <v>1</v>
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E272" t="n">
         <v>5</v>
@@ -19932,16 +19932,16 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>2a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J272" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K272" t="n">
         <v>1400</v>
@@ -19959,7 +19959,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>Perú</t>
+          <t>Provincia de Talca</t>
         </is>
       </c>
       <c r="P272" t="n">
@@ -20004,16 +20004,16 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a nueva(o)</t>
         </is>
       </c>
       <c r="J273" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K273" t="n">
         <v>1400</v>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>Provincia de Talca</t>
+          <t>Perú</t>
         </is>
       </c>
       <c r="P273" t="n">
@@ -20081,20 +20081,20 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J274" t="n">
         <v>50</v>
       </c>
       <c r="K274" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="L274" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="M274" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N274" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="Q274" t="n">
         <v>1</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44334</v>
+        <v>44166</v>
       </c>
       <c r="E275" t="n">
         <v>5</v>
@@ -20148,25 +20148,25 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J275" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="K275" t="n">
-        <v>360</v>
+        <v>1200</v>
       </c>
       <c r="L275" t="n">
-        <v>370</v>
+        <v>1200</v>
       </c>
       <c r="M275" t="n">
-        <v>367</v>
+        <v>1200</v>
       </c>
       <c r="N275" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>367</v>
+        <v>1200</v>
       </c>
       <c r="Q275" t="n">
         <v>1</v>
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E276" t="n">
         <v>5</v>
@@ -20229,16 +20229,16 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K276" t="n">
-        <v>650</v>
+        <v>360</v>
       </c>
       <c r="L276" t="n">
-        <v>700</v>
+        <v>370</v>
       </c>
       <c r="M276" t="n">
-        <v>678</v>
+        <v>367</v>
       </c>
       <c r="N276" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>678</v>
+        <v>367</v>
       </c>
       <c r="Q276" t="n">
         <v>1</v>
@@ -20277,7 +20277,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E277" t="n">
         <v>5</v>
@@ -20301,16 +20301,16 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="K277" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="L277" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M277" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="N277" t="inlineStr">
         <is>
@@ -20323,7 +20323,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>800</v>
+        <v>678</v>
       </c>
       <c r="Q277" t="n">
         <v>1</v>
@@ -20369,20 +20369,20 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2a (guarda)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J278" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N278" t="inlineStr">
         <is>
@@ -20395,7 +20395,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q278" t="n">
         <v>1</v>
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E279" t="n">
         <v>5</v>
@@ -20441,20 +20441,20 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>2a (guarda)</t>
         </is>
       </c>
       <c r="J279" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="K279" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="L279" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="M279" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="N279" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>330</v>
+        <v>600</v>
       </c>
       <c r="Q279" t="n">
         <v>1</v>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -20517,16 +20517,16 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="K280" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="L280" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="M280" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="N280" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="Q280" t="n">
         <v>1</v>
@@ -20565,7 +20565,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E281" t="n">
         <v>5</v>
@@ -20580,7 +20580,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20589,16 +20589,16 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="K281" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="L281" t="n">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="M281" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="N281" t="inlineStr">
         <is>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="Q281" t="n">
         <v>1</v>
@@ -20637,7 +20637,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E282" t="n">
         <v>5</v>
@@ -20657,20 +20657,20 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J282" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K282" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="L282" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="M282" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="N282" t="inlineStr">
         <is>
@@ -20683,7 +20683,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>415</v>
+        <v>329</v>
       </c>
       <c r="Q282" t="n">
         <v>1</v>
@@ -20709,7 +20709,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E283" t="n">
         <v>5</v>
@@ -20729,20 +20729,20 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J283" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="K283" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="L283" t="n">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="M283" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="N283" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="Q283" t="n">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E284" t="n">
         <v>5</v>
@@ -20801,11 +20801,11 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J284" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K284" t="n">
         <v>350</v>
@@ -20853,7 +20853,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E285" t="n">
         <v>5</v>
@@ -20873,20 +20873,20 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J285" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
       <c r="K285" t="n">
         <v>350</v>
       </c>
       <c r="L285" t="n">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="M285" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="N285" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="Q285" t="n">
         <v>1</v>
@@ -20925,7 +20925,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E286" t="n">
         <v>5</v>
@@ -20940,25 +20940,25 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Paine</t>
+          <t>Camote</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>1a nueva(o)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J286" t="n">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="K286" t="n">
-        <v>850</v>
+        <v>350</v>
       </c>
       <c r="L286" t="n">
-        <v>900</v>
+        <v>370</v>
       </c>
       <c r="M286" t="n">
-        <v>878</v>
+        <v>361</v>
       </c>
       <c r="N286" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>878</v>
+        <v>361</v>
       </c>
       <c r="Q286" t="n">
         <v>1</v>
@@ -20997,7 +20997,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E287" t="n">
         <v>5</v>
@@ -21012,25 +21012,25 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Camote</t>
+          <t>Paine</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a nueva(o)</t>
         </is>
       </c>
       <c r="J287" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K287" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="L287" t="n">
-        <v>330</v>
+        <v>900</v>
       </c>
       <c r="M287" t="n">
-        <v>317</v>
+        <v>878</v>
       </c>
       <c r="N287" t="inlineStr">
         <is>
@@ -21043,7 +21043,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>317</v>
+        <v>878</v>
       </c>
       <c r="Q287" t="n">
         <v>1</v>
@@ -21069,7 +21069,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E288" t="n">
         <v>5</v>
@@ -21089,20 +21089,20 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>1a (guarda)</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J288" t="n">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="K288" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="L288" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="M288" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="N288" t="inlineStr">
         <is>
@@ -21115,7 +21115,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="Q288" t="n">
         <v>1</v>
@@ -21141,7 +21141,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E289" t="n">
         <v>5</v>
@@ -21161,20 +21161,20 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>1a (guarda)</t>
         </is>
       </c>
       <c r="J289" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="K289" t="n">
         <v>350</v>
       </c>
       <c r="L289" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="M289" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N289" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q289" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E290" t="n">
         <v>5</v>
@@ -21237,7 +21237,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K290" t="n">
         <v>350</v>
@@ -21285,7 +21285,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
